--- a/Email-Automation-Bot/Demo-set.xlsx
+++ b/Email-Automation-Bot/Demo-set.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SE762-IS300-Project\Email-Automation-Bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Softeng762\Email-Automation-Bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1194B3-F655-4869-B7AE-CD7EBDF54C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003B5A42-A428-44F6-B55E-2482EE49DBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{35F2FEA0-FCB0-43AF-A617-1082C65B0A32}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="27555" windowHeight="11385" xr2:uid="{35F2FEA0-FCB0-43AF-A617-1082C65B0A32}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -860,32 +860,32 @@
   <dimension ref="A1:AB996"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.453125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="12.1796875" style="2"/>
+    <col min="17" max="17" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="12.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -933,7 +933,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -987,16 +987,14 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="3">
-        <v>3</v>
-      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="7" t="s">
         <v>76</v>
       </c>
@@ -1041,16 +1039,14 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3">
-        <v>3</v>
-      </c>
+      <c r="C4" s="3"/>
       <c r="D4" s="7" t="s">
         <v>77</v>
       </c>
@@ -1095,16 +1091,14 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3">
-        <v>2</v>
-      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="7" t="s">
         <v>78</v>
       </c>
@@ -1143,16 +1137,14 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3">
-        <v>2</v>
-      </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="7" t="s">
         <v>79</v>
       </c>
@@ -1191,16 +1183,14 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
+      <c r="C7" s="3"/>
       <c r="D7" s="7" t="s">
         <v>80</v>
       </c>
@@ -1233,16 +1223,14 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
+      <c r="C8" s="3"/>
       <c r="D8" s="7" t="s">
         <v>81</v>
       </c>
@@ -1275,16 +1263,14 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="7" t="s">
         <v>82</v>
       </c>
@@ -1317,16 +1303,14 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
+      <c r="C10" s="3"/>
       <c r="D10" s="7" t="s">
         <v>83</v>
       </c>
@@ -1359,7 +1343,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>22</v>
       </c>
@@ -1393,7 +1377,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
@@ -1427,7 +1411,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
@@ -1461,7 +1445,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>28</v>
       </c>
@@ -1495,7 +1479,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>29</v>
       </c>
@@ -1529,7 +1513,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>31</v>
       </c>
@@ -1563,7 +1547,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>33</v>
       </c>
@@ -1597,7 +1581,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>35</v>
       </c>
@@ -1631,7 +1615,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>37</v>
       </c>
@@ -1665,7 +1649,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>39</v>
       </c>
@@ -1699,7 +1683,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>41</v>
       </c>
@@ -1733,7 +1717,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>43</v>
       </c>
@@ -1767,7 +1751,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>45</v>
       </c>
@@ -1801,7 +1785,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>47</v>
       </c>
@@ -1835,7 +1819,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>49</v>
       </c>
@@ -1869,7 +1853,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:28" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>51</v>
       </c>
@@ -1903,7 +1887,7 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>53</v>
       </c>
@@ -1937,7 +1921,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:28" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:28" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="6"/>
@@ -1967,7 +1951,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="6"/>
@@ -1997,7 +1981,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="6"/>
@@ -2027,7 +2011,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="6"/>
@@ -2057,7 +2041,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="6"/>
@@ -2087,7 +2071,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="6"/>
@@ -2117,7 +2101,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="6"/>
@@ -2147,7 +2131,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="6"/>
@@ -2177,7 +2161,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="6"/>
@@ -2207,7 +2191,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="6"/>
@@ -2237,7 +2221,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="6"/>
@@ -2267,7 +2251,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="6"/>
@@ -2297,7 +2281,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="6"/>
@@ -2327,7 +2311,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="6"/>
@@ -2357,7 +2341,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="6"/>
@@ -2387,7 +2371,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="6"/>
@@ -2417,7 +2401,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="6"/>
@@ -2447,7 +2431,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="6"/>
@@ -2477,7 +2461,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="6"/>
@@ -2507,7 +2491,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="6"/>
@@ -2537,7 +2521,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="6"/>
@@ -2567,7 +2551,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="6"/>
@@ -2597,7 +2581,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="6"/>
@@ -2627,7 +2611,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="6"/>
@@ -2657,7 +2641,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="6"/>
@@ -2687,7 +2671,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="6"/>
@@ -2717,7 +2701,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="6"/>
@@ -2747,7 +2731,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="6"/>
@@ -2777,7 +2761,7 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
     </row>
-    <row r="56" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="6"/>
@@ -2807,7 +2791,7 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="6"/>
@@ -2837,7 +2821,7 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="6"/>
@@ -2867,7 +2851,7 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="6"/>
@@ -2897,7 +2881,7 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="6"/>
@@ -2927,7 +2911,7 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="6"/>
@@ -2957,7 +2941,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="6"/>
@@ -2987,7 +2971,7 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="6"/>
@@ -3017,7 +3001,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="6"/>
@@ -3047,7 +3031,7 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="6"/>
@@ -3077,7 +3061,7 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="6"/>
@@ -3107,7 +3091,7 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
-    <row r="67" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="6"/>
@@ -3137,7 +3121,7 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
     </row>
-    <row r="68" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="6"/>
@@ -3167,7 +3151,7 @@
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
     </row>
-    <row r="69" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="6"/>
@@ -3197,7 +3181,7 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
     </row>
-    <row r="70" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="6"/>
@@ -3227,7 +3211,7 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
     </row>
-    <row r="71" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="6"/>
@@ -3257,7 +3241,7 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
     </row>
-    <row r="72" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="6"/>
@@ -3287,7 +3271,7 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
     </row>
-    <row r="73" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="6"/>
@@ -3317,7 +3301,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
     </row>
-    <row r="74" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="6"/>
@@ -3347,7 +3331,7 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
     </row>
-    <row r="75" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="6"/>
@@ -3377,7 +3361,7 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="6"/>
@@ -3407,7 +3391,7 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
     </row>
-    <row r="77" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="6"/>
@@ -3437,7 +3421,7 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
     </row>
-    <row r="78" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="6"/>
@@ -3467,7 +3451,7 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
     </row>
-    <row r="79" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="6"/>
@@ -3497,7 +3481,7 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
     </row>
-    <row r="80" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="6"/>
@@ -3527,7 +3511,7 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
     </row>
-    <row r="81" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="6"/>
@@ -3557,7 +3541,7 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
     </row>
-    <row r="82" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="6"/>
@@ -3587,7 +3571,7 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
     </row>
-    <row r="83" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="6"/>
@@ -3617,7 +3601,7 @@
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
     </row>
-    <row r="84" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="6"/>
@@ -3647,7 +3631,7 @@
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
     </row>
-    <row r="85" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="6"/>
@@ -3677,7 +3661,7 @@
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
     </row>
-    <row r="86" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="6"/>
@@ -3707,7 +3691,7 @@
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
     </row>
-    <row r="87" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="6"/>
@@ -3737,7 +3721,7 @@
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
     </row>
-    <row r="88" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="6"/>
@@ -3767,7 +3751,7 @@
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
     </row>
-    <row r="89" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="6"/>
@@ -3797,7 +3781,7 @@
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
     </row>
-    <row r="90" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="6"/>
@@ -3827,7 +3811,7 @@
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
     </row>
-    <row r="91" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="6"/>
@@ -3857,7 +3841,7 @@
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
     </row>
-    <row r="92" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="6"/>
@@ -3887,7 +3871,7 @@
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
     </row>
-    <row r="93" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="6"/>
@@ -3917,7 +3901,7 @@
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
     </row>
-    <row r="94" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="6"/>
@@ -3947,7 +3931,7 @@
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
     </row>
-    <row r="95" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="6"/>
@@ -3977,7 +3961,7 @@
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
     </row>
-    <row r="96" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="6"/>
@@ -4007,7 +3991,7 @@
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
     </row>
-    <row r="97" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="6"/>
@@ -4037,7 +4021,7 @@
       <c r="AA97" s="1"/>
       <c r="AB97" s="1"/>
     </row>
-    <row r="98" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="6"/>
@@ -4067,7 +4051,7 @@
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
     </row>
-    <row r="99" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="6"/>
@@ -4097,7 +4081,7 @@
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
     </row>
-    <row r="100" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="6"/>
@@ -4127,7 +4111,7 @@
       <c r="AA100" s="1"/>
       <c r="AB100" s="1"/>
     </row>
-    <row r="101" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="6"/>
@@ -4157,7 +4141,7 @@
       <c r="AA101" s="1"/>
       <c r="AB101" s="1"/>
     </row>
-    <row r="102" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="6"/>
@@ -4187,7 +4171,7 @@
       <c r="AA102" s="1"/>
       <c r="AB102" s="1"/>
     </row>
-    <row r="103" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="6"/>
@@ -4217,7 +4201,7 @@
       <c r="AA103" s="1"/>
       <c r="AB103" s="1"/>
     </row>
-    <row r="104" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="6"/>
@@ -4247,7 +4231,7 @@
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
     </row>
-    <row r="105" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="6"/>
@@ -4277,7 +4261,7 @@
       <c r="AA105" s="1"/>
       <c r="AB105" s="1"/>
     </row>
-    <row r="106" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="6"/>
@@ -4307,7 +4291,7 @@
       <c r="AA106" s="1"/>
       <c r="AB106" s="1"/>
     </row>
-    <row r="107" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="6"/>
@@ -4337,7 +4321,7 @@
       <c r="AA107" s="1"/>
       <c r="AB107" s="1"/>
     </row>
-    <row r="108" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="6"/>
@@ -4367,7 +4351,7 @@
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
     </row>
-    <row r="109" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="6"/>
@@ -4397,7 +4381,7 @@
       <c r="AA109" s="1"/>
       <c r="AB109" s="1"/>
     </row>
-    <row r="110" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="6"/>
@@ -4427,7 +4411,7 @@
       <c r="AA110" s="1"/>
       <c r="AB110" s="1"/>
     </row>
-    <row r="111" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="6"/>
@@ -4457,7 +4441,7 @@
       <c r="AA111" s="1"/>
       <c r="AB111" s="1"/>
     </row>
-    <row r="112" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="6"/>
@@ -4487,7 +4471,7 @@
       <c r="AA112" s="1"/>
       <c r="AB112" s="1"/>
     </row>
-    <row r="113" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="6"/>
@@ -4517,7 +4501,7 @@
       <c r="AA113" s="1"/>
       <c r="AB113" s="1"/>
     </row>
-    <row r="114" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="6"/>
@@ -4547,7 +4531,7 @@
       <c r="AA114" s="1"/>
       <c r="AB114" s="1"/>
     </row>
-    <row r="115" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="6"/>
@@ -4577,7 +4561,7 @@
       <c r="AA115" s="1"/>
       <c r="AB115" s="1"/>
     </row>
-    <row r="116" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="6"/>
@@ -4607,7 +4591,7 @@
       <c r="AA116" s="1"/>
       <c r="AB116" s="1"/>
     </row>
-    <row r="117" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="6"/>
@@ -4637,7 +4621,7 @@
       <c r="AA117" s="1"/>
       <c r="AB117" s="1"/>
     </row>
-    <row r="118" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="6"/>
@@ -4667,7 +4651,7 @@
       <c r="AA118" s="1"/>
       <c r="AB118" s="1"/>
     </row>
-    <row r="119" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="6"/>
@@ -4697,7 +4681,7 @@
       <c r="AA119" s="1"/>
       <c r="AB119" s="1"/>
     </row>
-    <row r="120" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="6"/>
@@ -4727,7 +4711,7 @@
       <c r="AA120" s="1"/>
       <c r="AB120" s="1"/>
     </row>
-    <row r="121" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="6"/>
@@ -4757,7 +4741,7 @@
       <c r="AA121" s="1"/>
       <c r="AB121" s="1"/>
     </row>
-    <row r="122" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="6"/>
@@ -4787,7 +4771,7 @@
       <c r="AA122" s="1"/>
       <c r="AB122" s="1"/>
     </row>
-    <row r="123" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="6"/>
@@ -4817,7 +4801,7 @@
       <c r="AA123" s="1"/>
       <c r="AB123" s="1"/>
     </row>
-    <row r="124" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="6"/>
@@ -4847,7 +4831,7 @@
       <c r="AA124" s="1"/>
       <c r="AB124" s="1"/>
     </row>
-    <row r="125" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="6"/>
@@ -4877,7 +4861,7 @@
       <c r="AA125" s="1"/>
       <c r="AB125" s="1"/>
     </row>
-    <row r="126" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="6"/>
@@ -4907,7 +4891,7 @@
       <c r="AA126" s="1"/>
       <c r="AB126" s="1"/>
     </row>
-    <row r="127" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="6"/>
@@ -4937,7 +4921,7 @@
       <c r="AA127" s="1"/>
       <c r="AB127" s="1"/>
     </row>
-    <row r="128" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="6"/>
@@ -4967,7 +4951,7 @@
       <c r="AA128" s="1"/>
       <c r="AB128" s="1"/>
     </row>
-    <row r="129" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="6"/>
@@ -4997,7 +4981,7 @@
       <c r="AA129" s="1"/>
       <c r="AB129" s="1"/>
     </row>
-    <row r="130" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="6"/>
@@ -5027,7 +5011,7 @@
       <c r="AA130" s="1"/>
       <c r="AB130" s="1"/>
     </row>
-    <row r="131" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="6"/>
@@ -5057,7 +5041,7 @@
       <c r="AA131" s="1"/>
       <c r="AB131" s="1"/>
     </row>
-    <row r="132" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="6"/>
@@ -5087,7 +5071,7 @@
       <c r="AA132" s="1"/>
       <c r="AB132" s="1"/>
     </row>
-    <row r="133" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="6"/>
@@ -5117,7 +5101,7 @@
       <c r="AA133" s="1"/>
       <c r="AB133" s="1"/>
     </row>
-    <row r="134" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="6"/>
@@ -5147,7 +5131,7 @@
       <c r="AA134" s="1"/>
       <c r="AB134" s="1"/>
     </row>
-    <row r="135" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="6"/>
@@ -5177,7 +5161,7 @@
       <c r="AA135" s="1"/>
       <c r="AB135" s="1"/>
     </row>
-    <row r="136" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="6"/>
@@ -5207,7 +5191,7 @@
       <c r="AA136" s="1"/>
       <c r="AB136" s="1"/>
     </row>
-    <row r="137" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="6"/>
@@ -5237,7 +5221,7 @@
       <c r="AA137" s="1"/>
       <c r="AB137" s="1"/>
     </row>
-    <row r="138" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="6"/>
@@ -5267,7 +5251,7 @@
       <c r="AA138" s="1"/>
       <c r="AB138" s="1"/>
     </row>
-    <row r="139" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="6"/>
@@ -5297,7 +5281,7 @@
       <c r="AA139" s="1"/>
       <c r="AB139" s="1"/>
     </row>
-    <row r="140" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="6"/>
@@ -5327,7 +5311,7 @@
       <c r="AA140" s="1"/>
       <c r="AB140" s="1"/>
     </row>
-    <row r="141" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="6"/>
@@ -5357,7 +5341,7 @@
       <c r="AA141" s="1"/>
       <c r="AB141" s="1"/>
     </row>
-    <row r="142" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="6"/>
@@ -5387,7 +5371,7 @@
       <c r="AA142" s="1"/>
       <c r="AB142" s="1"/>
     </row>
-    <row r="143" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="6"/>
@@ -5417,7 +5401,7 @@
       <c r="AA143" s="1"/>
       <c r="AB143" s="1"/>
     </row>
-    <row r="144" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="6"/>
@@ -5447,7 +5431,7 @@
       <c r="AA144" s="1"/>
       <c r="AB144" s="1"/>
     </row>
-    <row r="145" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="6"/>
@@ -5477,7 +5461,7 @@
       <c r="AA145" s="1"/>
       <c r="AB145" s="1"/>
     </row>
-    <row r="146" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="6"/>
@@ -5507,7 +5491,7 @@
       <c r="AA146" s="1"/>
       <c r="AB146" s="1"/>
     </row>
-    <row r="147" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="6"/>
@@ -5537,7 +5521,7 @@
       <c r="AA147" s="1"/>
       <c r="AB147" s="1"/>
     </row>
-    <row r="148" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="6"/>
@@ -5567,7 +5551,7 @@
       <c r="AA148" s="1"/>
       <c r="AB148" s="1"/>
     </row>
-    <row r="149" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="6"/>
@@ -5597,7 +5581,7 @@
       <c r="AA149" s="1"/>
       <c r="AB149" s="1"/>
     </row>
-    <row r="150" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="6"/>
@@ -5627,7 +5611,7 @@
       <c r="AA150" s="1"/>
       <c r="AB150" s="1"/>
     </row>
-    <row r="151" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="6"/>
@@ -5657,7 +5641,7 @@
       <c r="AA151" s="1"/>
       <c r="AB151" s="1"/>
     </row>
-    <row r="152" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="6"/>
@@ -5687,7 +5671,7 @@
       <c r="AA152" s="1"/>
       <c r="AB152" s="1"/>
     </row>
-    <row r="153" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="6"/>
@@ -5717,7 +5701,7 @@
       <c r="AA153" s="1"/>
       <c r="AB153" s="1"/>
     </row>
-    <row r="154" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="6"/>
@@ -5747,7 +5731,7 @@
       <c r="AA154" s="1"/>
       <c r="AB154" s="1"/>
     </row>
-    <row r="155" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="6"/>
@@ -5777,7 +5761,7 @@
       <c r="AA155" s="1"/>
       <c r="AB155" s="1"/>
     </row>
-    <row r="156" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="6"/>
@@ -5807,7 +5791,7 @@
       <c r="AA156" s="1"/>
       <c r="AB156" s="1"/>
     </row>
-    <row r="157" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="6"/>
@@ -5837,7 +5821,7 @@
       <c r="AA157" s="1"/>
       <c r="AB157" s="1"/>
     </row>
-    <row r="158" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="6"/>
@@ -5867,7 +5851,7 @@
       <c r="AA158" s="1"/>
       <c r="AB158" s="1"/>
     </row>
-    <row r="159" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="6"/>
@@ -5897,7 +5881,7 @@
       <c r="AA159" s="1"/>
       <c r="AB159" s="1"/>
     </row>
-    <row r="160" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="6"/>
@@ -5927,7 +5911,7 @@
       <c r="AA160" s="1"/>
       <c r="AB160" s="1"/>
     </row>
-    <row r="161" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="6"/>
@@ -5957,7 +5941,7 @@
       <c r="AA161" s="1"/>
       <c r="AB161" s="1"/>
     </row>
-    <row r="162" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="6"/>
@@ -5987,7 +5971,7 @@
       <c r="AA162" s="1"/>
       <c r="AB162" s="1"/>
     </row>
-    <row r="163" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="6"/>
@@ -6017,7 +6001,7 @@
       <c r="AA163" s="1"/>
       <c r="AB163" s="1"/>
     </row>
-    <row r="164" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="6"/>
@@ -6047,7 +6031,7 @@
       <c r="AA164" s="1"/>
       <c r="AB164" s="1"/>
     </row>
-    <row r="165" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="6"/>
@@ -6077,7 +6061,7 @@
       <c r="AA165" s="1"/>
       <c r="AB165" s="1"/>
     </row>
-    <row r="166" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="6"/>
@@ -6107,7 +6091,7 @@
       <c r="AA166" s="1"/>
       <c r="AB166" s="1"/>
     </row>
-    <row r="167" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="6"/>
@@ -6137,7 +6121,7 @@
       <c r="AA167" s="1"/>
       <c r="AB167" s="1"/>
     </row>
-    <row r="168" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="6"/>
@@ -6167,7 +6151,7 @@
       <c r="AA168" s="1"/>
       <c r="AB168" s="1"/>
     </row>
-    <row r="169" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="6"/>
@@ -6197,7 +6181,7 @@
       <c r="AA169" s="1"/>
       <c r="AB169" s="1"/>
     </row>
-    <row r="170" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="6"/>
@@ -6227,7 +6211,7 @@
       <c r="AA170" s="1"/>
       <c r="AB170" s="1"/>
     </row>
-    <row r="171" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="6"/>
@@ -6257,7 +6241,7 @@
       <c r="AA171" s="1"/>
       <c r="AB171" s="1"/>
     </row>
-    <row r="172" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="6"/>
@@ -6287,7 +6271,7 @@
       <c r="AA172" s="1"/>
       <c r="AB172" s="1"/>
     </row>
-    <row r="173" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="6"/>
@@ -6317,7 +6301,7 @@
       <c r="AA173" s="1"/>
       <c r="AB173" s="1"/>
     </row>
-    <row r="174" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="6"/>
@@ -6347,7 +6331,7 @@
       <c r="AA174" s="1"/>
       <c r="AB174" s="1"/>
     </row>
-    <row r="175" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="6"/>
@@ -6377,7 +6361,7 @@
       <c r="AA175" s="1"/>
       <c r="AB175" s="1"/>
     </row>
-    <row r="176" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="6"/>
@@ -6407,7 +6391,7 @@
       <c r="AA176" s="1"/>
       <c r="AB176" s="1"/>
     </row>
-    <row r="177" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="6"/>
@@ -6437,7 +6421,7 @@
       <c r="AA177" s="1"/>
       <c r="AB177" s="1"/>
     </row>
-    <row r="178" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="6"/>
@@ -6467,7 +6451,7 @@
       <c r="AA178" s="1"/>
       <c r="AB178" s="1"/>
     </row>
-    <row r="179" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="6"/>
@@ -6497,7 +6481,7 @@
       <c r="AA179" s="1"/>
       <c r="AB179" s="1"/>
     </row>
-    <row r="180" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="6"/>
@@ -6527,7 +6511,7 @@
       <c r="AA180" s="1"/>
       <c r="AB180" s="1"/>
     </row>
-    <row r="181" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="6"/>
@@ -6557,7 +6541,7 @@
       <c r="AA181" s="1"/>
       <c r="AB181" s="1"/>
     </row>
-    <row r="182" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="6"/>
@@ -6587,7 +6571,7 @@
       <c r="AA182" s="1"/>
       <c r="AB182" s="1"/>
     </row>
-    <row r="183" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="6"/>
@@ -6617,7 +6601,7 @@
       <c r="AA183" s="1"/>
       <c r="AB183" s="1"/>
     </row>
-    <row r="184" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="6"/>
@@ -6647,7 +6631,7 @@
       <c r="AA184" s="1"/>
       <c r="AB184" s="1"/>
     </row>
-    <row r="185" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="6"/>
@@ -6677,7 +6661,7 @@
       <c r="AA185" s="1"/>
       <c r="AB185" s="1"/>
     </row>
-    <row r="186" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="6"/>
@@ -6707,7 +6691,7 @@
       <c r="AA186" s="1"/>
       <c r="AB186" s="1"/>
     </row>
-    <row r="187" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="6"/>
@@ -6737,7 +6721,7 @@
       <c r="AA187" s="1"/>
       <c r="AB187" s="1"/>
     </row>
-    <row r="188" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="6"/>
@@ -6767,7 +6751,7 @@
       <c r="AA188" s="1"/>
       <c r="AB188" s="1"/>
     </row>
-    <row r="189" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="6"/>
@@ -6797,7 +6781,7 @@
       <c r="AA189" s="1"/>
       <c r="AB189" s="1"/>
     </row>
-    <row r="190" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="6"/>
@@ -6827,7 +6811,7 @@
       <c r="AA190" s="1"/>
       <c r="AB190" s="1"/>
     </row>
-    <row r="191" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="6"/>
@@ -6857,7 +6841,7 @@
       <c r="AA191" s="1"/>
       <c r="AB191" s="1"/>
     </row>
-    <row r="192" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="6"/>
@@ -6887,7 +6871,7 @@
       <c r="AA192" s="1"/>
       <c r="AB192" s="1"/>
     </row>
-    <row r="193" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="6"/>
@@ -6917,7 +6901,7 @@
       <c r="AA193" s="1"/>
       <c r="AB193" s="1"/>
     </row>
-    <row r="194" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="6"/>
@@ -6947,7 +6931,7 @@
       <c r="AA194" s="1"/>
       <c r="AB194" s="1"/>
     </row>
-    <row r="195" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="6"/>
@@ -6977,7 +6961,7 @@
       <c r="AA195" s="1"/>
       <c r="AB195" s="1"/>
     </row>
-    <row r="196" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="6"/>
@@ -7007,7 +6991,7 @@
       <c r="AA196" s="1"/>
       <c r="AB196" s="1"/>
     </row>
-    <row r="197" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="6"/>
@@ -7037,7 +7021,7 @@
       <c r="AA197" s="1"/>
       <c r="AB197" s="1"/>
     </row>
-    <row r="198" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="6"/>
@@ -7067,7 +7051,7 @@
       <c r="AA198" s="1"/>
       <c r="AB198" s="1"/>
     </row>
-    <row r="199" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="6"/>
@@ -7097,7 +7081,7 @@
       <c r="AA199" s="1"/>
       <c r="AB199" s="1"/>
     </row>
-    <row r="200" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="6"/>
@@ -7127,7 +7111,7 @@
       <c r="AA200" s="1"/>
       <c r="AB200" s="1"/>
     </row>
-    <row r="201" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="6"/>
@@ -7157,7 +7141,7 @@
       <c r="AA201" s="1"/>
       <c r="AB201" s="1"/>
     </row>
-    <row r="202" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="6"/>
@@ -7187,7 +7171,7 @@
       <c r="AA202" s="1"/>
       <c r="AB202" s="1"/>
     </row>
-    <row r="203" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="6"/>
@@ -7217,7 +7201,7 @@
       <c r="AA203" s="1"/>
       <c r="AB203" s="1"/>
     </row>
-    <row r="204" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="6"/>
@@ -7247,7 +7231,7 @@
       <c r="AA204" s="1"/>
       <c r="AB204" s="1"/>
     </row>
-    <row r="205" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="6"/>
@@ -7277,7 +7261,7 @@
       <c r="AA205" s="1"/>
       <c r="AB205" s="1"/>
     </row>
-    <row r="206" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="6"/>
@@ -7307,7 +7291,7 @@
       <c r="AA206" s="1"/>
       <c r="AB206" s="1"/>
     </row>
-    <row r="207" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="6"/>
@@ -7337,7 +7321,7 @@
       <c r="AA207" s="1"/>
       <c r="AB207" s="1"/>
     </row>
-    <row r="208" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="6"/>
@@ -7367,7 +7351,7 @@
       <c r="AA208" s="1"/>
       <c r="AB208" s="1"/>
     </row>
-    <row r="209" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="6"/>
@@ -7397,7 +7381,7 @@
       <c r="AA209" s="1"/>
       <c r="AB209" s="1"/>
     </row>
-    <row r="210" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="6"/>
@@ -7427,7 +7411,7 @@
       <c r="AA210" s="1"/>
       <c r="AB210" s="1"/>
     </row>
-    <row r="211" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="6"/>
@@ -7457,7 +7441,7 @@
       <c r="AA211" s="1"/>
       <c r="AB211" s="1"/>
     </row>
-    <row r="212" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="6"/>
@@ -7487,7 +7471,7 @@
       <c r="AA212" s="1"/>
       <c r="AB212" s="1"/>
     </row>
-    <row r="213" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="6"/>
@@ -7517,7 +7501,7 @@
       <c r="AA213" s="1"/>
       <c r="AB213" s="1"/>
     </row>
-    <row r="214" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="6"/>
@@ -7547,7 +7531,7 @@
       <c r="AA214" s="1"/>
       <c r="AB214" s="1"/>
     </row>
-    <row r="215" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="6"/>
@@ -7577,7 +7561,7 @@
       <c r="AA215" s="1"/>
       <c r="AB215" s="1"/>
     </row>
-    <row r="216" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="6"/>
@@ -7607,7 +7591,7 @@
       <c r="AA216" s="1"/>
       <c r="AB216" s="1"/>
     </row>
-    <row r="217" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="6"/>
@@ -7637,7 +7621,7 @@
       <c r="AA217" s="1"/>
       <c r="AB217" s="1"/>
     </row>
-    <row r="218" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="6"/>
@@ -7667,7 +7651,7 @@
       <c r="AA218" s="1"/>
       <c r="AB218" s="1"/>
     </row>
-    <row r="219" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="6"/>
@@ -7697,7 +7681,7 @@
       <c r="AA219" s="1"/>
       <c r="AB219" s="1"/>
     </row>
-    <row r="220" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="6"/>
@@ -7727,7 +7711,7 @@
       <c r="AA220" s="1"/>
       <c r="AB220" s="1"/>
     </row>
-    <row r="221" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="6"/>
@@ -7757,7 +7741,7 @@
       <c r="AA221" s="1"/>
       <c r="AB221" s="1"/>
     </row>
-    <row r="222" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="6"/>
@@ -7787,7 +7771,7 @@
       <c r="AA222" s="1"/>
       <c r="AB222" s="1"/>
     </row>
-    <row r="223" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="6"/>
@@ -7817,7 +7801,7 @@
       <c r="AA223" s="1"/>
       <c r="AB223" s="1"/>
     </row>
-    <row r="224" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="6"/>
@@ -7847,7 +7831,7 @@
       <c r="AA224" s="1"/>
       <c r="AB224" s="1"/>
     </row>
-    <row r="225" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="6"/>
@@ -7877,7 +7861,7 @@
       <c r="AA225" s="1"/>
       <c r="AB225" s="1"/>
     </row>
-    <row r="226" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="6"/>
@@ -7907,7 +7891,7 @@
       <c r="AA226" s="1"/>
       <c r="AB226" s="1"/>
     </row>
-    <row r="227" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="6"/>
@@ -7937,7 +7921,7 @@
       <c r="AA227" s="1"/>
       <c r="AB227" s="1"/>
     </row>
-    <row r="228" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="6"/>
@@ -7967,7 +7951,7 @@
       <c r="AA228" s="1"/>
       <c r="AB228" s="1"/>
     </row>
-    <row r="229" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="6"/>
@@ -7997,7 +7981,7 @@
       <c r="AA229" s="1"/>
       <c r="AB229" s="1"/>
     </row>
-    <row r="230" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="6"/>
@@ -8027,7 +8011,7 @@
       <c r="AA230" s="1"/>
       <c r="AB230" s="1"/>
     </row>
-    <row r="231" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="6"/>
@@ -8057,7 +8041,7 @@
       <c r="AA231" s="1"/>
       <c r="AB231" s="1"/>
     </row>
-    <row r="232" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="6"/>
@@ -8087,7 +8071,7 @@
       <c r="AA232" s="1"/>
       <c r="AB232" s="1"/>
     </row>
-    <row r="233" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="6"/>
@@ -8117,7 +8101,7 @@
       <c r="AA233" s="1"/>
       <c r="AB233" s="1"/>
     </row>
-    <row r="234" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="6"/>
@@ -8147,7 +8131,7 @@
       <c r="AA234" s="1"/>
       <c r="AB234" s="1"/>
     </row>
-    <row r="235" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="6"/>
@@ -8177,7 +8161,7 @@
       <c r="AA235" s="1"/>
       <c r="AB235" s="1"/>
     </row>
-    <row r="236" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="6"/>
@@ -8207,7 +8191,7 @@
       <c r="AA236" s="1"/>
       <c r="AB236" s="1"/>
     </row>
-    <row r="237" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="6"/>
@@ -8237,7 +8221,7 @@
       <c r="AA237" s="1"/>
       <c r="AB237" s="1"/>
     </row>
-    <row r="238" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="6"/>
@@ -8267,7 +8251,7 @@
       <c r="AA238" s="1"/>
       <c r="AB238" s="1"/>
     </row>
-    <row r="239" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="6"/>
@@ -8297,7 +8281,7 @@
       <c r="AA239" s="1"/>
       <c r="AB239" s="1"/>
     </row>
-    <row r="240" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="6"/>
@@ -8327,7 +8311,7 @@
       <c r="AA240" s="1"/>
       <c r="AB240" s="1"/>
     </row>
-    <row r="241" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="6"/>
@@ -8357,7 +8341,7 @@
       <c r="AA241" s="1"/>
       <c r="AB241" s="1"/>
     </row>
-    <row r="242" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="6"/>
@@ -8387,7 +8371,7 @@
       <c r="AA242" s="1"/>
       <c r="AB242" s="1"/>
     </row>
-    <row r="243" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="6"/>
@@ -8417,7 +8401,7 @@
       <c r="AA243" s="1"/>
       <c r="AB243" s="1"/>
     </row>
-    <row r="244" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="6"/>
@@ -8447,7 +8431,7 @@
       <c r="AA244" s="1"/>
       <c r="AB244" s="1"/>
     </row>
-    <row r="245" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="6"/>
@@ -8477,7 +8461,7 @@
       <c r="AA245" s="1"/>
       <c r="AB245" s="1"/>
     </row>
-    <row r="246" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="6"/>
@@ -8507,7 +8491,7 @@
       <c r="AA246" s="1"/>
       <c r="AB246" s="1"/>
     </row>
-    <row r="247" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="6"/>
@@ -8537,7 +8521,7 @@
       <c r="AA247" s="1"/>
       <c r="AB247" s="1"/>
     </row>
-    <row r="248" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="6"/>
@@ -8567,7 +8551,7 @@
       <c r="AA248" s="1"/>
       <c r="AB248" s="1"/>
     </row>
-    <row r="249" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="6"/>
@@ -8597,7 +8581,7 @@
       <c r="AA249" s="1"/>
       <c r="AB249" s="1"/>
     </row>
-    <row r="250" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="6"/>
@@ -8627,7 +8611,7 @@
       <c r="AA250" s="1"/>
       <c r="AB250" s="1"/>
     </row>
-    <row r="251" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="6"/>
@@ -8657,7 +8641,7 @@
       <c r="AA251" s="1"/>
       <c r="AB251" s="1"/>
     </row>
-    <row r="252" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="6"/>
@@ -8687,7 +8671,7 @@
       <c r="AA252" s="1"/>
       <c r="AB252" s="1"/>
     </row>
-    <row r="253" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="6"/>
@@ -8717,7 +8701,7 @@
       <c r="AA253" s="1"/>
       <c r="AB253" s="1"/>
     </row>
-    <row r="254" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="6"/>
@@ -8747,7 +8731,7 @@
       <c r="AA254" s="1"/>
       <c r="AB254" s="1"/>
     </row>
-    <row r="255" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="6"/>
@@ -8777,7 +8761,7 @@
       <c r="AA255" s="1"/>
       <c r="AB255" s="1"/>
     </row>
-    <row r="256" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="6"/>
@@ -8807,7 +8791,7 @@
       <c r="AA256" s="1"/>
       <c r="AB256" s="1"/>
     </row>
-    <row r="257" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="6"/>
@@ -8837,7 +8821,7 @@
       <c r="AA257" s="1"/>
       <c r="AB257" s="1"/>
     </row>
-    <row r="258" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="6"/>
@@ -8867,7 +8851,7 @@
       <c r="AA258" s="1"/>
       <c r="AB258" s="1"/>
     </row>
-    <row r="259" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="6"/>
@@ -8897,7 +8881,7 @@
       <c r="AA259" s="1"/>
       <c r="AB259" s="1"/>
     </row>
-    <row r="260" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="6"/>
@@ -8927,7 +8911,7 @@
       <c r="AA260" s="1"/>
       <c r="AB260" s="1"/>
     </row>
-    <row r="261" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="6"/>
@@ -8957,7 +8941,7 @@
       <c r="AA261" s="1"/>
       <c r="AB261" s="1"/>
     </row>
-    <row r="262" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="6"/>
@@ -8987,7 +8971,7 @@
       <c r="AA262" s="1"/>
       <c r="AB262" s="1"/>
     </row>
-    <row r="263" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="6"/>
@@ -9017,7 +9001,7 @@
       <c r="AA263" s="1"/>
       <c r="AB263" s="1"/>
     </row>
-    <row r="264" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="6"/>
@@ -9047,7 +9031,7 @@
       <c r="AA264" s="1"/>
       <c r="AB264" s="1"/>
     </row>
-    <row r="265" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="6"/>
@@ -9077,7 +9061,7 @@
       <c r="AA265" s="1"/>
       <c r="AB265" s="1"/>
     </row>
-    <row r="266" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="6"/>
@@ -9107,7 +9091,7 @@
       <c r="AA266" s="1"/>
       <c r="AB266" s="1"/>
     </row>
-    <row r="267" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="6"/>
@@ -9137,7 +9121,7 @@
       <c r="AA267" s="1"/>
       <c r="AB267" s="1"/>
     </row>
-    <row r="268" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="6"/>
@@ -9167,7 +9151,7 @@
       <c r="AA268" s="1"/>
       <c r="AB268" s="1"/>
     </row>
-    <row r="269" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="6"/>
@@ -9197,7 +9181,7 @@
       <c r="AA269" s="1"/>
       <c r="AB269" s="1"/>
     </row>
-    <row r="270" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="6"/>
@@ -9227,7 +9211,7 @@
       <c r="AA270" s="1"/>
       <c r="AB270" s="1"/>
     </row>
-    <row r="271" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="6"/>
@@ -9257,7 +9241,7 @@
       <c r="AA271" s="1"/>
       <c r="AB271" s="1"/>
     </row>
-    <row r="272" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="6"/>
@@ -9287,7 +9271,7 @@
       <c r="AA272" s="1"/>
       <c r="AB272" s="1"/>
     </row>
-    <row r="273" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="6"/>
@@ -9317,7 +9301,7 @@
       <c r="AA273" s="1"/>
       <c r="AB273" s="1"/>
     </row>
-    <row r="274" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="6"/>
@@ -9347,7 +9331,7 @@
       <c r="AA274" s="1"/>
       <c r="AB274" s="1"/>
     </row>
-    <row r="275" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="6"/>
@@ -9377,7 +9361,7 @@
       <c r="AA275" s="1"/>
       <c r="AB275" s="1"/>
     </row>
-    <row r="276" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="6"/>
@@ -9407,7 +9391,7 @@
       <c r="AA276" s="1"/>
       <c r="AB276" s="1"/>
     </row>
-    <row r="277" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="6"/>
@@ -9437,7 +9421,7 @@
       <c r="AA277" s="1"/>
       <c r="AB277" s="1"/>
     </row>
-    <row r="278" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="6"/>
@@ -9467,7 +9451,7 @@
       <c r="AA278" s="1"/>
       <c r="AB278" s="1"/>
     </row>
-    <row r="279" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="6"/>
@@ -9497,7 +9481,7 @@
       <c r="AA279" s="1"/>
       <c r="AB279" s="1"/>
     </row>
-    <row r="280" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="6"/>
@@ -9527,7 +9511,7 @@
       <c r="AA280" s="1"/>
       <c r="AB280" s="1"/>
     </row>
-    <row r="281" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="6"/>
@@ -9557,7 +9541,7 @@
       <c r="AA281" s="1"/>
       <c r="AB281" s="1"/>
     </row>
-    <row r="282" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="6"/>
@@ -9587,7 +9571,7 @@
       <c r="AA282" s="1"/>
       <c r="AB282" s="1"/>
     </row>
-    <row r="283" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="6"/>
@@ -9617,7 +9601,7 @@
       <c r="AA283" s="1"/>
       <c r="AB283" s="1"/>
     </row>
-    <row r="284" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="6"/>
@@ -9647,7 +9631,7 @@
       <c r="AA284" s="1"/>
       <c r="AB284" s="1"/>
     </row>
-    <row r="285" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="6"/>
@@ -9677,7 +9661,7 @@
       <c r="AA285" s="1"/>
       <c r="AB285" s="1"/>
     </row>
-    <row r="286" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="6"/>
@@ -9707,7 +9691,7 @@
       <c r="AA286" s="1"/>
       <c r="AB286" s="1"/>
     </row>
-    <row r="287" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="6"/>
@@ -9737,7 +9721,7 @@
       <c r="AA287" s="1"/>
       <c r="AB287" s="1"/>
     </row>
-    <row r="288" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="6"/>
@@ -9767,7 +9751,7 @@
       <c r="AA288" s="1"/>
       <c r="AB288" s="1"/>
     </row>
-    <row r="289" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="6"/>
@@ -9797,7 +9781,7 @@
       <c r="AA289" s="1"/>
       <c r="AB289" s="1"/>
     </row>
-    <row r="290" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="6"/>
@@ -9827,7 +9811,7 @@
       <c r="AA290" s="1"/>
       <c r="AB290" s="1"/>
     </row>
-    <row r="291" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="6"/>
@@ -9857,7 +9841,7 @@
       <c r="AA291" s="1"/>
       <c r="AB291" s="1"/>
     </row>
-    <row r="292" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="6"/>
@@ -9887,7 +9871,7 @@
       <c r="AA292" s="1"/>
       <c r="AB292" s="1"/>
     </row>
-    <row r="293" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="6"/>
@@ -9917,7 +9901,7 @@
       <c r="AA293" s="1"/>
       <c r="AB293" s="1"/>
     </row>
-    <row r="294" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="6"/>
@@ -9947,7 +9931,7 @@
       <c r="AA294" s="1"/>
       <c r="AB294" s="1"/>
     </row>
-    <row r="295" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="6"/>
@@ -9977,7 +9961,7 @@
       <c r="AA295" s="1"/>
       <c r="AB295" s="1"/>
     </row>
-    <row r="296" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="6"/>
@@ -10007,7 +9991,7 @@
       <c r="AA296" s="1"/>
       <c r="AB296" s="1"/>
     </row>
-    <row r="297" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="6"/>
@@ -10037,7 +10021,7 @@
       <c r="AA297" s="1"/>
       <c r="AB297" s="1"/>
     </row>
-    <row r="298" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="6"/>
@@ -10067,7 +10051,7 @@
       <c r="AA298" s="1"/>
       <c r="AB298" s="1"/>
     </row>
-    <row r="299" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="6"/>
@@ -10097,7 +10081,7 @@
       <c r="AA299" s="1"/>
       <c r="AB299" s="1"/>
     </row>
-    <row r="300" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="6"/>
@@ -10127,7 +10111,7 @@
       <c r="AA300" s="1"/>
       <c r="AB300" s="1"/>
     </row>
-    <row r="301" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="6"/>
@@ -10157,7 +10141,7 @@
       <c r="AA301" s="1"/>
       <c r="AB301" s="1"/>
     </row>
-    <row r="302" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="6"/>
@@ -10187,7 +10171,7 @@
       <c r="AA302" s="1"/>
       <c r="AB302" s="1"/>
     </row>
-    <row r="303" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="6"/>
@@ -10217,7 +10201,7 @@
       <c r="AA303" s="1"/>
       <c r="AB303" s="1"/>
     </row>
-    <row r="304" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="6"/>
@@ -10247,7 +10231,7 @@
       <c r="AA304" s="1"/>
       <c r="AB304" s="1"/>
     </row>
-    <row r="305" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="6"/>
@@ -10277,7 +10261,7 @@
       <c r="AA305" s="1"/>
       <c r="AB305" s="1"/>
     </row>
-    <row r="306" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="6"/>
@@ -10307,7 +10291,7 @@
       <c r="AA306" s="1"/>
       <c r="AB306" s="1"/>
     </row>
-    <row r="307" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="6"/>
@@ -10337,7 +10321,7 @@
       <c r="AA307" s="1"/>
       <c r="AB307" s="1"/>
     </row>
-    <row r="308" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="6"/>
@@ -10367,7 +10351,7 @@
       <c r="AA308" s="1"/>
       <c r="AB308" s="1"/>
     </row>
-    <row r="309" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="6"/>
@@ -10397,7 +10381,7 @@
       <c r="AA309" s="1"/>
       <c r="AB309" s="1"/>
     </row>
-    <row r="310" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="6"/>
@@ -10427,7 +10411,7 @@
       <c r="AA310" s="1"/>
       <c r="AB310" s="1"/>
     </row>
-    <row r="311" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="6"/>
@@ -10457,7 +10441,7 @@
       <c r="AA311" s="1"/>
       <c r="AB311" s="1"/>
     </row>
-    <row r="312" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="6"/>
@@ -10487,7 +10471,7 @@
       <c r="AA312" s="1"/>
       <c r="AB312" s="1"/>
     </row>
-    <row r="313" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="6"/>
@@ -10517,7 +10501,7 @@
       <c r="AA313" s="1"/>
       <c r="AB313" s="1"/>
     </row>
-    <row r="314" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="6"/>
@@ -10547,7 +10531,7 @@
       <c r="AA314" s="1"/>
       <c r="AB314" s="1"/>
     </row>
-    <row r="315" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="6"/>
@@ -10577,7 +10561,7 @@
       <c r="AA315" s="1"/>
       <c r="AB315" s="1"/>
     </row>
-    <row r="316" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="6"/>
@@ -10607,7 +10591,7 @@
       <c r="AA316" s="1"/>
       <c r="AB316" s="1"/>
     </row>
-    <row r="317" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="6"/>
@@ -10637,7 +10621,7 @@
       <c r="AA317" s="1"/>
       <c r="AB317" s="1"/>
     </row>
-    <row r="318" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="6"/>
@@ -10667,7 +10651,7 @@
       <c r="AA318" s="1"/>
       <c r="AB318" s="1"/>
     </row>
-    <row r="319" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="6"/>
@@ -10697,7 +10681,7 @@
       <c r="AA319" s="1"/>
       <c r="AB319" s="1"/>
     </row>
-    <row r="320" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="6"/>
@@ -10727,7 +10711,7 @@
       <c r="AA320" s="1"/>
       <c r="AB320" s="1"/>
     </row>
-    <row r="321" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="6"/>
@@ -10757,7 +10741,7 @@
       <c r="AA321" s="1"/>
       <c r="AB321" s="1"/>
     </row>
-    <row r="322" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="6"/>
@@ -10787,7 +10771,7 @@
       <c r="AA322" s="1"/>
       <c r="AB322" s="1"/>
     </row>
-    <row r="323" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="6"/>
@@ -10817,7 +10801,7 @@
       <c r="AA323" s="1"/>
       <c r="AB323" s="1"/>
     </row>
-    <row r="324" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="6"/>
@@ -10847,7 +10831,7 @@
       <c r="AA324" s="1"/>
       <c r="AB324" s="1"/>
     </row>
-    <row r="325" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="6"/>
@@ -10877,7 +10861,7 @@
       <c r="AA325" s="1"/>
       <c r="AB325" s="1"/>
     </row>
-    <row r="326" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="6"/>
@@ -10907,7 +10891,7 @@
       <c r="AA326" s="1"/>
       <c r="AB326" s="1"/>
     </row>
-    <row r="327" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="6"/>
@@ -10937,7 +10921,7 @@
       <c r="AA327" s="1"/>
       <c r="AB327" s="1"/>
     </row>
-    <row r="328" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="6"/>
@@ -10967,7 +10951,7 @@
       <c r="AA328" s="1"/>
       <c r="AB328" s="1"/>
     </row>
-    <row r="329" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="6"/>
@@ -10997,7 +10981,7 @@
       <c r="AA329" s="1"/>
       <c r="AB329" s="1"/>
     </row>
-    <row r="330" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="6"/>
@@ -11027,7 +11011,7 @@
       <c r="AA330" s="1"/>
       <c r="AB330" s="1"/>
     </row>
-    <row r="331" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="6"/>
@@ -11057,7 +11041,7 @@
       <c r="AA331" s="1"/>
       <c r="AB331" s="1"/>
     </row>
-    <row r="332" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="6"/>
@@ -11087,7 +11071,7 @@
       <c r="AA332" s="1"/>
       <c r="AB332" s="1"/>
     </row>
-    <row r="333" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="6"/>
@@ -11117,7 +11101,7 @@
       <c r="AA333" s="1"/>
       <c r="AB333" s="1"/>
     </row>
-    <row r="334" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="6"/>
@@ -11147,7 +11131,7 @@
       <c r="AA334" s="1"/>
       <c r="AB334" s="1"/>
     </row>
-    <row r="335" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="6"/>
@@ -11177,7 +11161,7 @@
       <c r="AA335" s="1"/>
       <c r="AB335" s="1"/>
     </row>
-    <row r="336" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="6"/>
@@ -11207,7 +11191,7 @@
       <c r="AA336" s="1"/>
       <c r="AB336" s="1"/>
     </row>
-    <row r="337" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="6"/>
@@ -11237,7 +11221,7 @@
       <c r="AA337" s="1"/>
       <c r="AB337" s="1"/>
     </row>
-    <row r="338" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="6"/>
@@ -11267,7 +11251,7 @@
       <c r="AA338" s="1"/>
       <c r="AB338" s="1"/>
     </row>
-    <row r="339" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="6"/>
@@ -11297,7 +11281,7 @@
       <c r="AA339" s="1"/>
       <c r="AB339" s="1"/>
     </row>
-    <row r="340" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="6"/>
@@ -11327,7 +11311,7 @@
       <c r="AA340" s="1"/>
       <c r="AB340" s="1"/>
     </row>
-    <row r="341" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="6"/>
@@ -11357,7 +11341,7 @@
       <c r="AA341" s="1"/>
       <c r="AB341" s="1"/>
     </row>
-    <row r="342" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="6"/>
@@ -11387,7 +11371,7 @@
       <c r="AA342" s="1"/>
       <c r="AB342" s="1"/>
     </row>
-    <row r="343" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="6"/>
@@ -11417,7 +11401,7 @@
       <c r="AA343" s="1"/>
       <c r="AB343" s="1"/>
     </row>
-    <row r="344" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="6"/>
@@ -11447,7 +11431,7 @@
       <c r="AA344" s="1"/>
       <c r="AB344" s="1"/>
     </row>
-    <row r="345" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="6"/>
@@ -11477,7 +11461,7 @@
       <c r="AA345" s="1"/>
       <c r="AB345" s="1"/>
     </row>
-    <row r="346" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="6"/>
@@ -11507,7 +11491,7 @@
       <c r="AA346" s="1"/>
       <c r="AB346" s="1"/>
     </row>
-    <row r="347" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="6"/>
@@ -11537,7 +11521,7 @@
       <c r="AA347" s="1"/>
       <c r="AB347" s="1"/>
     </row>
-    <row r="348" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="6"/>
@@ -11567,7 +11551,7 @@
       <c r="AA348" s="1"/>
       <c r="AB348" s="1"/>
     </row>
-    <row r="349" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="6"/>
@@ -11597,7 +11581,7 @@
       <c r="AA349" s="1"/>
       <c r="AB349" s="1"/>
     </row>
-    <row r="350" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="6"/>
@@ -11627,7 +11611,7 @@
       <c r="AA350" s="1"/>
       <c r="AB350" s="1"/>
     </row>
-    <row r="351" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="6"/>
@@ -11657,7 +11641,7 @@
       <c r="AA351" s="1"/>
       <c r="AB351" s="1"/>
     </row>
-    <row r="352" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="6"/>
@@ -11687,7 +11671,7 @@
       <c r="AA352" s="1"/>
       <c r="AB352" s="1"/>
     </row>
-    <row r="353" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="6"/>
@@ -11717,7 +11701,7 @@
       <c r="AA353" s="1"/>
       <c r="AB353" s="1"/>
     </row>
-    <row r="354" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="6"/>
@@ -11747,7 +11731,7 @@
       <c r="AA354" s="1"/>
       <c r="AB354" s="1"/>
     </row>
-    <row r="355" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="6"/>
@@ -11777,7 +11761,7 @@
       <c r="AA355" s="1"/>
       <c r="AB355" s="1"/>
     </row>
-    <row r="356" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="6"/>
@@ -11807,7 +11791,7 @@
       <c r="AA356" s="1"/>
       <c r="AB356" s="1"/>
     </row>
-    <row r="357" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="6"/>
@@ -11837,7 +11821,7 @@
       <c r="AA357" s="1"/>
       <c r="AB357" s="1"/>
     </row>
-    <row r="358" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="6"/>
@@ -11867,7 +11851,7 @@
       <c r="AA358" s="1"/>
       <c r="AB358" s="1"/>
     </row>
-    <row r="359" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="6"/>
@@ -11897,7 +11881,7 @@
       <c r="AA359" s="1"/>
       <c r="AB359" s="1"/>
     </row>
-    <row r="360" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="6"/>
@@ -11927,7 +11911,7 @@
       <c r="AA360" s="1"/>
       <c r="AB360" s="1"/>
     </row>
-    <row r="361" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="6"/>
@@ -11957,7 +11941,7 @@
       <c r="AA361" s="1"/>
       <c r="AB361" s="1"/>
     </row>
-    <row r="362" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="6"/>
@@ -11987,7 +11971,7 @@
       <c r="AA362" s="1"/>
       <c r="AB362" s="1"/>
     </row>
-    <row r="363" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="6"/>
@@ -12017,7 +12001,7 @@
       <c r="AA363" s="1"/>
       <c r="AB363" s="1"/>
     </row>
-    <row r="364" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="6"/>
@@ -12047,7 +12031,7 @@
       <c r="AA364" s="1"/>
       <c r="AB364" s="1"/>
     </row>
-    <row r="365" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="6"/>
@@ -12077,7 +12061,7 @@
       <c r="AA365" s="1"/>
       <c r="AB365" s="1"/>
     </row>
-    <row r="366" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="6"/>
@@ -12107,7 +12091,7 @@
       <c r="AA366" s="1"/>
       <c r="AB366" s="1"/>
     </row>
-    <row r="367" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="6"/>
@@ -12137,7 +12121,7 @@
       <c r="AA367" s="1"/>
       <c r="AB367" s="1"/>
     </row>
-    <row r="368" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="6"/>
@@ -12167,7 +12151,7 @@
       <c r="AA368" s="1"/>
       <c r="AB368" s="1"/>
     </row>
-    <row r="369" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="6"/>
@@ -12197,7 +12181,7 @@
       <c r="AA369" s="1"/>
       <c r="AB369" s="1"/>
     </row>
-    <row r="370" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="6"/>
@@ -12227,7 +12211,7 @@
       <c r="AA370" s="1"/>
       <c r="AB370" s="1"/>
     </row>
-    <row r="371" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="6"/>
@@ -12257,7 +12241,7 @@
       <c r="AA371" s="1"/>
       <c r="AB371" s="1"/>
     </row>
-    <row r="372" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="6"/>
@@ -12287,7 +12271,7 @@
       <c r="AA372" s="1"/>
       <c r="AB372" s="1"/>
     </row>
-    <row r="373" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="6"/>
@@ -12317,7 +12301,7 @@
       <c r="AA373" s="1"/>
       <c r="AB373" s="1"/>
     </row>
-    <row r="374" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="6"/>
@@ -12347,7 +12331,7 @@
       <c r="AA374" s="1"/>
       <c r="AB374" s="1"/>
     </row>
-    <row r="375" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="6"/>
@@ -12377,7 +12361,7 @@
       <c r="AA375" s="1"/>
       <c r="AB375" s="1"/>
     </row>
-    <row r="376" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="6"/>
@@ -12407,7 +12391,7 @@
       <c r="AA376" s="1"/>
       <c r="AB376" s="1"/>
     </row>
-    <row r="377" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="6"/>
@@ -12437,7 +12421,7 @@
       <c r="AA377" s="1"/>
       <c r="AB377" s="1"/>
     </row>
-    <row r="378" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="6"/>
@@ -12467,7 +12451,7 @@
       <c r="AA378" s="1"/>
       <c r="AB378" s="1"/>
     </row>
-    <row r="379" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="6"/>
@@ -12497,7 +12481,7 @@
       <c r="AA379" s="1"/>
       <c r="AB379" s="1"/>
     </row>
-    <row r="380" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="6"/>
@@ -12527,7 +12511,7 @@
       <c r="AA380" s="1"/>
       <c r="AB380" s="1"/>
     </row>
-    <row r="381" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="6"/>
@@ -12557,7 +12541,7 @@
       <c r="AA381" s="1"/>
       <c r="AB381" s="1"/>
     </row>
-    <row r="382" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="6"/>
@@ -12587,7 +12571,7 @@
       <c r="AA382" s="1"/>
       <c r="AB382" s="1"/>
     </row>
-    <row r="383" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="6"/>
@@ -12617,7 +12601,7 @@
       <c r="AA383" s="1"/>
       <c r="AB383" s="1"/>
     </row>
-    <row r="384" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="6"/>
@@ -12647,7 +12631,7 @@
       <c r="AA384" s="1"/>
       <c r="AB384" s="1"/>
     </row>
-    <row r="385" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="6"/>
@@ -12677,7 +12661,7 @@
       <c r="AA385" s="1"/>
       <c r="AB385" s="1"/>
     </row>
-    <row r="386" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="6"/>
@@ -12707,7 +12691,7 @@
       <c r="AA386" s="1"/>
       <c r="AB386" s="1"/>
     </row>
-    <row r="387" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="6"/>
@@ -12737,7 +12721,7 @@
       <c r="AA387" s="1"/>
       <c r="AB387" s="1"/>
     </row>
-    <row r="388" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="6"/>
@@ -12767,7 +12751,7 @@
       <c r="AA388" s="1"/>
       <c r="AB388" s="1"/>
     </row>
-    <row r="389" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="6"/>
@@ -12797,7 +12781,7 @@
       <c r="AA389" s="1"/>
       <c r="AB389" s="1"/>
     </row>
-    <row r="390" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="6"/>
@@ -12827,7 +12811,7 @@
       <c r="AA390" s="1"/>
       <c r="AB390" s="1"/>
     </row>
-    <row r="391" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="6"/>
@@ -12857,7 +12841,7 @@
       <c r="AA391" s="1"/>
       <c r="AB391" s="1"/>
     </row>
-    <row r="392" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="6"/>
@@ -12887,7 +12871,7 @@
       <c r="AA392" s="1"/>
       <c r="AB392" s="1"/>
     </row>
-    <row r="393" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="6"/>
@@ -12917,7 +12901,7 @@
       <c r="AA393" s="1"/>
       <c r="AB393" s="1"/>
     </row>
-    <row r="394" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="6"/>
@@ -12947,7 +12931,7 @@
       <c r="AA394" s="1"/>
       <c r="AB394" s="1"/>
     </row>
-    <row r="395" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="6"/>
@@ -12977,7 +12961,7 @@
       <c r="AA395" s="1"/>
       <c r="AB395" s="1"/>
     </row>
-    <row r="396" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="6"/>
@@ -13007,7 +12991,7 @@
       <c r="AA396" s="1"/>
       <c r="AB396" s="1"/>
     </row>
-    <row r="397" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="6"/>
@@ -13037,7 +13021,7 @@
       <c r="AA397" s="1"/>
       <c r="AB397" s="1"/>
     </row>
-    <row r="398" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="6"/>
@@ -13067,7 +13051,7 @@
       <c r="AA398" s="1"/>
       <c r="AB398" s="1"/>
     </row>
-    <row r="399" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="6"/>
@@ -13097,7 +13081,7 @@
       <c r="AA399" s="1"/>
       <c r="AB399" s="1"/>
     </row>
-    <row r="400" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="6"/>
@@ -13127,7 +13111,7 @@
       <c r="AA400" s="1"/>
       <c r="AB400" s="1"/>
     </row>
-    <row r="401" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="6"/>
@@ -13157,7 +13141,7 @@
       <c r="AA401" s="1"/>
       <c r="AB401" s="1"/>
     </row>
-    <row r="402" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="6"/>
@@ -13187,7 +13171,7 @@
       <c r="AA402" s="1"/>
       <c r="AB402" s="1"/>
     </row>
-    <row r="403" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="6"/>
@@ -13217,7 +13201,7 @@
       <c r="AA403" s="1"/>
       <c r="AB403" s="1"/>
     </row>
-    <row r="404" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="6"/>
@@ -13247,7 +13231,7 @@
       <c r="AA404" s="1"/>
       <c r="AB404" s="1"/>
     </row>
-    <row r="405" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="6"/>
@@ -13277,7 +13261,7 @@
       <c r="AA405" s="1"/>
       <c r="AB405" s="1"/>
     </row>
-    <row r="406" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="6"/>
@@ -13307,7 +13291,7 @@
       <c r="AA406" s="1"/>
       <c r="AB406" s="1"/>
     </row>
-    <row r="407" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="6"/>
@@ -13337,7 +13321,7 @@
       <c r="AA407" s="1"/>
       <c r="AB407" s="1"/>
     </row>
-    <row r="408" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="6"/>
@@ -13367,7 +13351,7 @@
       <c r="AA408" s="1"/>
       <c r="AB408" s="1"/>
     </row>
-    <row r="409" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="6"/>
@@ -13397,7 +13381,7 @@
       <c r="AA409" s="1"/>
       <c r="AB409" s="1"/>
     </row>
-    <row r="410" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="6"/>
@@ -13427,7 +13411,7 @@
       <c r="AA410" s="1"/>
       <c r="AB410" s="1"/>
     </row>
-    <row r="411" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="6"/>
@@ -13457,7 +13441,7 @@
       <c r="AA411" s="1"/>
       <c r="AB411" s="1"/>
     </row>
-    <row r="412" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="6"/>
@@ -13487,7 +13471,7 @@
       <c r="AA412" s="1"/>
       <c r="AB412" s="1"/>
     </row>
-    <row r="413" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="6"/>
@@ -13517,7 +13501,7 @@
       <c r="AA413" s="1"/>
       <c r="AB413" s="1"/>
     </row>
-    <row r="414" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="6"/>
@@ -13547,7 +13531,7 @@
       <c r="AA414" s="1"/>
       <c r="AB414" s="1"/>
     </row>
-    <row r="415" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="6"/>
@@ -13577,7 +13561,7 @@
       <c r="AA415" s="1"/>
       <c r="AB415" s="1"/>
     </row>
-    <row r="416" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="6"/>
@@ -13607,7 +13591,7 @@
       <c r="AA416" s="1"/>
       <c r="AB416" s="1"/>
     </row>
-    <row r="417" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="6"/>
@@ -13637,7 +13621,7 @@
       <c r="AA417" s="1"/>
       <c r="AB417" s="1"/>
     </row>
-    <row r="418" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="6"/>
@@ -13667,7 +13651,7 @@
       <c r="AA418" s="1"/>
       <c r="AB418" s="1"/>
     </row>
-    <row r="419" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="6"/>
@@ -13697,7 +13681,7 @@
       <c r="AA419" s="1"/>
       <c r="AB419" s="1"/>
     </row>
-    <row r="420" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="6"/>
@@ -13727,7 +13711,7 @@
       <c r="AA420" s="1"/>
       <c r="AB420" s="1"/>
     </row>
-    <row r="421" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="6"/>
@@ -13757,7 +13741,7 @@
       <c r="AA421" s="1"/>
       <c r="AB421" s="1"/>
     </row>
-    <row r="422" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="6"/>
@@ -13787,7 +13771,7 @@
       <c r="AA422" s="1"/>
       <c r="AB422" s="1"/>
     </row>
-    <row r="423" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="6"/>
@@ -13817,7 +13801,7 @@
       <c r="AA423" s="1"/>
       <c r="AB423" s="1"/>
     </row>
-    <row r="424" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="6"/>
@@ -13847,7 +13831,7 @@
       <c r="AA424" s="1"/>
       <c r="AB424" s="1"/>
     </row>
-    <row r="425" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="6"/>
@@ -13877,7 +13861,7 @@
       <c r="AA425" s="1"/>
       <c r="AB425" s="1"/>
     </row>
-    <row r="426" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="6"/>
@@ -13907,7 +13891,7 @@
       <c r="AA426" s="1"/>
       <c r="AB426" s="1"/>
     </row>
-    <row r="427" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="6"/>
@@ -13937,7 +13921,7 @@
       <c r="AA427" s="1"/>
       <c r="AB427" s="1"/>
     </row>
-    <row r="428" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="6"/>
@@ -13967,7 +13951,7 @@
       <c r="AA428" s="1"/>
       <c r="AB428" s="1"/>
     </row>
-    <row r="429" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="6"/>
@@ -13997,7 +13981,7 @@
       <c r="AA429" s="1"/>
       <c r="AB429" s="1"/>
     </row>
-    <row r="430" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="6"/>
@@ -14027,7 +14011,7 @@
       <c r="AA430" s="1"/>
       <c r="AB430" s="1"/>
     </row>
-    <row r="431" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="6"/>
@@ -14057,7 +14041,7 @@
       <c r="AA431" s="1"/>
       <c r="AB431" s="1"/>
     </row>
-    <row r="432" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="6"/>
@@ -14087,7 +14071,7 @@
       <c r="AA432" s="1"/>
       <c r="AB432" s="1"/>
     </row>
-    <row r="433" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="6"/>
@@ -14117,7 +14101,7 @@
       <c r="AA433" s="1"/>
       <c r="AB433" s="1"/>
     </row>
-    <row r="434" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="6"/>
@@ -14147,7 +14131,7 @@
       <c r="AA434" s="1"/>
       <c r="AB434" s="1"/>
     </row>
-    <row r="435" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="6"/>
@@ -14177,7 +14161,7 @@
       <c r="AA435" s="1"/>
       <c r="AB435" s="1"/>
     </row>
-    <row r="436" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="6"/>
@@ -14207,7 +14191,7 @@
       <c r="AA436" s="1"/>
       <c r="AB436" s="1"/>
     </row>
-    <row r="437" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="6"/>
@@ -14237,7 +14221,7 @@
       <c r="AA437" s="1"/>
       <c r="AB437" s="1"/>
     </row>
-    <row r="438" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="6"/>
@@ -14267,7 +14251,7 @@
       <c r="AA438" s="1"/>
       <c r="AB438" s="1"/>
     </row>
-    <row r="439" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="6"/>
@@ -14297,7 +14281,7 @@
       <c r="AA439" s="1"/>
       <c r="AB439" s="1"/>
     </row>
-    <row r="440" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="6"/>
@@ -14327,7 +14311,7 @@
       <c r="AA440" s="1"/>
       <c r="AB440" s="1"/>
     </row>
-    <row r="441" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="6"/>
@@ -14357,7 +14341,7 @@
       <c r="AA441" s="1"/>
       <c r="AB441" s="1"/>
     </row>
-    <row r="442" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="6"/>
@@ -14387,7 +14371,7 @@
       <c r="AA442" s="1"/>
       <c r="AB442" s="1"/>
     </row>
-    <row r="443" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="6"/>
@@ -14417,7 +14401,7 @@
       <c r="AA443" s="1"/>
       <c r="AB443" s="1"/>
     </row>
-    <row r="444" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="6"/>
@@ -14447,7 +14431,7 @@
       <c r="AA444" s="1"/>
       <c r="AB444" s="1"/>
     </row>
-    <row r="445" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="6"/>
@@ -14477,7 +14461,7 @@
       <c r="AA445" s="1"/>
       <c r="AB445" s="1"/>
     </row>
-    <row r="446" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="6"/>
@@ -14507,7 +14491,7 @@
       <c r="AA446" s="1"/>
       <c r="AB446" s="1"/>
     </row>
-    <row r="447" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="6"/>
@@ -14537,7 +14521,7 @@
       <c r="AA447" s="1"/>
       <c r="AB447" s="1"/>
     </row>
-    <row r="448" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="6"/>
@@ -14567,7 +14551,7 @@
       <c r="AA448" s="1"/>
       <c r="AB448" s="1"/>
     </row>
-    <row r="449" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="6"/>
@@ -14597,7 +14581,7 @@
       <c r="AA449" s="1"/>
       <c r="AB449" s="1"/>
     </row>
-    <row r="450" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="6"/>
@@ -14627,7 +14611,7 @@
       <c r="AA450" s="1"/>
       <c r="AB450" s="1"/>
     </row>
-    <row r="451" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="6"/>
@@ -14657,7 +14641,7 @@
       <c r="AA451" s="1"/>
       <c r="AB451" s="1"/>
     </row>
-    <row r="452" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="6"/>
@@ -14687,7 +14671,7 @@
       <c r="AA452" s="1"/>
       <c r="AB452" s="1"/>
     </row>
-    <row r="453" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="6"/>
@@ -14717,7 +14701,7 @@
       <c r="AA453" s="1"/>
       <c r="AB453" s="1"/>
     </row>
-    <row r="454" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="6"/>
@@ -14747,7 +14731,7 @@
       <c r="AA454" s="1"/>
       <c r="AB454" s="1"/>
     </row>
-    <row r="455" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="6"/>
@@ -14777,7 +14761,7 @@
       <c r="AA455" s="1"/>
       <c r="AB455" s="1"/>
     </row>
-    <row r="456" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="6"/>
@@ -14807,7 +14791,7 @@
       <c r="AA456" s="1"/>
       <c r="AB456" s="1"/>
     </row>
-    <row r="457" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="6"/>
@@ -14837,7 +14821,7 @@
       <c r="AA457" s="1"/>
       <c r="AB457" s="1"/>
     </row>
-    <row r="458" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="6"/>
@@ -14867,7 +14851,7 @@
       <c r="AA458" s="1"/>
       <c r="AB458" s="1"/>
     </row>
-    <row r="459" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="6"/>
@@ -14897,7 +14881,7 @@
       <c r="AA459" s="1"/>
       <c r="AB459" s="1"/>
     </row>
-    <row r="460" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="6"/>
@@ -14927,7 +14911,7 @@
       <c r="AA460" s="1"/>
       <c r="AB460" s="1"/>
     </row>
-    <row r="461" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="6"/>
@@ -14957,7 +14941,7 @@
       <c r="AA461" s="1"/>
       <c r="AB461" s="1"/>
     </row>
-    <row r="462" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="6"/>
@@ -14987,7 +14971,7 @@
       <c r="AA462" s="1"/>
       <c r="AB462" s="1"/>
     </row>
-    <row r="463" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="6"/>
@@ -15017,7 +15001,7 @@
       <c r="AA463" s="1"/>
       <c r="AB463" s="1"/>
     </row>
-    <row r="464" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="6"/>
@@ -15047,7 +15031,7 @@
       <c r="AA464" s="1"/>
       <c r="AB464" s="1"/>
     </row>
-    <row r="465" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="6"/>
@@ -15077,7 +15061,7 @@
       <c r="AA465" s="1"/>
       <c r="AB465" s="1"/>
     </row>
-    <row r="466" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="6"/>
@@ -15107,7 +15091,7 @@
       <c r="AA466" s="1"/>
       <c r="AB466" s="1"/>
     </row>
-    <row r="467" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="6"/>
@@ -15137,7 +15121,7 @@
       <c r="AA467" s="1"/>
       <c r="AB467" s="1"/>
     </row>
-    <row r="468" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="6"/>
@@ -15167,7 +15151,7 @@
       <c r="AA468" s="1"/>
       <c r="AB468" s="1"/>
     </row>
-    <row r="469" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="6"/>
@@ -15197,7 +15181,7 @@
       <c r="AA469" s="1"/>
       <c r="AB469" s="1"/>
     </row>
-    <row r="470" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="6"/>
@@ -15227,7 +15211,7 @@
       <c r="AA470" s="1"/>
       <c r="AB470" s="1"/>
     </row>
-    <row r="471" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="6"/>
@@ -15257,7 +15241,7 @@
       <c r="AA471" s="1"/>
       <c r="AB471" s="1"/>
     </row>
-    <row r="472" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="6"/>
@@ -15287,7 +15271,7 @@
       <c r="AA472" s="1"/>
       <c r="AB472" s="1"/>
     </row>
-    <row r="473" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="6"/>
@@ -15317,7 +15301,7 @@
       <c r="AA473" s="1"/>
       <c r="AB473" s="1"/>
     </row>
-    <row r="474" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="6"/>
@@ -15347,7 +15331,7 @@
       <c r="AA474" s="1"/>
       <c r="AB474" s="1"/>
     </row>
-    <row r="475" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="6"/>
@@ -15377,7 +15361,7 @@
       <c r="AA475" s="1"/>
       <c r="AB475" s="1"/>
     </row>
-    <row r="476" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="6"/>
@@ -15407,7 +15391,7 @@
       <c r="AA476" s="1"/>
       <c r="AB476" s="1"/>
     </row>
-    <row r="477" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="6"/>
@@ -15437,7 +15421,7 @@
       <c r="AA477" s="1"/>
       <c r="AB477" s="1"/>
     </row>
-    <row r="478" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="6"/>
@@ -15467,7 +15451,7 @@
       <c r="AA478" s="1"/>
       <c r="AB478" s="1"/>
     </row>
-    <row r="479" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="6"/>
@@ -15497,7 +15481,7 @@
       <c r="AA479" s="1"/>
       <c r="AB479" s="1"/>
     </row>
-    <row r="480" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="6"/>
@@ -15527,7 +15511,7 @@
       <c r="AA480" s="1"/>
       <c r="AB480" s="1"/>
     </row>
-    <row r="481" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="6"/>
@@ -15557,7 +15541,7 @@
       <c r="AA481" s="1"/>
       <c r="AB481" s="1"/>
     </row>
-    <row r="482" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="6"/>
@@ -15587,7 +15571,7 @@
       <c r="AA482" s="1"/>
       <c r="AB482" s="1"/>
     </row>
-    <row r="483" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="6"/>
@@ -15617,7 +15601,7 @@
       <c r="AA483" s="1"/>
       <c r="AB483" s="1"/>
     </row>
-    <row r="484" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="6"/>
@@ -15647,7 +15631,7 @@
       <c r="AA484" s="1"/>
       <c r="AB484" s="1"/>
     </row>
-    <row r="485" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="6"/>
@@ -15677,7 +15661,7 @@
       <c r="AA485" s="1"/>
       <c r="AB485" s="1"/>
     </row>
-    <row r="486" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="6"/>
@@ -15707,7 +15691,7 @@
       <c r="AA486" s="1"/>
       <c r="AB486" s="1"/>
     </row>
-    <row r="487" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="6"/>
@@ -15737,7 +15721,7 @@
       <c r="AA487" s="1"/>
       <c r="AB487" s="1"/>
     </row>
-    <row r="488" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="6"/>
@@ -15767,7 +15751,7 @@
       <c r="AA488" s="1"/>
       <c r="AB488" s="1"/>
     </row>
-    <row r="489" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="6"/>
@@ -15797,7 +15781,7 @@
       <c r="AA489" s="1"/>
       <c r="AB489" s="1"/>
     </row>
-    <row r="490" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="6"/>
@@ -15827,7 +15811,7 @@
       <c r="AA490" s="1"/>
       <c r="AB490" s="1"/>
     </row>
-    <row r="491" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="6"/>
@@ -15857,7 +15841,7 @@
       <c r="AA491" s="1"/>
       <c r="AB491" s="1"/>
     </row>
-    <row r="492" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="6"/>
@@ -15887,7 +15871,7 @@
       <c r="AA492" s="1"/>
       <c r="AB492" s="1"/>
     </row>
-    <row r="493" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="6"/>
@@ -15917,7 +15901,7 @@
       <c r="AA493" s="1"/>
       <c r="AB493" s="1"/>
     </row>
-    <row r="494" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="6"/>
@@ -15947,7 +15931,7 @@
       <c r="AA494" s="1"/>
       <c r="AB494" s="1"/>
     </row>
-    <row r="495" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="6"/>
@@ -15977,7 +15961,7 @@
       <c r="AA495" s="1"/>
       <c r="AB495" s="1"/>
     </row>
-    <row r="496" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="6"/>
@@ -16007,7 +15991,7 @@
       <c r="AA496" s="1"/>
       <c r="AB496" s="1"/>
     </row>
-    <row r="497" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="6"/>
@@ -16037,7 +16021,7 @@
       <c r="AA497" s="1"/>
       <c r="AB497" s="1"/>
     </row>
-    <row r="498" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="6"/>
@@ -16067,7 +16051,7 @@
       <c r="AA498" s="1"/>
       <c r="AB498" s="1"/>
     </row>
-    <row r="499" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="6"/>
@@ -16097,7 +16081,7 @@
       <c r="AA499" s="1"/>
       <c r="AB499" s="1"/>
     </row>
-    <row r="500" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="6"/>
@@ -16127,7 +16111,7 @@
       <c r="AA500" s="1"/>
       <c r="AB500" s="1"/>
     </row>
-    <row r="501" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="6"/>
@@ -16157,7 +16141,7 @@
       <c r="AA501" s="1"/>
       <c r="AB501" s="1"/>
     </row>
-    <row r="502" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="6"/>
@@ -16187,7 +16171,7 @@
       <c r="AA502" s="1"/>
       <c r="AB502" s="1"/>
     </row>
-    <row r="503" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="6"/>
@@ -16217,7 +16201,7 @@
       <c r="AA503" s="1"/>
       <c r="AB503" s="1"/>
     </row>
-    <row r="504" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="6"/>
@@ -16247,7 +16231,7 @@
       <c r="AA504" s="1"/>
       <c r="AB504" s="1"/>
     </row>
-    <row r="505" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="6"/>
@@ -16277,7 +16261,7 @@
       <c r="AA505" s="1"/>
       <c r="AB505" s="1"/>
     </row>
-    <row r="506" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="6"/>
@@ -16307,7 +16291,7 @@
       <c r="AA506" s="1"/>
       <c r="AB506" s="1"/>
     </row>
-    <row r="507" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="6"/>
@@ -16337,7 +16321,7 @@
       <c r="AA507" s="1"/>
       <c r="AB507" s="1"/>
     </row>
-    <row r="508" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="6"/>
@@ -16367,7 +16351,7 @@
       <c r="AA508" s="1"/>
       <c r="AB508" s="1"/>
     </row>
-    <row r="509" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="6"/>
@@ -16397,7 +16381,7 @@
       <c r="AA509" s="1"/>
       <c r="AB509" s="1"/>
     </row>
-    <row r="510" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="6"/>
@@ -16427,7 +16411,7 @@
       <c r="AA510" s="1"/>
       <c r="AB510" s="1"/>
     </row>
-    <row r="511" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="6"/>
@@ -16457,7 +16441,7 @@
       <c r="AA511" s="1"/>
       <c r="AB511" s="1"/>
     </row>
-    <row r="512" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="6"/>
@@ -16487,7 +16471,7 @@
       <c r="AA512" s="1"/>
       <c r="AB512" s="1"/>
     </row>
-    <row r="513" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="6"/>
@@ -16517,7 +16501,7 @@
       <c r="AA513" s="1"/>
       <c r="AB513" s="1"/>
     </row>
-    <row r="514" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="6"/>
@@ -16547,7 +16531,7 @@
       <c r="AA514" s="1"/>
       <c r="AB514" s="1"/>
     </row>
-    <row r="515" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="6"/>
@@ -16577,7 +16561,7 @@
       <c r="AA515" s="1"/>
       <c r="AB515" s="1"/>
     </row>
-    <row r="516" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="6"/>
@@ -16607,7 +16591,7 @@
       <c r="AA516" s="1"/>
       <c r="AB516" s="1"/>
     </row>
-    <row r="517" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="6"/>
@@ -16637,7 +16621,7 @@
       <c r="AA517" s="1"/>
       <c r="AB517" s="1"/>
     </row>
-    <row r="518" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="6"/>
@@ -16667,7 +16651,7 @@
       <c r="AA518" s="1"/>
       <c r="AB518" s="1"/>
     </row>
-    <row r="519" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="6"/>
@@ -16697,7 +16681,7 @@
       <c r="AA519" s="1"/>
       <c r="AB519" s="1"/>
     </row>
-    <row r="520" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="6"/>
@@ -16727,7 +16711,7 @@
       <c r="AA520" s="1"/>
       <c r="AB520" s="1"/>
     </row>
-    <row r="521" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="6"/>
@@ -16757,7 +16741,7 @@
       <c r="AA521" s="1"/>
       <c r="AB521" s="1"/>
     </row>
-    <row r="522" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="6"/>
@@ -16787,7 +16771,7 @@
       <c r="AA522" s="1"/>
       <c r="AB522" s="1"/>
     </row>
-    <row r="523" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="6"/>
@@ -16817,7 +16801,7 @@
       <c r="AA523" s="1"/>
       <c r="AB523" s="1"/>
     </row>
-    <row r="524" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="6"/>
@@ -16847,7 +16831,7 @@
       <c r="AA524" s="1"/>
       <c r="AB524" s="1"/>
     </row>
-    <row r="525" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="6"/>
@@ -16877,7 +16861,7 @@
       <c r="AA525" s="1"/>
       <c r="AB525" s="1"/>
     </row>
-    <row r="526" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="6"/>
@@ -16907,7 +16891,7 @@
       <c r="AA526" s="1"/>
       <c r="AB526" s="1"/>
     </row>
-    <row r="527" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="6"/>
@@ -16937,7 +16921,7 @@
       <c r="AA527" s="1"/>
       <c r="AB527" s="1"/>
     </row>
-    <row r="528" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="6"/>
@@ -16967,7 +16951,7 @@
       <c r="AA528" s="1"/>
       <c r="AB528" s="1"/>
     </row>
-    <row r="529" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="6"/>
@@ -16997,7 +16981,7 @@
       <c r="AA529" s="1"/>
       <c r="AB529" s="1"/>
     </row>
-    <row r="530" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="6"/>
@@ -17027,7 +17011,7 @@
       <c r="AA530" s="1"/>
       <c r="AB530" s="1"/>
     </row>
-    <row r="531" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="6"/>
@@ -17057,7 +17041,7 @@
       <c r="AA531" s="1"/>
       <c r="AB531" s="1"/>
     </row>
-    <row r="532" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="6"/>
@@ -17087,7 +17071,7 @@
       <c r="AA532" s="1"/>
       <c r="AB532" s="1"/>
     </row>
-    <row r="533" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="6"/>
@@ -17117,7 +17101,7 @@
       <c r="AA533" s="1"/>
       <c r="AB533" s="1"/>
     </row>
-    <row r="534" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="6"/>
@@ -17147,7 +17131,7 @@
       <c r="AA534" s="1"/>
       <c r="AB534" s="1"/>
     </row>
-    <row r="535" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="6"/>
@@ -17177,7 +17161,7 @@
       <c r="AA535" s="1"/>
       <c r="AB535" s="1"/>
     </row>
-    <row r="536" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="6"/>
@@ -17207,7 +17191,7 @@
       <c r="AA536" s="1"/>
       <c r="AB536" s="1"/>
     </row>
-    <row r="537" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="6"/>
@@ -17237,7 +17221,7 @@
       <c r="AA537" s="1"/>
       <c r="AB537" s="1"/>
     </row>
-    <row r="538" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="538" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="6"/>
@@ -17267,7 +17251,7 @@
       <c r="AA538" s="1"/>
       <c r="AB538" s="1"/>
     </row>
-    <row r="539" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="539" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="6"/>
@@ -17297,7 +17281,7 @@
       <c r="AA539" s="1"/>
       <c r="AB539" s="1"/>
     </row>
-    <row r="540" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="6"/>
@@ -17327,7 +17311,7 @@
       <c r="AA540" s="1"/>
       <c r="AB540" s="1"/>
     </row>
-    <row r="541" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="6"/>
@@ -17357,7 +17341,7 @@
       <c r="AA541" s="1"/>
       <c r="AB541" s="1"/>
     </row>
-    <row r="542" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="542" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="6"/>
@@ -17387,7 +17371,7 @@
       <c r="AA542" s="1"/>
       <c r="AB542" s="1"/>
     </row>
-    <row r="543" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="6"/>
@@ -17417,7 +17401,7 @@
       <c r="AA543" s="1"/>
       <c r="AB543" s="1"/>
     </row>
-    <row r="544" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="544" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="6"/>
@@ -17447,7 +17431,7 @@
       <c r="AA544" s="1"/>
       <c r="AB544" s="1"/>
     </row>
-    <row r="545" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="6"/>
@@ -17477,7 +17461,7 @@
       <c r="AA545" s="1"/>
       <c r="AB545" s="1"/>
     </row>
-    <row r="546" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="6"/>
@@ -17507,7 +17491,7 @@
       <c r="AA546" s="1"/>
       <c r="AB546" s="1"/>
     </row>
-    <row r="547" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="6"/>
@@ -17537,7 +17521,7 @@
       <c r="AA547" s="1"/>
       <c r="AB547" s="1"/>
     </row>
-    <row r="548" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="6"/>
@@ -17567,7 +17551,7 @@
       <c r="AA548" s="1"/>
       <c r="AB548" s="1"/>
     </row>
-    <row r="549" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="549" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="6"/>
@@ -17597,7 +17581,7 @@
       <c r="AA549" s="1"/>
       <c r="AB549" s="1"/>
     </row>
-    <row r="550" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="550" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="6"/>
@@ -17627,7 +17611,7 @@
       <c r="AA550" s="1"/>
       <c r="AB550" s="1"/>
     </row>
-    <row r="551" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="6"/>
@@ -17657,7 +17641,7 @@
       <c r="AA551" s="1"/>
       <c r="AB551" s="1"/>
     </row>
-    <row r="552" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="552" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="6"/>
@@ -17687,7 +17671,7 @@
       <c r="AA552" s="1"/>
       <c r="AB552" s="1"/>
     </row>
-    <row r="553" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="553" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="6"/>
@@ -17717,7 +17701,7 @@
       <c r="AA553" s="1"/>
       <c r="AB553" s="1"/>
     </row>
-    <row r="554" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="554" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="6"/>
@@ -17747,7 +17731,7 @@
       <c r="AA554" s="1"/>
       <c r="AB554" s="1"/>
     </row>
-    <row r="555" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="555" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="6"/>
@@ -17777,7 +17761,7 @@
       <c r="AA555" s="1"/>
       <c r="AB555" s="1"/>
     </row>
-    <row r="556" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="556" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="6"/>
@@ -17807,7 +17791,7 @@
       <c r="AA556" s="1"/>
       <c r="AB556" s="1"/>
     </row>
-    <row r="557" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="557" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="6"/>
@@ -17837,7 +17821,7 @@
       <c r="AA557" s="1"/>
       <c r="AB557" s="1"/>
     </row>
-    <row r="558" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="558" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="6"/>
@@ -17867,7 +17851,7 @@
       <c r="AA558" s="1"/>
       <c r="AB558" s="1"/>
     </row>
-    <row r="559" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="559" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="6"/>
@@ -17897,7 +17881,7 @@
       <c r="AA559" s="1"/>
       <c r="AB559" s="1"/>
     </row>
-    <row r="560" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="560" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="6"/>
@@ -17927,7 +17911,7 @@
       <c r="AA560" s="1"/>
       <c r="AB560" s="1"/>
     </row>
-    <row r="561" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="561" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="6"/>
@@ -17957,7 +17941,7 @@
       <c r="AA561" s="1"/>
       <c r="AB561" s="1"/>
     </row>
-    <row r="562" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="562" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="6"/>
@@ -17987,7 +17971,7 @@
       <c r="AA562" s="1"/>
       <c r="AB562" s="1"/>
     </row>
-    <row r="563" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="563" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="6"/>
@@ -18017,7 +18001,7 @@
       <c r="AA563" s="1"/>
       <c r="AB563" s="1"/>
     </row>
-    <row r="564" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="564" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="6"/>
@@ -18047,7 +18031,7 @@
       <c r="AA564" s="1"/>
       <c r="AB564" s="1"/>
     </row>
-    <row r="565" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="565" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="6"/>
@@ -18077,7 +18061,7 @@
       <c r="AA565" s="1"/>
       <c r="AB565" s="1"/>
     </row>
-    <row r="566" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="566" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="6"/>
@@ -18107,7 +18091,7 @@
       <c r="AA566" s="1"/>
       <c r="AB566" s="1"/>
     </row>
-    <row r="567" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="567" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="6"/>
@@ -18137,7 +18121,7 @@
       <c r="AA567" s="1"/>
       <c r="AB567" s="1"/>
     </row>
-    <row r="568" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="568" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="6"/>
@@ -18167,7 +18151,7 @@
       <c r="AA568" s="1"/>
       <c r="AB568" s="1"/>
     </row>
-    <row r="569" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="569" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="6"/>
@@ -18197,7 +18181,7 @@
       <c r="AA569" s="1"/>
       <c r="AB569" s="1"/>
     </row>
-    <row r="570" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="570" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="6"/>
@@ -18227,7 +18211,7 @@
       <c r="AA570" s="1"/>
       <c r="AB570" s="1"/>
     </row>
-    <row r="571" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="571" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="6"/>
@@ -18257,7 +18241,7 @@
       <c r="AA571" s="1"/>
       <c r="AB571" s="1"/>
     </row>
-    <row r="572" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="572" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="6"/>
@@ -18287,7 +18271,7 @@
       <c r="AA572" s="1"/>
       <c r="AB572" s="1"/>
     </row>
-    <row r="573" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="573" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="6"/>
@@ -18317,7 +18301,7 @@
       <c r="AA573" s="1"/>
       <c r="AB573" s="1"/>
     </row>
-    <row r="574" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="574" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="6"/>
@@ -18347,7 +18331,7 @@
       <c r="AA574" s="1"/>
       <c r="AB574" s="1"/>
     </row>
-    <row r="575" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="575" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="6"/>
@@ -18377,7 +18361,7 @@
       <c r="AA575" s="1"/>
       <c r="AB575" s="1"/>
     </row>
-    <row r="576" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="576" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="6"/>
@@ -18407,7 +18391,7 @@
       <c r="AA576" s="1"/>
       <c r="AB576" s="1"/>
     </row>
-    <row r="577" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="577" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="6"/>
@@ -18437,7 +18421,7 @@
       <c r="AA577" s="1"/>
       <c r="AB577" s="1"/>
     </row>
-    <row r="578" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="578" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="6"/>
@@ -18467,7 +18451,7 @@
       <c r="AA578" s="1"/>
       <c r="AB578" s="1"/>
     </row>
-    <row r="579" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="579" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="6"/>
@@ -18497,7 +18481,7 @@
       <c r="AA579" s="1"/>
       <c r="AB579" s="1"/>
     </row>
-    <row r="580" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="580" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="6"/>
@@ -18527,7 +18511,7 @@
       <c r="AA580" s="1"/>
       <c r="AB580" s="1"/>
     </row>
-    <row r="581" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="581" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="6"/>
@@ -18557,7 +18541,7 @@
       <c r="AA581" s="1"/>
       <c r="AB581" s="1"/>
     </row>
-    <row r="582" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="582" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="6"/>
@@ -18587,7 +18571,7 @@
       <c r="AA582" s="1"/>
       <c r="AB582" s="1"/>
     </row>
-    <row r="583" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="583" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="6"/>
@@ -18617,7 +18601,7 @@
       <c r="AA583" s="1"/>
       <c r="AB583" s="1"/>
     </row>
-    <row r="584" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="584" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="6"/>
@@ -18647,7 +18631,7 @@
       <c r="AA584" s="1"/>
       <c r="AB584" s="1"/>
     </row>
-    <row r="585" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="585" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="6"/>
@@ -18677,7 +18661,7 @@
       <c r="AA585" s="1"/>
       <c r="AB585" s="1"/>
     </row>
-    <row r="586" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="586" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="6"/>
@@ -18707,7 +18691,7 @@
       <c r="AA586" s="1"/>
       <c r="AB586" s="1"/>
     </row>
-    <row r="587" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="587" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="6"/>
@@ -18737,7 +18721,7 @@
       <c r="AA587" s="1"/>
       <c r="AB587" s="1"/>
     </row>
-    <row r="588" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="588" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="6"/>
@@ -18767,7 +18751,7 @@
       <c r="AA588" s="1"/>
       <c r="AB588" s="1"/>
     </row>
-    <row r="589" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="589" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="6"/>
@@ -18797,7 +18781,7 @@
       <c r="AA589" s="1"/>
       <c r="AB589" s="1"/>
     </row>
-    <row r="590" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="590" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="6"/>
@@ -18827,7 +18811,7 @@
       <c r="AA590" s="1"/>
       <c r="AB590" s="1"/>
     </row>
-    <row r="591" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="591" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="6"/>
@@ -18857,7 +18841,7 @@
       <c r="AA591" s="1"/>
       <c r="AB591" s="1"/>
     </row>
-    <row r="592" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="592" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="6"/>
@@ -18887,7 +18871,7 @@
       <c r="AA592" s="1"/>
       <c r="AB592" s="1"/>
     </row>
-    <row r="593" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="593" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="6"/>
@@ -18917,7 +18901,7 @@
       <c r="AA593" s="1"/>
       <c r="AB593" s="1"/>
     </row>
-    <row r="594" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="594" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="6"/>
@@ -18947,7 +18931,7 @@
       <c r="AA594" s="1"/>
       <c r="AB594" s="1"/>
     </row>
-    <row r="595" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="595" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="6"/>
@@ -18977,7 +18961,7 @@
       <c r="AA595" s="1"/>
       <c r="AB595" s="1"/>
     </row>
-    <row r="596" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="596" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="6"/>
@@ -19007,7 +18991,7 @@
       <c r="AA596" s="1"/>
       <c r="AB596" s="1"/>
     </row>
-    <row r="597" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="597" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="6"/>
@@ -19037,7 +19021,7 @@
       <c r="AA597" s="1"/>
       <c r="AB597" s="1"/>
     </row>
-    <row r="598" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="598" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="6"/>
@@ -19067,7 +19051,7 @@
       <c r="AA598" s="1"/>
       <c r="AB598" s="1"/>
     </row>
-    <row r="599" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="599" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="6"/>
@@ -19097,7 +19081,7 @@
       <c r="AA599" s="1"/>
       <c r="AB599" s="1"/>
     </row>
-    <row r="600" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="600" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="6"/>
@@ -19127,7 +19111,7 @@
       <c r="AA600" s="1"/>
       <c r="AB600" s="1"/>
     </row>
-    <row r="601" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="601" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="6"/>
@@ -19157,7 +19141,7 @@
       <c r="AA601" s="1"/>
       <c r="AB601" s="1"/>
     </row>
-    <row r="602" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="602" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="6"/>
@@ -19187,7 +19171,7 @@
       <c r="AA602" s="1"/>
       <c r="AB602" s="1"/>
     </row>
-    <row r="603" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="603" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="6"/>
@@ -19217,7 +19201,7 @@
       <c r="AA603" s="1"/>
       <c r="AB603" s="1"/>
     </row>
-    <row r="604" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="604" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="6"/>
@@ -19247,7 +19231,7 @@
       <c r="AA604" s="1"/>
       <c r="AB604" s="1"/>
     </row>
-    <row r="605" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="605" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="6"/>
@@ -19277,7 +19261,7 @@
       <c r="AA605" s="1"/>
       <c r="AB605" s="1"/>
     </row>
-    <row r="606" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="606" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="6"/>
@@ -19307,7 +19291,7 @@
       <c r="AA606" s="1"/>
       <c r="AB606" s="1"/>
     </row>
-    <row r="607" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="607" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="6"/>
@@ -19337,7 +19321,7 @@
       <c r="AA607" s="1"/>
       <c r="AB607" s="1"/>
     </row>
-    <row r="608" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="608" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="6"/>
@@ -19367,7 +19351,7 @@
       <c r="AA608" s="1"/>
       <c r="AB608" s="1"/>
     </row>
-    <row r="609" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="609" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="6"/>
@@ -19397,7 +19381,7 @@
       <c r="AA609" s="1"/>
       <c r="AB609" s="1"/>
     </row>
-    <row r="610" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="610" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="6"/>
@@ -19427,7 +19411,7 @@
       <c r="AA610" s="1"/>
       <c r="AB610" s="1"/>
     </row>
-    <row r="611" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="611" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="6"/>
@@ -19457,7 +19441,7 @@
       <c r="AA611" s="1"/>
       <c r="AB611" s="1"/>
     </row>
-    <row r="612" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="612" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="6"/>
@@ -19487,7 +19471,7 @@
       <c r="AA612" s="1"/>
       <c r="AB612" s="1"/>
     </row>
-    <row r="613" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="613" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="6"/>
@@ -19517,7 +19501,7 @@
       <c r="AA613" s="1"/>
       <c r="AB613" s="1"/>
     </row>
-    <row r="614" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="614" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="6"/>
@@ -19547,7 +19531,7 @@
       <c r="AA614" s="1"/>
       <c r="AB614" s="1"/>
     </row>
-    <row r="615" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="615" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="6"/>
@@ -19577,7 +19561,7 @@
       <c r="AA615" s="1"/>
       <c r="AB615" s="1"/>
     </row>
-    <row r="616" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="616" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="6"/>
@@ -19607,7 +19591,7 @@
       <c r="AA616" s="1"/>
       <c r="AB616" s="1"/>
     </row>
-    <row r="617" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="617" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="6"/>
@@ -19637,7 +19621,7 @@
       <c r="AA617" s="1"/>
       <c r="AB617" s="1"/>
     </row>
-    <row r="618" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="618" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="6"/>
@@ -19667,7 +19651,7 @@
       <c r="AA618" s="1"/>
       <c r="AB618" s="1"/>
     </row>
-    <row r="619" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="619" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="6"/>
@@ -19697,7 +19681,7 @@
       <c r="AA619" s="1"/>
       <c r="AB619" s="1"/>
     </row>
-    <row r="620" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="620" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="6"/>
@@ -19727,7 +19711,7 @@
       <c r="AA620" s="1"/>
       <c r="AB620" s="1"/>
     </row>
-    <row r="621" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="621" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="6"/>
@@ -19757,7 +19741,7 @@
       <c r="AA621" s="1"/>
       <c r="AB621" s="1"/>
     </row>
-    <row r="622" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="622" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="6"/>
@@ -19787,7 +19771,7 @@
       <c r="AA622" s="1"/>
       <c r="AB622" s="1"/>
     </row>
-    <row r="623" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="623" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="6"/>
@@ -19817,7 +19801,7 @@
       <c r="AA623" s="1"/>
       <c r="AB623" s="1"/>
     </row>
-    <row r="624" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="624" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="6"/>
@@ -19847,7 +19831,7 @@
       <c r="AA624" s="1"/>
       <c r="AB624" s="1"/>
     </row>
-    <row r="625" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="625" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="6"/>
@@ -19877,7 +19861,7 @@
       <c r="AA625" s="1"/>
       <c r="AB625" s="1"/>
     </row>
-    <row r="626" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="626" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="6"/>
@@ -19907,7 +19891,7 @@
       <c r="AA626" s="1"/>
       <c r="AB626" s="1"/>
     </row>
-    <row r="627" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="627" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="6"/>
@@ -19937,7 +19921,7 @@
       <c r="AA627" s="1"/>
       <c r="AB627" s="1"/>
     </row>
-    <row r="628" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="628" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="6"/>
@@ -19967,7 +19951,7 @@
       <c r="AA628" s="1"/>
       <c r="AB628" s="1"/>
     </row>
-    <row r="629" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="629" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="6"/>
@@ -19997,7 +19981,7 @@
       <c r="AA629" s="1"/>
       <c r="AB629" s="1"/>
     </row>
-    <row r="630" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="630" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="6"/>
@@ -20027,7 +20011,7 @@
       <c r="AA630" s="1"/>
       <c r="AB630" s="1"/>
     </row>
-    <row r="631" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="631" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="6"/>
@@ -20057,7 +20041,7 @@
       <c r="AA631" s="1"/>
       <c r="AB631" s="1"/>
     </row>
-    <row r="632" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="632" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="6"/>
@@ -20087,7 +20071,7 @@
       <c r="AA632" s="1"/>
       <c r="AB632" s="1"/>
     </row>
-    <row r="633" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="633" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="6"/>
@@ -20117,7 +20101,7 @@
       <c r="AA633" s="1"/>
       <c r="AB633" s="1"/>
     </row>
-    <row r="634" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="634" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="6"/>
@@ -20147,7 +20131,7 @@
       <c r="AA634" s="1"/>
       <c r="AB634" s="1"/>
     </row>
-    <row r="635" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="635" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="6"/>
@@ -20177,7 +20161,7 @@
       <c r="AA635" s="1"/>
       <c r="AB635" s="1"/>
     </row>
-    <row r="636" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="636" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="6"/>
@@ -20207,7 +20191,7 @@
       <c r="AA636" s="1"/>
       <c r="AB636" s="1"/>
     </row>
-    <row r="637" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="637" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="6"/>
@@ -20237,7 +20221,7 @@
       <c r="AA637" s="1"/>
       <c r="AB637" s="1"/>
     </row>
-    <row r="638" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="638" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="6"/>
@@ -20267,7 +20251,7 @@
       <c r="AA638" s="1"/>
       <c r="AB638" s="1"/>
     </row>
-    <row r="639" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="639" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="6"/>
@@ -20297,7 +20281,7 @@
       <c r="AA639" s="1"/>
       <c r="AB639" s="1"/>
     </row>
-    <row r="640" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="640" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="6"/>
@@ -20327,7 +20311,7 @@
       <c r="AA640" s="1"/>
       <c r="AB640" s="1"/>
     </row>
-    <row r="641" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="641" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="6"/>
@@ -20357,7 +20341,7 @@
       <c r="AA641" s="1"/>
       <c r="AB641" s="1"/>
     </row>
-    <row r="642" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="642" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="6"/>
@@ -20387,7 +20371,7 @@
       <c r="AA642" s="1"/>
       <c r="AB642" s="1"/>
     </row>
-    <row r="643" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="643" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="6"/>
@@ -20417,7 +20401,7 @@
       <c r="AA643" s="1"/>
       <c r="AB643" s="1"/>
     </row>
-    <row r="644" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="644" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="6"/>
@@ -20447,7 +20431,7 @@
       <c r="AA644" s="1"/>
       <c r="AB644" s="1"/>
     </row>
-    <row r="645" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="645" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="6"/>
@@ -20477,7 +20461,7 @@
       <c r="AA645" s="1"/>
       <c r="AB645" s="1"/>
     </row>
-    <row r="646" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="646" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="6"/>
@@ -20507,7 +20491,7 @@
       <c r="AA646" s="1"/>
       <c r="AB646" s="1"/>
     </row>
-    <row r="647" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="647" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="6"/>
@@ -20537,7 +20521,7 @@
       <c r="AA647" s="1"/>
       <c r="AB647" s="1"/>
     </row>
-    <row r="648" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="648" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="6"/>
@@ -20567,7 +20551,7 @@
       <c r="AA648" s="1"/>
       <c r="AB648" s="1"/>
     </row>
-    <row r="649" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="649" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="6"/>
@@ -20597,7 +20581,7 @@
       <c r="AA649" s="1"/>
       <c r="AB649" s="1"/>
     </row>
-    <row r="650" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="650" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="6"/>
@@ -20627,7 +20611,7 @@
       <c r="AA650" s="1"/>
       <c r="AB650" s="1"/>
     </row>
-    <row r="651" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="651" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="6"/>
@@ -20657,7 +20641,7 @@
       <c r="AA651" s="1"/>
       <c r="AB651" s="1"/>
     </row>
-    <row r="652" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="652" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="6"/>
@@ -20687,7 +20671,7 @@
       <c r="AA652" s="1"/>
       <c r="AB652" s="1"/>
     </row>
-    <row r="653" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="653" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="6"/>
@@ -20717,7 +20701,7 @@
       <c r="AA653" s="1"/>
       <c r="AB653" s="1"/>
     </row>
-    <row r="654" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="654" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="6"/>
@@ -20747,7 +20731,7 @@
       <c r="AA654" s="1"/>
       <c r="AB654" s="1"/>
     </row>
-    <row r="655" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="655" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="6"/>
@@ -20777,7 +20761,7 @@
       <c r="AA655" s="1"/>
       <c r="AB655" s="1"/>
     </row>
-    <row r="656" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="656" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="6"/>
@@ -20807,7 +20791,7 @@
       <c r="AA656" s="1"/>
       <c r="AB656" s="1"/>
     </row>
-    <row r="657" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="657" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="6"/>
@@ -20837,7 +20821,7 @@
       <c r="AA657" s="1"/>
       <c r="AB657" s="1"/>
     </row>
-    <row r="658" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="658" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="6"/>
@@ -20867,7 +20851,7 @@
       <c r="AA658" s="1"/>
       <c r="AB658" s="1"/>
     </row>
-    <row r="659" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="659" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="6"/>
@@ -20897,7 +20881,7 @@
       <c r="AA659" s="1"/>
       <c r="AB659" s="1"/>
     </row>
-    <row r="660" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="660" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="6"/>
@@ -20927,7 +20911,7 @@
       <c r="AA660" s="1"/>
       <c r="AB660" s="1"/>
     </row>
-    <row r="661" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="661" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="6"/>
@@ -20957,7 +20941,7 @@
       <c r="AA661" s="1"/>
       <c r="AB661" s="1"/>
     </row>
-    <row r="662" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="662" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="6"/>
@@ -20987,7 +20971,7 @@
       <c r="AA662" s="1"/>
       <c r="AB662" s="1"/>
     </row>
-    <row r="663" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="663" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="6"/>
@@ -21017,7 +21001,7 @@
       <c r="AA663" s="1"/>
       <c r="AB663" s="1"/>
     </row>
-    <row r="664" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="664" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="6"/>
@@ -21047,7 +21031,7 @@
       <c r="AA664" s="1"/>
       <c r="AB664" s="1"/>
     </row>
-    <row r="665" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="665" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="6"/>
@@ -21077,7 +21061,7 @@
       <c r="AA665" s="1"/>
       <c r="AB665" s="1"/>
     </row>
-    <row r="666" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="666" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="6"/>
@@ -21107,7 +21091,7 @@
       <c r="AA666" s="1"/>
       <c r="AB666" s="1"/>
     </row>
-    <row r="667" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="667" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="6"/>
@@ -21137,7 +21121,7 @@
       <c r="AA667" s="1"/>
       <c r="AB667" s="1"/>
     </row>
-    <row r="668" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="668" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="6"/>
@@ -21167,7 +21151,7 @@
       <c r="AA668" s="1"/>
       <c r="AB668" s="1"/>
     </row>
-    <row r="669" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="669" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="6"/>
@@ -21197,7 +21181,7 @@
       <c r="AA669" s="1"/>
       <c r="AB669" s="1"/>
     </row>
-    <row r="670" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="670" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="6"/>
@@ -21227,7 +21211,7 @@
       <c r="AA670" s="1"/>
       <c r="AB670" s="1"/>
     </row>
-    <row r="671" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="671" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="6"/>
@@ -21257,7 +21241,7 @@
       <c r="AA671" s="1"/>
       <c r="AB671" s="1"/>
     </row>
-    <row r="672" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="672" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="6"/>
@@ -21287,7 +21271,7 @@
       <c r="AA672" s="1"/>
       <c r="AB672" s="1"/>
     </row>
-    <row r="673" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="673" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="6"/>
@@ -21317,7 +21301,7 @@
       <c r="AA673" s="1"/>
       <c r="AB673" s="1"/>
     </row>
-    <row r="674" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="674" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="6"/>
@@ -21347,7 +21331,7 @@
       <c r="AA674" s="1"/>
       <c r="AB674" s="1"/>
     </row>
-    <row r="675" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="675" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="6"/>
@@ -21377,7 +21361,7 @@
       <c r="AA675" s="1"/>
       <c r="AB675" s="1"/>
     </row>
-    <row r="676" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="676" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="6"/>
@@ -21407,7 +21391,7 @@
       <c r="AA676" s="1"/>
       <c r="AB676" s="1"/>
     </row>
-    <row r="677" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="677" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="6"/>
@@ -21437,7 +21421,7 @@
       <c r="AA677" s="1"/>
       <c r="AB677" s="1"/>
     </row>
-    <row r="678" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="678" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="6"/>
@@ -21467,7 +21451,7 @@
       <c r="AA678" s="1"/>
       <c r="AB678" s="1"/>
     </row>
-    <row r="679" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="679" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="6"/>
@@ -21497,7 +21481,7 @@
       <c r="AA679" s="1"/>
       <c r="AB679" s="1"/>
     </row>
-    <row r="680" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="680" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="6"/>
@@ -21527,7 +21511,7 @@
       <c r="AA680" s="1"/>
       <c r="AB680" s="1"/>
     </row>
-    <row r="681" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="681" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="6"/>
@@ -21557,7 +21541,7 @@
       <c r="AA681" s="1"/>
       <c r="AB681" s="1"/>
     </row>
-    <row r="682" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="682" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="6"/>
@@ -21587,7 +21571,7 @@
       <c r="AA682" s="1"/>
       <c r="AB682" s="1"/>
     </row>
-    <row r="683" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="683" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="6"/>
@@ -21617,7 +21601,7 @@
       <c r="AA683" s="1"/>
       <c r="AB683" s="1"/>
     </row>
-    <row r="684" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="684" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="6"/>
@@ -21647,7 +21631,7 @@
       <c r="AA684" s="1"/>
       <c r="AB684" s="1"/>
     </row>
-    <row r="685" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="685" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="6"/>
@@ -21677,7 +21661,7 @@
       <c r="AA685" s="1"/>
       <c r="AB685" s="1"/>
     </row>
-    <row r="686" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="686" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="6"/>
@@ -21707,7 +21691,7 @@
       <c r="AA686" s="1"/>
       <c r="AB686" s="1"/>
     </row>
-    <row r="687" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="687" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="6"/>
@@ -21737,7 +21721,7 @@
       <c r="AA687" s="1"/>
       <c r="AB687" s="1"/>
     </row>
-    <row r="688" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="688" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="6"/>
@@ -21767,7 +21751,7 @@
       <c r="AA688" s="1"/>
       <c r="AB688" s="1"/>
     </row>
-    <row r="689" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="689" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="6"/>
@@ -21797,7 +21781,7 @@
       <c r="AA689" s="1"/>
       <c r="AB689" s="1"/>
     </row>
-    <row r="690" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="690" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="6"/>
@@ -21827,7 +21811,7 @@
       <c r="AA690" s="1"/>
       <c r="AB690" s="1"/>
     </row>
-    <row r="691" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="691" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="6"/>
@@ -21857,7 +21841,7 @@
       <c r="AA691" s="1"/>
       <c r="AB691" s="1"/>
     </row>
-    <row r="692" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="692" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="6"/>
@@ -21887,7 +21871,7 @@
       <c r="AA692" s="1"/>
       <c r="AB692" s="1"/>
     </row>
-    <row r="693" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="693" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="6"/>
@@ -21917,7 +21901,7 @@
       <c r="AA693" s="1"/>
       <c r="AB693" s="1"/>
     </row>
-    <row r="694" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="694" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="6"/>
@@ -21947,7 +21931,7 @@
       <c r="AA694" s="1"/>
       <c r="AB694" s="1"/>
     </row>
-    <row r="695" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="695" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="6"/>
@@ -21977,7 +21961,7 @@
       <c r="AA695" s="1"/>
       <c r="AB695" s="1"/>
     </row>
-    <row r="696" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="696" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="6"/>
@@ -22007,7 +21991,7 @@
       <c r="AA696" s="1"/>
       <c r="AB696" s="1"/>
     </row>
-    <row r="697" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="697" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="6"/>
@@ -22037,7 +22021,7 @@
       <c r="AA697" s="1"/>
       <c r="AB697" s="1"/>
     </row>
-    <row r="698" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="698" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="6"/>
@@ -22067,7 +22051,7 @@
       <c r="AA698" s="1"/>
       <c r="AB698" s="1"/>
     </row>
-    <row r="699" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="699" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="6"/>
@@ -22097,7 +22081,7 @@
       <c r="AA699" s="1"/>
       <c r="AB699" s="1"/>
     </row>
-    <row r="700" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="700" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="6"/>
@@ -22127,7 +22111,7 @@
       <c r="AA700" s="1"/>
       <c r="AB700" s="1"/>
     </row>
-    <row r="701" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="701" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="6"/>
@@ -22157,7 +22141,7 @@
       <c r="AA701" s="1"/>
       <c r="AB701" s="1"/>
     </row>
-    <row r="702" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="702" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="6"/>
@@ -22187,7 +22171,7 @@
       <c r="AA702" s="1"/>
       <c r="AB702" s="1"/>
     </row>
-    <row r="703" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="703" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="6"/>
@@ -22217,7 +22201,7 @@
       <c r="AA703" s="1"/>
       <c r="AB703" s="1"/>
     </row>
-    <row r="704" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="704" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="6"/>
@@ -22247,7 +22231,7 @@
       <c r="AA704" s="1"/>
       <c r="AB704" s="1"/>
     </row>
-    <row r="705" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="705" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="6"/>
@@ -22277,7 +22261,7 @@
       <c r="AA705" s="1"/>
       <c r="AB705" s="1"/>
     </row>
-    <row r="706" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="706" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="6"/>
@@ -22307,7 +22291,7 @@
       <c r="AA706" s="1"/>
       <c r="AB706" s="1"/>
     </row>
-    <row r="707" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="707" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="6"/>
@@ -22337,7 +22321,7 @@
       <c r="AA707" s="1"/>
       <c r="AB707" s="1"/>
     </row>
-    <row r="708" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="708" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="6"/>
@@ -22367,7 +22351,7 @@
       <c r="AA708" s="1"/>
       <c r="AB708" s="1"/>
     </row>
-    <row r="709" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="709" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="6"/>
@@ -22397,7 +22381,7 @@
       <c r="AA709" s="1"/>
       <c r="AB709" s="1"/>
     </row>
-    <row r="710" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="710" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="6"/>
@@ -22427,7 +22411,7 @@
       <c r="AA710" s="1"/>
       <c r="AB710" s="1"/>
     </row>
-    <row r="711" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="711" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="6"/>
@@ -22457,7 +22441,7 @@
       <c r="AA711" s="1"/>
       <c r="AB711" s="1"/>
     </row>
-    <row r="712" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="712" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="6"/>
@@ -22487,7 +22471,7 @@
       <c r="AA712" s="1"/>
       <c r="AB712" s="1"/>
     </row>
-    <row r="713" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="713" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="6"/>
@@ -22517,7 +22501,7 @@
       <c r="AA713" s="1"/>
       <c r="AB713" s="1"/>
     </row>
-    <row r="714" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="714" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="6"/>
@@ -22547,7 +22531,7 @@
       <c r="AA714" s="1"/>
       <c r="AB714" s="1"/>
     </row>
-    <row r="715" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="715" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="6"/>
@@ -22577,7 +22561,7 @@
       <c r="AA715" s="1"/>
       <c r="AB715" s="1"/>
     </row>
-    <row r="716" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="716" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="6"/>
@@ -22607,7 +22591,7 @@
       <c r="AA716" s="1"/>
       <c r="AB716" s="1"/>
     </row>
-    <row r="717" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="717" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="6"/>
@@ -22637,7 +22621,7 @@
       <c r="AA717" s="1"/>
       <c r="AB717" s="1"/>
     </row>
-    <row r="718" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="718" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="6"/>
@@ -22667,7 +22651,7 @@
       <c r="AA718" s="1"/>
       <c r="AB718" s="1"/>
     </row>
-    <row r="719" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="719" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="6"/>
@@ -22697,7 +22681,7 @@
       <c r="AA719" s="1"/>
       <c r="AB719" s="1"/>
     </row>
-    <row r="720" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="720" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="6"/>
@@ -22727,7 +22711,7 @@
       <c r="AA720" s="1"/>
       <c r="AB720" s="1"/>
     </row>
-    <row r="721" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="721" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="6"/>
@@ -22757,7 +22741,7 @@
       <c r="AA721" s="1"/>
       <c r="AB721" s="1"/>
     </row>
-    <row r="722" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="722" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="6"/>
@@ -22787,7 +22771,7 @@
       <c r="AA722" s="1"/>
       <c r="AB722" s="1"/>
     </row>
-    <row r="723" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="723" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="6"/>
@@ -22817,7 +22801,7 @@
       <c r="AA723" s="1"/>
       <c r="AB723" s="1"/>
     </row>
-    <row r="724" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="724" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="6"/>
@@ -22847,7 +22831,7 @@
       <c r="AA724" s="1"/>
       <c r="AB724" s="1"/>
     </row>
-    <row r="725" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="725" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="6"/>
@@ -22877,7 +22861,7 @@
       <c r="AA725" s="1"/>
       <c r="AB725" s="1"/>
     </row>
-    <row r="726" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="726" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="6"/>
@@ -22907,7 +22891,7 @@
       <c r="AA726" s="1"/>
       <c r="AB726" s="1"/>
     </row>
-    <row r="727" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="727" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="6"/>
@@ -22937,7 +22921,7 @@
       <c r="AA727" s="1"/>
       <c r="AB727" s="1"/>
     </row>
-    <row r="728" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="728" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="6"/>
@@ -22967,7 +22951,7 @@
       <c r="AA728" s="1"/>
       <c r="AB728" s="1"/>
     </row>
-    <row r="729" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="729" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="6"/>
@@ -22997,7 +22981,7 @@
       <c r="AA729" s="1"/>
       <c r="AB729" s="1"/>
     </row>
-    <row r="730" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="730" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="6"/>
@@ -23027,7 +23011,7 @@
       <c r="AA730" s="1"/>
       <c r="AB730" s="1"/>
     </row>
-    <row r="731" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="731" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="6"/>
@@ -23057,7 +23041,7 @@
       <c r="AA731" s="1"/>
       <c r="AB731" s="1"/>
     </row>
-    <row r="732" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="732" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="6"/>
@@ -23087,7 +23071,7 @@
       <c r="AA732" s="1"/>
       <c r="AB732" s="1"/>
     </row>
-    <row r="733" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="733" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="6"/>
@@ -23117,7 +23101,7 @@
       <c r="AA733" s="1"/>
       <c r="AB733" s="1"/>
     </row>
-    <row r="734" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="734" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="6"/>
@@ -23147,7 +23131,7 @@
       <c r="AA734" s="1"/>
       <c r="AB734" s="1"/>
     </row>
-    <row r="735" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="735" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="6"/>
@@ -23177,7 +23161,7 @@
       <c r="AA735" s="1"/>
       <c r="AB735" s="1"/>
     </row>
-    <row r="736" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="736" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="6"/>
@@ -23207,7 +23191,7 @@
       <c r="AA736" s="1"/>
       <c r="AB736" s="1"/>
     </row>
-    <row r="737" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="737" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="6"/>
@@ -23237,7 +23221,7 @@
       <c r="AA737" s="1"/>
       <c r="AB737" s="1"/>
     </row>
-    <row r="738" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="738" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="6"/>
@@ -23267,7 +23251,7 @@
       <c r="AA738" s="1"/>
       <c r="AB738" s="1"/>
     </row>
-    <row r="739" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="739" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="6"/>
@@ -23297,7 +23281,7 @@
       <c r="AA739" s="1"/>
       <c r="AB739" s="1"/>
     </row>
-    <row r="740" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="740" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="6"/>
@@ -23327,7 +23311,7 @@
       <c r="AA740" s="1"/>
       <c r="AB740" s="1"/>
     </row>
-    <row r="741" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="741" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="6"/>
@@ -23357,7 +23341,7 @@
       <c r="AA741" s="1"/>
       <c r="AB741" s="1"/>
     </row>
-    <row r="742" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="742" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="6"/>
@@ -23387,7 +23371,7 @@
       <c r="AA742" s="1"/>
       <c r="AB742" s="1"/>
     </row>
-    <row r="743" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="743" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="6"/>
@@ -23417,7 +23401,7 @@
       <c r="AA743" s="1"/>
       <c r="AB743" s="1"/>
     </row>
-    <row r="744" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="744" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="6"/>
@@ -23447,7 +23431,7 @@
       <c r="AA744" s="1"/>
       <c r="AB744" s="1"/>
     </row>
-    <row r="745" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="745" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="6"/>
@@ -23477,7 +23461,7 @@
       <c r="AA745" s="1"/>
       <c r="AB745" s="1"/>
     </row>
-    <row r="746" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="746" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="6"/>
@@ -23507,7 +23491,7 @@
       <c r="AA746" s="1"/>
       <c r="AB746" s="1"/>
     </row>
-    <row r="747" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="747" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="6"/>
@@ -23537,7 +23521,7 @@
       <c r="AA747" s="1"/>
       <c r="AB747" s="1"/>
     </row>
-    <row r="748" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="748" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="6"/>
@@ -23567,7 +23551,7 @@
       <c r="AA748" s="1"/>
       <c r="AB748" s="1"/>
     </row>
-    <row r="749" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="749" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="6"/>
@@ -23597,7 +23581,7 @@
       <c r="AA749" s="1"/>
       <c r="AB749" s="1"/>
     </row>
-    <row r="750" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="750" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="6"/>
@@ -23627,7 +23611,7 @@
       <c r="AA750" s="1"/>
       <c r="AB750" s="1"/>
     </row>
-    <row r="751" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="751" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="6"/>
@@ -23657,7 +23641,7 @@
       <c r="AA751" s="1"/>
       <c r="AB751" s="1"/>
     </row>
-    <row r="752" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="752" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="6"/>
@@ -23687,7 +23671,7 @@
       <c r="AA752" s="1"/>
       <c r="AB752" s="1"/>
     </row>
-    <row r="753" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="753" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="6"/>
@@ -23717,7 +23701,7 @@
       <c r="AA753" s="1"/>
       <c r="AB753" s="1"/>
     </row>
-    <row r="754" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="754" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="6"/>
@@ -23747,7 +23731,7 @@
       <c r="AA754" s="1"/>
       <c r="AB754" s="1"/>
     </row>
-    <row r="755" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="755" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="6"/>
@@ -23777,7 +23761,7 @@
       <c r="AA755" s="1"/>
       <c r="AB755" s="1"/>
     </row>
-    <row r="756" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="756" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="6"/>
@@ -23807,7 +23791,7 @@
       <c r="AA756" s="1"/>
       <c r="AB756" s="1"/>
     </row>
-    <row r="757" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="757" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="6"/>
@@ -23837,7 +23821,7 @@
       <c r="AA757" s="1"/>
       <c r="AB757" s="1"/>
     </row>
-    <row r="758" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="758" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="6"/>
@@ -23867,7 +23851,7 @@
       <c r="AA758" s="1"/>
       <c r="AB758" s="1"/>
     </row>
-    <row r="759" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="759" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="6"/>
@@ -23897,7 +23881,7 @@
       <c r="AA759" s="1"/>
       <c r="AB759" s="1"/>
     </row>
-    <row r="760" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="760" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="6"/>
@@ -23927,7 +23911,7 @@
       <c r="AA760" s="1"/>
       <c r="AB760" s="1"/>
     </row>
-    <row r="761" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="761" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="6"/>
@@ -23957,7 +23941,7 @@
       <c r="AA761" s="1"/>
       <c r="AB761" s="1"/>
     </row>
-    <row r="762" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="762" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="6"/>
@@ -23987,7 +23971,7 @@
       <c r="AA762" s="1"/>
       <c r="AB762" s="1"/>
     </row>
-    <row r="763" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="763" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="6"/>
@@ -24017,7 +24001,7 @@
       <c r="AA763" s="1"/>
       <c r="AB763" s="1"/>
     </row>
-    <row r="764" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="764" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="6"/>
@@ -24047,7 +24031,7 @@
       <c r="AA764" s="1"/>
       <c r="AB764" s="1"/>
     </row>
-    <row r="765" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="765" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="6"/>
@@ -24077,7 +24061,7 @@
       <c r="AA765" s="1"/>
       <c r="AB765" s="1"/>
     </row>
-    <row r="766" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="766" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="6"/>
@@ -24107,7 +24091,7 @@
       <c r="AA766" s="1"/>
       <c r="AB766" s="1"/>
     </row>
-    <row r="767" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="767" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="6"/>
@@ -24137,7 +24121,7 @@
       <c r="AA767" s="1"/>
       <c r="AB767" s="1"/>
     </row>
-    <row r="768" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="768" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="6"/>
@@ -24167,7 +24151,7 @@
       <c r="AA768" s="1"/>
       <c r="AB768" s="1"/>
     </row>
-    <row r="769" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="769" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="6"/>
@@ -24197,7 +24181,7 @@
       <c r="AA769" s="1"/>
       <c r="AB769" s="1"/>
     </row>
-    <row r="770" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="770" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="6"/>
@@ -24227,7 +24211,7 @@
       <c r="AA770" s="1"/>
       <c r="AB770" s="1"/>
     </row>
-    <row r="771" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="771" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="6"/>
@@ -24257,7 +24241,7 @@
       <c r="AA771" s="1"/>
       <c r="AB771" s="1"/>
     </row>
-    <row r="772" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="772" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="6"/>
@@ -24287,7 +24271,7 @@
       <c r="AA772" s="1"/>
       <c r="AB772" s="1"/>
     </row>
-    <row r="773" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="773" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="6"/>
@@ -24317,7 +24301,7 @@
       <c r="AA773" s="1"/>
       <c r="AB773" s="1"/>
     </row>
-    <row r="774" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="774" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="6"/>
@@ -24347,7 +24331,7 @@
       <c r="AA774" s="1"/>
       <c r="AB774" s="1"/>
     </row>
-    <row r="775" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="775" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="6"/>
@@ -24377,7 +24361,7 @@
       <c r="AA775" s="1"/>
       <c r="AB775" s="1"/>
     </row>
-    <row r="776" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="776" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="6"/>
@@ -24407,7 +24391,7 @@
       <c r="AA776" s="1"/>
       <c r="AB776" s="1"/>
     </row>
-    <row r="777" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="777" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="6"/>
@@ -24437,7 +24421,7 @@
       <c r="AA777" s="1"/>
       <c r="AB777" s="1"/>
     </row>
-    <row r="778" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="778" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="6"/>
@@ -24467,7 +24451,7 @@
       <c r="AA778" s="1"/>
       <c r="AB778" s="1"/>
     </row>
-    <row r="779" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="779" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="6"/>
@@ -24497,7 +24481,7 @@
       <c r="AA779" s="1"/>
       <c r="AB779" s="1"/>
     </row>
-    <row r="780" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="780" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="6"/>
@@ -24527,7 +24511,7 @@
       <c r="AA780" s="1"/>
       <c r="AB780" s="1"/>
     </row>
-    <row r="781" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="781" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="6"/>
@@ -24557,7 +24541,7 @@
       <c r="AA781" s="1"/>
       <c r="AB781" s="1"/>
     </row>
-    <row r="782" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="782" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="6"/>
@@ -24587,7 +24571,7 @@
       <c r="AA782" s="1"/>
       <c r="AB782" s="1"/>
     </row>
-    <row r="783" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="783" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="6"/>
@@ -24617,7 +24601,7 @@
       <c r="AA783" s="1"/>
       <c r="AB783" s="1"/>
     </row>
-    <row r="784" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="784" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="6"/>
@@ -24647,7 +24631,7 @@
       <c r="AA784" s="1"/>
       <c r="AB784" s="1"/>
     </row>
-    <row r="785" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="785" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="6"/>
@@ -24677,7 +24661,7 @@
       <c r="AA785" s="1"/>
       <c r="AB785" s="1"/>
     </row>
-    <row r="786" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="786" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="6"/>
@@ -24707,7 +24691,7 @@
       <c r="AA786" s="1"/>
       <c r="AB786" s="1"/>
     </row>
-    <row r="787" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="787" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="6"/>
@@ -24737,7 +24721,7 @@
       <c r="AA787" s="1"/>
       <c r="AB787" s="1"/>
     </row>
-    <row r="788" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="788" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="6"/>
@@ -24767,7 +24751,7 @@
       <c r="AA788" s="1"/>
       <c r="AB788" s="1"/>
     </row>
-    <row r="789" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="789" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="6"/>
@@ -24797,7 +24781,7 @@
       <c r="AA789" s="1"/>
       <c r="AB789" s="1"/>
     </row>
-    <row r="790" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="790" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="6"/>
@@ -24827,7 +24811,7 @@
       <c r="AA790" s="1"/>
       <c r="AB790" s="1"/>
     </row>
-    <row r="791" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="791" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="6"/>
@@ -24857,7 +24841,7 @@
       <c r="AA791" s="1"/>
       <c r="AB791" s="1"/>
     </row>
-    <row r="792" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="792" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="6"/>
@@ -24887,7 +24871,7 @@
       <c r="AA792" s="1"/>
       <c r="AB792" s="1"/>
     </row>
-    <row r="793" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="793" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="6"/>
@@ -24917,7 +24901,7 @@
       <c r="AA793" s="1"/>
       <c r="AB793" s="1"/>
     </row>
-    <row r="794" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="794" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="6"/>
@@ -24947,7 +24931,7 @@
       <c r="AA794" s="1"/>
       <c r="AB794" s="1"/>
     </row>
-    <row r="795" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="795" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="6"/>
@@ -24977,7 +24961,7 @@
       <c r="AA795" s="1"/>
       <c r="AB795" s="1"/>
     </row>
-    <row r="796" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="796" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="6"/>
@@ -25007,7 +24991,7 @@
       <c r="AA796" s="1"/>
       <c r="AB796" s="1"/>
     </row>
-    <row r="797" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="797" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="6"/>
@@ -25037,7 +25021,7 @@
       <c r="AA797" s="1"/>
       <c r="AB797" s="1"/>
     </row>
-    <row r="798" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="798" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="6"/>
@@ -25067,7 +25051,7 @@
       <c r="AA798" s="1"/>
       <c r="AB798" s="1"/>
     </row>
-    <row r="799" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="799" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="6"/>
@@ -25097,7 +25081,7 @@
       <c r="AA799" s="1"/>
       <c r="AB799" s="1"/>
     </row>
-    <row r="800" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="800" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="6"/>
@@ -25127,7 +25111,7 @@
       <c r="AA800" s="1"/>
       <c r="AB800" s="1"/>
     </row>
-    <row r="801" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="801" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="6"/>
@@ -25157,7 +25141,7 @@
       <c r="AA801" s="1"/>
       <c r="AB801" s="1"/>
     </row>
-    <row r="802" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="802" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="6"/>
@@ -25187,7 +25171,7 @@
       <c r="AA802" s="1"/>
       <c r="AB802" s="1"/>
     </row>
-    <row r="803" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="803" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="6"/>
@@ -25217,7 +25201,7 @@
       <c r="AA803" s="1"/>
       <c r="AB803" s="1"/>
     </row>
-    <row r="804" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="804" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="6"/>
@@ -25247,7 +25231,7 @@
       <c r="AA804" s="1"/>
       <c r="AB804" s="1"/>
     </row>
-    <row r="805" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="805" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="6"/>
@@ -25277,7 +25261,7 @@
       <c r="AA805" s="1"/>
       <c r="AB805" s="1"/>
     </row>
-    <row r="806" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="806" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="6"/>
@@ -25307,7 +25291,7 @@
       <c r="AA806" s="1"/>
       <c r="AB806" s="1"/>
     </row>
-    <row r="807" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="807" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="6"/>
@@ -25337,7 +25321,7 @@
       <c r="AA807" s="1"/>
       <c r="AB807" s="1"/>
     </row>
-    <row r="808" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="808" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="6"/>
@@ -25367,7 +25351,7 @@
       <c r="AA808" s="1"/>
       <c r="AB808" s="1"/>
     </row>
-    <row r="809" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="809" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="6"/>
@@ -25397,7 +25381,7 @@
       <c r="AA809" s="1"/>
       <c r="AB809" s="1"/>
     </row>
-    <row r="810" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="810" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="6"/>
@@ -25427,7 +25411,7 @@
       <c r="AA810" s="1"/>
       <c r="AB810" s="1"/>
     </row>
-    <row r="811" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="811" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="6"/>
@@ -25457,7 +25441,7 @@
       <c r="AA811" s="1"/>
       <c r="AB811" s="1"/>
     </row>
-    <row r="812" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="812" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="6"/>
@@ -25487,7 +25471,7 @@
       <c r="AA812" s="1"/>
       <c r="AB812" s="1"/>
     </row>
-    <row r="813" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="813" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="6"/>
@@ -25517,7 +25501,7 @@
       <c r="AA813" s="1"/>
       <c r="AB813" s="1"/>
     </row>
-    <row r="814" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="814" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="6"/>
@@ -25547,7 +25531,7 @@
       <c r="AA814" s="1"/>
       <c r="AB814" s="1"/>
     </row>
-    <row r="815" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="815" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="6"/>
@@ -25577,7 +25561,7 @@
       <c r="AA815" s="1"/>
       <c r="AB815" s="1"/>
     </row>
-    <row r="816" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="816" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="6"/>
@@ -25607,7 +25591,7 @@
       <c r="AA816" s="1"/>
       <c r="AB816" s="1"/>
     </row>
-    <row r="817" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="817" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="6"/>
@@ -25637,7 +25621,7 @@
       <c r="AA817" s="1"/>
       <c r="AB817" s="1"/>
     </row>
-    <row r="818" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="818" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="6"/>
@@ -25667,7 +25651,7 @@
       <c r="AA818" s="1"/>
       <c r="AB818" s="1"/>
     </row>
-    <row r="819" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="819" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="6"/>
@@ -25697,7 +25681,7 @@
       <c r="AA819" s="1"/>
       <c r="AB819" s="1"/>
     </row>
-    <row r="820" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="820" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="6"/>
@@ -25727,7 +25711,7 @@
       <c r="AA820" s="1"/>
       <c r="AB820" s="1"/>
     </row>
-    <row r="821" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="821" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="6"/>
@@ -25757,7 +25741,7 @@
       <c r="AA821" s="1"/>
       <c r="AB821" s="1"/>
     </row>
-    <row r="822" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="822" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="6"/>
@@ -25787,7 +25771,7 @@
       <c r="AA822" s="1"/>
       <c r="AB822" s="1"/>
     </row>
-    <row r="823" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="823" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="6"/>
@@ -25817,7 +25801,7 @@
       <c r="AA823" s="1"/>
       <c r="AB823" s="1"/>
     </row>
-    <row r="824" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="824" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="6"/>
@@ -25847,7 +25831,7 @@
       <c r="AA824" s="1"/>
       <c r="AB824" s="1"/>
     </row>
-    <row r="825" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="825" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="6"/>
@@ -25877,7 +25861,7 @@
       <c r="AA825" s="1"/>
       <c r="AB825" s="1"/>
     </row>
-    <row r="826" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="826" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="6"/>
@@ -25907,7 +25891,7 @@
       <c r="AA826" s="1"/>
       <c r="AB826" s="1"/>
     </row>
-    <row r="827" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="827" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="6"/>
@@ -25937,7 +25921,7 @@
       <c r="AA827" s="1"/>
       <c r="AB827" s="1"/>
     </row>
-    <row r="828" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="828" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="6"/>
@@ -25967,7 +25951,7 @@
       <c r="AA828" s="1"/>
       <c r="AB828" s="1"/>
     </row>
-    <row r="829" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="829" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="6"/>
@@ -25997,7 +25981,7 @@
       <c r="AA829" s="1"/>
       <c r="AB829" s="1"/>
     </row>
-    <row r="830" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="830" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="6"/>
@@ -26027,7 +26011,7 @@
       <c r="AA830" s="1"/>
       <c r="AB830" s="1"/>
     </row>
-    <row r="831" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="831" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="6"/>
@@ -26057,7 +26041,7 @@
       <c r="AA831" s="1"/>
       <c r="AB831" s="1"/>
     </row>
-    <row r="832" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="832" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="6"/>
@@ -26087,7 +26071,7 @@
       <c r="AA832" s="1"/>
       <c r="AB832" s="1"/>
     </row>
-    <row r="833" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="833" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="6"/>
@@ -26117,7 +26101,7 @@
       <c r="AA833" s="1"/>
       <c r="AB833" s="1"/>
     </row>
-    <row r="834" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="834" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="6"/>
@@ -26147,7 +26131,7 @@
       <c r="AA834" s="1"/>
       <c r="AB834" s="1"/>
     </row>
-    <row r="835" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="835" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="6"/>
@@ -26177,7 +26161,7 @@
       <c r="AA835" s="1"/>
       <c r="AB835" s="1"/>
     </row>
-    <row r="836" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="836" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="6"/>
@@ -26207,7 +26191,7 @@
       <c r="AA836" s="1"/>
       <c r="AB836" s="1"/>
     </row>
-    <row r="837" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="837" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="6"/>
@@ -26237,7 +26221,7 @@
       <c r="AA837" s="1"/>
       <c r="AB837" s="1"/>
     </row>
-    <row r="838" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="838" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="6"/>
@@ -26267,7 +26251,7 @@
       <c r="AA838" s="1"/>
       <c r="AB838" s="1"/>
     </row>
-    <row r="839" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="839" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="6"/>
@@ -26297,7 +26281,7 @@
       <c r="AA839" s="1"/>
       <c r="AB839" s="1"/>
     </row>
-    <row r="840" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="840" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="6"/>
@@ -26327,7 +26311,7 @@
       <c r="AA840" s="1"/>
       <c r="AB840" s="1"/>
     </row>
-    <row r="841" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="841" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="6"/>
@@ -26357,7 +26341,7 @@
       <c r="AA841" s="1"/>
       <c r="AB841" s="1"/>
     </row>
-    <row r="842" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="842" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="6"/>
@@ -26387,7 +26371,7 @@
       <c r="AA842" s="1"/>
       <c r="AB842" s="1"/>
     </row>
-    <row r="843" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="843" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="6"/>
@@ -26417,7 +26401,7 @@
       <c r="AA843" s="1"/>
       <c r="AB843" s="1"/>
     </row>
-    <row r="844" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="844" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="6"/>
@@ -26447,7 +26431,7 @@
       <c r="AA844" s="1"/>
       <c r="AB844" s="1"/>
     </row>
-    <row r="845" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="845" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="6"/>
@@ -26477,7 +26461,7 @@
       <c r="AA845" s="1"/>
       <c r="AB845" s="1"/>
     </row>
-    <row r="846" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="846" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="6"/>
@@ -26507,7 +26491,7 @@
       <c r="AA846" s="1"/>
       <c r="AB846" s="1"/>
     </row>
-    <row r="847" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="847" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="6"/>
@@ -26537,7 +26521,7 @@
       <c r="AA847" s="1"/>
       <c r="AB847" s="1"/>
     </row>
-    <row r="848" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="848" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="6"/>
@@ -26567,7 +26551,7 @@
       <c r="AA848" s="1"/>
       <c r="AB848" s="1"/>
     </row>
-    <row r="849" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="849" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="6"/>
@@ -26597,7 +26581,7 @@
       <c r="AA849" s="1"/>
       <c r="AB849" s="1"/>
     </row>
-    <row r="850" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="850" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="6"/>
@@ -26627,7 +26611,7 @@
       <c r="AA850" s="1"/>
       <c r="AB850" s="1"/>
     </row>
-    <row r="851" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="851" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="6"/>
@@ -26657,7 +26641,7 @@
       <c r="AA851" s="1"/>
       <c r="AB851" s="1"/>
     </row>
-    <row r="852" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="852" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="6"/>
@@ -26687,7 +26671,7 @@
       <c r="AA852" s="1"/>
       <c r="AB852" s="1"/>
     </row>
-    <row r="853" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="853" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="6"/>
@@ -26717,7 +26701,7 @@
       <c r="AA853" s="1"/>
       <c r="AB853" s="1"/>
     </row>
-    <row r="854" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="854" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="6"/>
@@ -26747,7 +26731,7 @@
       <c r="AA854" s="1"/>
       <c r="AB854" s="1"/>
     </row>
-    <row r="855" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="855" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="6"/>
@@ -26777,7 +26761,7 @@
       <c r="AA855" s="1"/>
       <c r="AB855" s="1"/>
     </row>
-    <row r="856" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="856" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="6"/>
@@ -26807,7 +26791,7 @@
       <c r="AA856" s="1"/>
       <c r="AB856" s="1"/>
     </row>
-    <row r="857" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="857" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="6"/>
@@ -26837,7 +26821,7 @@
       <c r="AA857" s="1"/>
       <c r="AB857" s="1"/>
     </row>
-    <row r="858" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="858" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="6"/>
@@ -26867,7 +26851,7 @@
       <c r="AA858" s="1"/>
       <c r="AB858" s="1"/>
     </row>
-    <row r="859" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="859" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="6"/>
@@ -26897,7 +26881,7 @@
       <c r="AA859" s="1"/>
       <c r="AB859" s="1"/>
     </row>
-    <row r="860" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="860" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="6"/>
@@ -26927,7 +26911,7 @@
       <c r="AA860" s="1"/>
       <c r="AB860" s="1"/>
     </row>
-    <row r="861" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="861" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="6"/>
@@ -26957,7 +26941,7 @@
       <c r="AA861" s="1"/>
       <c r="AB861" s="1"/>
     </row>
-    <row r="862" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="862" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="6"/>
@@ -26987,7 +26971,7 @@
       <c r="AA862" s="1"/>
       <c r="AB862" s="1"/>
     </row>
-    <row r="863" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="863" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="6"/>
@@ -27017,7 +27001,7 @@
       <c r="AA863" s="1"/>
       <c r="AB863" s="1"/>
     </row>
-    <row r="864" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="864" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="6"/>
@@ -27047,7 +27031,7 @@
       <c r="AA864" s="1"/>
       <c r="AB864" s="1"/>
     </row>
-    <row r="865" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="865" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="6"/>
@@ -27077,7 +27061,7 @@
       <c r="AA865" s="1"/>
       <c r="AB865" s="1"/>
     </row>
-    <row r="866" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="866" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="6"/>
@@ -27107,7 +27091,7 @@
       <c r="AA866" s="1"/>
       <c r="AB866" s="1"/>
     </row>
-    <row r="867" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="867" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="6"/>
@@ -27137,7 +27121,7 @@
       <c r="AA867" s="1"/>
       <c r="AB867" s="1"/>
     </row>
-    <row r="868" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="868" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="6"/>
@@ -27167,7 +27151,7 @@
       <c r="AA868" s="1"/>
       <c r="AB868" s="1"/>
     </row>
-    <row r="869" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="869" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="6"/>
@@ -27197,7 +27181,7 @@
       <c r="AA869" s="1"/>
       <c r="AB869" s="1"/>
     </row>
-    <row r="870" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="870" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="6"/>
@@ -27227,7 +27211,7 @@
       <c r="AA870" s="1"/>
       <c r="AB870" s="1"/>
     </row>
-    <row r="871" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="871" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="6"/>
@@ -27257,7 +27241,7 @@
       <c r="AA871" s="1"/>
       <c r="AB871" s="1"/>
     </row>
-    <row r="872" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="872" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="6"/>
@@ -27287,7 +27271,7 @@
       <c r="AA872" s="1"/>
       <c r="AB872" s="1"/>
     </row>
-    <row r="873" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="873" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="6"/>
@@ -27317,7 +27301,7 @@
       <c r="AA873" s="1"/>
       <c r="AB873" s="1"/>
     </row>
-    <row r="874" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="874" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="6"/>
@@ -27347,7 +27331,7 @@
       <c r="AA874" s="1"/>
       <c r="AB874" s="1"/>
     </row>
-    <row r="875" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="875" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="6"/>
@@ -27377,7 +27361,7 @@
       <c r="AA875" s="1"/>
       <c r="AB875" s="1"/>
     </row>
-    <row r="876" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="876" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="6"/>
@@ -27407,7 +27391,7 @@
       <c r="AA876" s="1"/>
       <c r="AB876" s="1"/>
     </row>
-    <row r="877" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="877" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="6"/>
@@ -27437,7 +27421,7 @@
       <c r="AA877" s="1"/>
       <c r="AB877" s="1"/>
     </row>
-    <row r="878" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="878" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="6"/>
@@ -27467,7 +27451,7 @@
       <c r="AA878" s="1"/>
       <c r="AB878" s="1"/>
     </row>
-    <row r="879" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="879" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="6"/>
@@ -27497,7 +27481,7 @@
       <c r="AA879" s="1"/>
       <c r="AB879" s="1"/>
     </row>
-    <row r="880" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="880" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="6"/>
@@ -27527,7 +27511,7 @@
       <c r="AA880" s="1"/>
       <c r="AB880" s="1"/>
     </row>
-    <row r="881" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="881" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="6"/>
@@ -27557,7 +27541,7 @@
       <c r="AA881" s="1"/>
       <c r="AB881" s="1"/>
     </row>
-    <row r="882" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="882" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="6"/>
@@ -27587,7 +27571,7 @@
       <c r="AA882" s="1"/>
       <c r="AB882" s="1"/>
     </row>
-    <row r="883" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="883" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="6"/>
@@ -27617,7 +27601,7 @@
       <c r="AA883" s="1"/>
       <c r="AB883" s="1"/>
     </row>
-    <row r="884" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="884" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="6"/>
@@ -27647,7 +27631,7 @@
       <c r="AA884" s="1"/>
       <c r="AB884" s="1"/>
     </row>
-    <row r="885" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="885" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="6"/>
@@ -27677,7 +27661,7 @@
       <c r="AA885" s="1"/>
       <c r="AB885" s="1"/>
     </row>
-    <row r="886" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="886" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="6"/>
@@ -27707,7 +27691,7 @@
       <c r="AA886" s="1"/>
       <c r="AB886" s="1"/>
     </row>
-    <row r="887" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="887" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="6"/>
@@ -27737,7 +27721,7 @@
       <c r="AA887" s="1"/>
       <c r="AB887" s="1"/>
     </row>
-    <row r="888" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="888" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="6"/>
@@ -27767,7 +27751,7 @@
       <c r="AA888" s="1"/>
       <c r="AB888" s="1"/>
     </row>
-    <row r="889" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="889" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="6"/>
@@ -27797,7 +27781,7 @@
       <c r="AA889" s="1"/>
       <c r="AB889" s="1"/>
     </row>
-    <row r="890" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="890" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="6"/>
@@ -27827,7 +27811,7 @@
       <c r="AA890" s="1"/>
       <c r="AB890" s="1"/>
     </row>
-    <row r="891" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="891" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="6"/>
@@ -27857,7 +27841,7 @@
       <c r="AA891" s="1"/>
       <c r="AB891" s="1"/>
     </row>
-    <row r="892" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="892" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="6"/>
@@ -27887,7 +27871,7 @@
       <c r="AA892" s="1"/>
       <c r="AB892" s="1"/>
     </row>
-    <row r="893" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="893" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="6"/>
@@ -27917,7 +27901,7 @@
       <c r="AA893" s="1"/>
       <c r="AB893" s="1"/>
     </row>
-    <row r="894" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="894" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="6"/>
@@ -27947,7 +27931,7 @@
       <c r="AA894" s="1"/>
       <c r="AB894" s="1"/>
     </row>
-    <row r="895" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="895" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="6"/>
@@ -27977,7 +27961,7 @@
       <c r="AA895" s="1"/>
       <c r="AB895" s="1"/>
     </row>
-    <row r="896" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="896" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="6"/>
@@ -28007,7 +27991,7 @@
       <c r="AA896" s="1"/>
       <c r="AB896" s="1"/>
     </row>
-    <row r="897" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="897" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="6"/>
@@ -28037,7 +28021,7 @@
       <c r="AA897" s="1"/>
       <c r="AB897" s="1"/>
     </row>
-    <row r="898" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="898" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="6"/>
@@ -28067,7 +28051,7 @@
       <c r="AA898" s="1"/>
       <c r="AB898" s="1"/>
     </row>
-    <row r="899" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="899" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="6"/>
@@ -28097,7 +28081,7 @@
       <c r="AA899" s="1"/>
       <c r="AB899" s="1"/>
     </row>
-    <row r="900" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="900" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="6"/>
@@ -28127,7 +28111,7 @@
       <c r="AA900" s="1"/>
       <c r="AB900" s="1"/>
     </row>
-    <row r="901" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="901" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="6"/>
@@ -28157,7 +28141,7 @@
       <c r="AA901" s="1"/>
       <c r="AB901" s="1"/>
     </row>
-    <row r="902" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="902" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="6"/>
@@ -28187,7 +28171,7 @@
       <c r="AA902" s="1"/>
       <c r="AB902" s="1"/>
     </row>
-    <row r="903" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="903" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="6"/>
@@ -28217,7 +28201,7 @@
       <c r="AA903" s="1"/>
       <c r="AB903" s="1"/>
     </row>
-    <row r="904" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="904" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="6"/>
@@ -28247,7 +28231,7 @@
       <c r="AA904" s="1"/>
       <c r="AB904" s="1"/>
     </row>
-    <row r="905" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="905" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="6"/>
@@ -28277,7 +28261,7 @@
       <c r="AA905" s="1"/>
       <c r="AB905" s="1"/>
     </row>
-    <row r="906" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="906" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="6"/>
@@ -28307,7 +28291,7 @@
       <c r="AA906" s="1"/>
       <c r="AB906" s="1"/>
     </row>
-    <row r="907" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="907" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="6"/>
@@ -28337,7 +28321,7 @@
       <c r="AA907" s="1"/>
       <c r="AB907" s="1"/>
     </row>
-    <row r="908" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="908" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="6"/>
@@ -28367,7 +28351,7 @@
       <c r="AA908" s="1"/>
       <c r="AB908" s="1"/>
     </row>
-    <row r="909" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="909" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="6"/>
@@ -28397,7 +28381,7 @@
       <c r="AA909" s="1"/>
       <c r="AB909" s="1"/>
     </row>
-    <row r="910" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="910" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="6"/>
@@ -28427,7 +28411,7 @@
       <c r="AA910" s="1"/>
       <c r="AB910" s="1"/>
     </row>
-    <row r="911" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="911" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="6"/>
@@ -28457,7 +28441,7 @@
       <c r="AA911" s="1"/>
       <c r="AB911" s="1"/>
     </row>
-    <row r="912" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="912" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="6"/>
@@ -28487,7 +28471,7 @@
       <c r="AA912" s="1"/>
       <c r="AB912" s="1"/>
     </row>
-    <row r="913" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="913" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="6"/>
@@ -28517,7 +28501,7 @@
       <c r="AA913" s="1"/>
       <c r="AB913" s="1"/>
     </row>
-    <row r="914" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="914" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="6"/>
@@ -28547,7 +28531,7 @@
       <c r="AA914" s="1"/>
       <c r="AB914" s="1"/>
     </row>
-    <row r="915" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="915" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="6"/>
@@ -28577,7 +28561,7 @@
       <c r="AA915" s="1"/>
       <c r="AB915" s="1"/>
     </row>
-    <row r="916" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="916" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="6"/>
@@ -28607,7 +28591,7 @@
       <c r="AA916" s="1"/>
       <c r="AB916" s="1"/>
     </row>
-    <row r="917" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="917" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="6"/>
@@ -28637,7 +28621,7 @@
       <c r="AA917" s="1"/>
       <c r="AB917" s="1"/>
     </row>
-    <row r="918" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="918" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="6"/>
@@ -28667,7 +28651,7 @@
       <c r="AA918" s="1"/>
       <c r="AB918" s="1"/>
     </row>
-    <row r="919" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="919" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="6"/>
@@ -28697,7 +28681,7 @@
       <c r="AA919" s="1"/>
       <c r="AB919" s="1"/>
     </row>
-    <row r="920" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="920" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="6"/>
@@ -28727,7 +28711,7 @@
       <c r="AA920" s="1"/>
       <c r="AB920" s="1"/>
     </row>
-    <row r="921" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="921" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="6"/>
@@ -28757,7 +28741,7 @@
       <c r="AA921" s="1"/>
       <c r="AB921" s="1"/>
     </row>
-    <row r="922" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="922" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
       <c r="C922" s="6"/>
@@ -28787,7 +28771,7 @@
       <c r="AA922" s="1"/>
       <c r="AB922" s="1"/>
     </row>
-    <row r="923" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="923" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
       <c r="C923" s="6"/>
@@ -28817,7 +28801,7 @@
       <c r="AA923" s="1"/>
       <c r="AB923" s="1"/>
     </row>
-    <row r="924" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="924" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
       <c r="C924" s="6"/>
@@ -28847,7 +28831,7 @@
       <c r="AA924" s="1"/>
       <c r="AB924" s="1"/>
     </row>
-    <row r="925" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="925" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
       <c r="C925" s="6"/>
@@ -28877,7 +28861,7 @@
       <c r="AA925" s="1"/>
       <c r="AB925" s="1"/>
     </row>
-    <row r="926" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="926" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
       <c r="C926" s="6"/>
@@ -28907,7 +28891,7 @@
       <c r="AA926" s="1"/>
       <c r="AB926" s="1"/>
     </row>
-    <row r="927" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="927" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
       <c r="C927" s="6"/>
@@ -28937,7 +28921,7 @@
       <c r="AA927" s="1"/>
       <c r="AB927" s="1"/>
     </row>
-    <row r="928" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="928" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
       <c r="C928" s="6"/>
@@ -28967,7 +28951,7 @@
       <c r="AA928" s="1"/>
       <c r="AB928" s="1"/>
     </row>
-    <row r="929" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="929" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
       <c r="C929" s="6"/>
@@ -28997,7 +28981,7 @@
       <c r="AA929" s="1"/>
       <c r="AB929" s="1"/>
     </row>
-    <row r="930" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="930" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
       <c r="C930" s="6"/>
@@ -29027,7 +29011,7 @@
       <c r="AA930" s="1"/>
       <c r="AB930" s="1"/>
     </row>
-    <row r="931" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="931" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
       <c r="C931" s="6"/>
@@ -29057,7 +29041,7 @@
       <c r="AA931" s="1"/>
       <c r="AB931" s="1"/>
     </row>
-    <row r="932" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="932" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
       <c r="C932" s="6"/>
@@ -29087,7 +29071,7 @@
       <c r="AA932" s="1"/>
       <c r="AB932" s="1"/>
     </row>
-    <row r="933" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="933" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
       <c r="C933" s="6"/>
@@ -29117,7 +29101,7 @@
       <c r="AA933" s="1"/>
       <c r="AB933" s="1"/>
     </row>
-    <row r="934" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="934" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
       <c r="C934" s="6"/>
@@ -29147,7 +29131,7 @@
       <c r="AA934" s="1"/>
       <c r="AB934" s="1"/>
     </row>
-    <row r="935" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="935" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
       <c r="C935" s="6"/>
@@ -29177,7 +29161,7 @@
       <c r="AA935" s="1"/>
       <c r="AB935" s="1"/>
     </row>
-    <row r="936" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="936" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
       <c r="C936" s="6"/>
@@ -29207,7 +29191,7 @@
       <c r="AA936" s="1"/>
       <c r="AB936" s="1"/>
     </row>
-    <row r="937" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="937" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
       <c r="C937" s="6"/>
@@ -29237,7 +29221,7 @@
       <c r="AA937" s="1"/>
       <c r="AB937" s="1"/>
     </row>
-    <row r="938" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="938" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
       <c r="C938" s="6"/>
@@ -29267,7 +29251,7 @@
       <c r="AA938" s="1"/>
       <c r="AB938" s="1"/>
     </row>
-    <row r="939" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="939" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
       <c r="C939" s="6"/>
@@ -29297,7 +29281,7 @@
       <c r="AA939" s="1"/>
       <c r="AB939" s="1"/>
     </row>
-    <row r="940" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="940" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
       <c r="C940" s="6"/>
@@ -29327,7 +29311,7 @@
       <c r="AA940" s="1"/>
       <c r="AB940" s="1"/>
     </row>
-    <row r="941" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="941" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
       <c r="C941" s="6"/>
@@ -29357,7 +29341,7 @@
       <c r="AA941" s="1"/>
       <c r="AB941" s="1"/>
     </row>
-    <row r="942" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="942" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
       <c r="C942" s="6"/>
@@ -29387,7 +29371,7 @@
       <c r="AA942" s="1"/>
       <c r="AB942" s="1"/>
     </row>
-    <row r="943" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="943" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
       <c r="C943" s="6"/>
@@ -29417,7 +29401,7 @@
       <c r="AA943" s="1"/>
       <c r="AB943" s="1"/>
     </row>
-    <row r="944" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="944" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
       <c r="C944" s="6"/>
@@ -29447,7 +29431,7 @@
       <c r="AA944" s="1"/>
       <c r="AB944" s="1"/>
     </row>
-    <row r="945" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="945" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
       <c r="C945" s="6"/>
@@ -29477,7 +29461,7 @@
       <c r="AA945" s="1"/>
       <c r="AB945" s="1"/>
     </row>
-    <row r="946" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="946" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
       <c r="C946" s="6"/>
@@ -29507,7 +29491,7 @@
       <c r="AA946" s="1"/>
       <c r="AB946" s="1"/>
     </row>
-    <row r="947" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="947" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
       <c r="C947" s="6"/>
@@ -29537,7 +29521,7 @@
       <c r="AA947" s="1"/>
       <c r="AB947" s="1"/>
     </row>
-    <row r="948" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="948" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
       <c r="C948" s="6"/>
@@ -29567,7 +29551,7 @@
       <c r="AA948" s="1"/>
       <c r="AB948" s="1"/>
     </row>
-    <row r="949" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="949" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
       <c r="C949" s="6"/>
@@ -29597,7 +29581,7 @@
       <c r="AA949" s="1"/>
       <c r="AB949" s="1"/>
     </row>
-    <row r="950" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="950" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A950" s="1"/>
       <c r="B950" s="1"/>
       <c r="C950" s="6"/>
@@ -29627,7 +29611,7 @@
       <c r="AA950" s="1"/>
       <c r="AB950" s="1"/>
     </row>
-    <row r="951" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="951" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A951" s="1"/>
       <c r="B951" s="1"/>
       <c r="C951" s="6"/>
@@ -29657,7 +29641,7 @@
       <c r="AA951" s="1"/>
       <c r="AB951" s="1"/>
     </row>
-    <row r="952" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="952" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A952" s="1"/>
       <c r="B952" s="1"/>
       <c r="C952" s="6"/>
@@ -29687,7 +29671,7 @@
       <c r="AA952" s="1"/>
       <c r="AB952" s="1"/>
     </row>
-    <row r="953" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="953" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A953" s="1"/>
       <c r="B953" s="1"/>
       <c r="C953" s="6"/>
@@ -29717,7 +29701,7 @@
       <c r="AA953" s="1"/>
       <c r="AB953" s="1"/>
     </row>
-    <row r="954" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="954" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A954" s="1"/>
       <c r="B954" s="1"/>
       <c r="C954" s="6"/>
@@ -29747,7 +29731,7 @@
       <c r="AA954" s="1"/>
       <c r="AB954" s="1"/>
     </row>
-    <row r="955" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="955" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A955" s="1"/>
       <c r="B955" s="1"/>
       <c r="C955" s="6"/>
@@ -29777,7 +29761,7 @@
       <c r="AA955" s="1"/>
       <c r="AB955" s="1"/>
     </row>
-    <row r="956" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="956" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A956" s="1"/>
       <c r="B956" s="1"/>
       <c r="C956" s="6"/>
@@ -29807,7 +29791,7 @@
       <c r="AA956" s="1"/>
       <c r="AB956" s="1"/>
     </row>
-    <row r="957" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="957" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A957" s="1"/>
       <c r="B957" s="1"/>
       <c r="C957" s="6"/>
@@ -29837,7 +29821,7 @@
       <c r="AA957" s="1"/>
       <c r="AB957" s="1"/>
     </row>
-    <row r="958" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="958" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A958" s="1"/>
       <c r="B958" s="1"/>
       <c r="C958" s="6"/>
@@ -29867,7 +29851,7 @@
       <c r="AA958" s="1"/>
       <c r="AB958" s="1"/>
     </row>
-    <row r="959" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="959" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A959" s="1"/>
       <c r="B959" s="1"/>
       <c r="C959" s="6"/>
@@ -29897,7 +29881,7 @@
       <c r="AA959" s="1"/>
       <c r="AB959" s="1"/>
     </row>
-    <row r="960" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="960" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A960" s="1"/>
       <c r="B960" s="1"/>
       <c r="C960" s="6"/>
@@ -29927,7 +29911,7 @@
       <c r="AA960" s="1"/>
       <c r="AB960" s="1"/>
     </row>
-    <row r="961" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="961" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A961" s="1"/>
       <c r="B961" s="1"/>
       <c r="C961" s="6"/>
@@ -29957,7 +29941,7 @@
       <c r="AA961" s="1"/>
       <c r="AB961" s="1"/>
     </row>
-    <row r="962" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="962" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A962" s="1"/>
       <c r="B962" s="1"/>
       <c r="C962" s="6"/>
@@ -29987,7 +29971,7 @@
       <c r="AA962" s="1"/>
       <c r="AB962" s="1"/>
     </row>
-    <row r="963" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="963" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A963" s="1"/>
       <c r="B963" s="1"/>
       <c r="C963" s="6"/>
@@ -30017,7 +30001,7 @@
       <c r="AA963" s="1"/>
       <c r="AB963" s="1"/>
     </row>
-    <row r="964" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="964" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A964" s="1"/>
       <c r="B964" s="1"/>
       <c r="C964" s="6"/>
@@ -30047,7 +30031,7 @@
       <c r="AA964" s="1"/>
       <c r="AB964" s="1"/>
     </row>
-    <row r="965" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="965" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A965" s="1"/>
       <c r="B965" s="1"/>
       <c r="C965" s="6"/>
@@ -30077,7 +30061,7 @@
       <c r="AA965" s="1"/>
       <c r="AB965" s="1"/>
     </row>
-    <row r="966" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="966" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A966" s="1"/>
       <c r="B966" s="1"/>
       <c r="C966" s="6"/>
@@ -30107,7 +30091,7 @@
       <c r="AA966" s="1"/>
       <c r="AB966" s="1"/>
     </row>
-    <row r="967" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="967" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A967" s="1"/>
       <c r="B967" s="1"/>
       <c r="C967" s="6"/>
@@ -30137,7 +30121,7 @@
       <c r="AA967" s="1"/>
       <c r="AB967" s="1"/>
     </row>
-    <row r="968" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="968" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A968" s="1"/>
       <c r="B968" s="1"/>
       <c r="C968" s="6"/>
@@ -30167,7 +30151,7 @@
       <c r="AA968" s="1"/>
       <c r="AB968" s="1"/>
     </row>
-    <row r="969" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="969" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A969" s="1"/>
       <c r="B969" s="1"/>
       <c r="C969" s="6"/>
@@ -30197,7 +30181,7 @@
       <c r="AA969" s="1"/>
       <c r="AB969" s="1"/>
     </row>
-    <row r="970" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="970" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A970" s="1"/>
       <c r="B970" s="1"/>
       <c r="C970" s="6"/>
@@ -30227,7 +30211,7 @@
       <c r="AA970" s="1"/>
       <c r="AB970" s="1"/>
     </row>
-    <row r="971" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="971" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A971" s="1"/>
       <c r="B971" s="1"/>
       <c r="C971" s="6"/>
@@ -30257,7 +30241,7 @@
       <c r="AA971" s="1"/>
       <c r="AB971" s="1"/>
     </row>
-    <row r="972" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="972" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A972" s="1"/>
       <c r="B972" s="1"/>
       <c r="C972" s="6"/>
@@ -30287,7 +30271,7 @@
       <c r="AA972" s="1"/>
       <c r="AB972" s="1"/>
     </row>
-    <row r="973" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="973" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A973" s="1"/>
       <c r="B973" s="1"/>
       <c r="C973" s="6"/>
@@ -30317,7 +30301,7 @@
       <c r="AA973" s="1"/>
       <c r="AB973" s="1"/>
     </row>
-    <row r="974" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="974" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A974" s="1"/>
       <c r="B974" s="1"/>
       <c r="C974" s="6"/>
@@ -30347,7 +30331,7 @@
       <c r="AA974" s="1"/>
       <c r="AB974" s="1"/>
     </row>
-    <row r="975" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="975" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A975" s="1"/>
       <c r="B975" s="1"/>
       <c r="C975" s="6"/>
@@ -30377,7 +30361,7 @@
       <c r="AA975" s="1"/>
       <c r="AB975" s="1"/>
     </row>
-    <row r="976" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="976" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A976" s="1"/>
       <c r="B976" s="1"/>
       <c r="C976" s="6"/>
@@ -30407,7 +30391,7 @@
       <c r="AA976" s="1"/>
       <c r="AB976" s="1"/>
     </row>
-    <row r="977" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="977" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A977" s="1"/>
       <c r="B977" s="1"/>
       <c r="C977" s="6"/>
@@ -30437,7 +30421,7 @@
       <c r="AA977" s="1"/>
       <c r="AB977" s="1"/>
     </row>
-    <row r="978" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="978" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A978" s="1"/>
       <c r="B978" s="1"/>
       <c r="C978" s="6"/>
@@ -30467,7 +30451,7 @@
       <c r="AA978" s="1"/>
       <c r="AB978" s="1"/>
     </row>
-    <row r="979" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="979" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A979" s="1"/>
       <c r="B979" s="1"/>
       <c r="C979" s="6"/>
@@ -30497,7 +30481,7 @@
       <c r="AA979" s="1"/>
       <c r="AB979" s="1"/>
     </row>
-    <row r="980" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="980" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A980" s="1"/>
       <c r="B980" s="1"/>
       <c r="C980" s="6"/>
@@ -30527,7 +30511,7 @@
       <c r="AA980" s="1"/>
       <c r="AB980" s="1"/>
     </row>
-    <row r="981" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="981" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A981" s="1"/>
       <c r="B981" s="1"/>
       <c r="C981" s="6"/>
@@ -30557,7 +30541,7 @@
       <c r="AA981" s="1"/>
       <c r="AB981" s="1"/>
     </row>
-    <row r="982" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="982" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A982" s="1"/>
       <c r="B982" s="1"/>
       <c r="C982" s="6"/>
@@ -30587,7 +30571,7 @@
       <c r="AA982" s="1"/>
       <c r="AB982" s="1"/>
     </row>
-    <row r="983" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="983" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A983" s="1"/>
       <c r="B983" s="1"/>
       <c r="C983" s="6"/>
@@ -30617,7 +30601,7 @@
       <c r="AA983" s="1"/>
       <c r="AB983" s="1"/>
     </row>
-    <row r="984" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="984" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A984" s="1"/>
       <c r="B984" s="1"/>
       <c r="C984" s="6"/>
@@ -30647,7 +30631,7 @@
       <c r="AA984" s="1"/>
       <c r="AB984" s="1"/>
     </row>
-    <row r="985" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="985" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A985" s="1"/>
       <c r="B985" s="1"/>
       <c r="C985" s="6"/>
@@ -30677,7 +30661,7 @@
       <c r="AA985" s="1"/>
       <c r="AB985" s="1"/>
     </row>
-    <row r="986" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="986" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A986" s="1"/>
       <c r="B986" s="1"/>
       <c r="C986" s="6"/>
@@ -30707,7 +30691,7 @@
       <c r="AA986" s="1"/>
       <c r="AB986" s="1"/>
     </row>
-    <row r="987" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="987" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A987" s="1"/>
       <c r="B987" s="1"/>
       <c r="C987" s="6"/>
@@ -30737,7 +30721,7 @@
       <c r="AA987" s="1"/>
       <c r="AB987" s="1"/>
     </row>
-    <row r="988" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="988" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A988" s="1"/>
       <c r="B988" s="1"/>
       <c r="C988" s="6"/>
@@ -30767,7 +30751,7 @@
       <c r="AA988" s="1"/>
       <c r="AB988" s="1"/>
     </row>
-    <row r="989" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="989" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A989" s="1"/>
       <c r="B989" s="1"/>
       <c r="C989" s="6"/>
@@ -30797,7 +30781,7 @@
       <c r="AA989" s="1"/>
       <c r="AB989" s="1"/>
     </row>
-    <row r="990" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="990" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A990" s="1"/>
       <c r="B990" s="1"/>
       <c r="C990" s="6"/>
@@ -30827,7 +30811,7 @@
       <c r="AA990" s="1"/>
       <c r="AB990" s="1"/>
     </row>
-    <row r="991" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="991" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A991" s="1"/>
       <c r="B991" s="1"/>
       <c r="C991" s="6"/>
@@ -30857,7 +30841,7 @@
       <c r="AA991" s="1"/>
       <c r="AB991" s="1"/>
     </row>
-    <row r="992" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="992" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A992" s="1"/>
       <c r="B992" s="1"/>
       <c r="C992" s="6"/>
@@ -30887,7 +30871,7 @@
       <c r="AA992" s="1"/>
       <c r="AB992" s="1"/>
     </row>
-    <row r="993" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="993" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A993" s="1"/>
       <c r="B993" s="1"/>
       <c r="C993" s="6"/>
@@ -30917,7 +30901,7 @@
       <c r="AA993" s="1"/>
       <c r="AB993" s="1"/>
     </row>
-    <row r="994" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="994" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A994" s="1"/>
       <c r="B994" s="1"/>
       <c r="C994" s="6"/>
@@ -30947,7 +30931,7 @@
       <c r="AA994" s="1"/>
       <c r="AB994" s="1"/>
     </row>
-    <row r="995" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="995" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A995" s="1"/>
       <c r="B995" s="1"/>
       <c r="C995" s="6"/>
@@ -30977,7 +30961,7 @@
       <c r="AA995" s="1"/>
       <c r="AB995" s="1"/>
     </row>
-    <row r="996" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="996" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A996" s="1"/>
       <c r="B996" s="1"/>
       <c r="C996" s="6"/>

--- a/Email-Automation-Bot/Demo-set.xlsx
+++ b/Email-Automation-Bot/Demo-set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Softeng762\Email-Automation-Bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003B5A42-A428-44F6-B55E-2482EE49DBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C12349-794C-4E16-88A0-ECF39F20C75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="27555" windowHeight="11385" xr2:uid="{35F2FEA0-FCB0-43AF-A617-1082C65B0A32}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="70">
   <si>
     <t>Project Category</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>Human Computer Interactions 2</t>
-  </si>
-  <si>
-    <t>Garmin</t>
   </si>
   <si>
     <t>Games &amp; Education Aids 1</t>
@@ -223,91 +220,28 @@
     <t>858-2106-50</t>
   </si>
   <si>
-    <t>447-0417-33</t>
-  </si>
-  <si>
-    <t>775-3082-17</t>
-  </si>
-  <si>
-    <t>474-7865-59</t>
-  </si>
-  <si>
-    <t>907-2775-73</t>
-  </si>
-  <si>
-    <t>242-9870-85</t>
-  </si>
-  <si>
-    <t>761-2311-20</t>
-  </si>
-  <si>
-    <t>351-0106-65</t>
-  </si>
-  <si>
     <t>234-4277-82</t>
-  </si>
-  <si>
-    <t>855-4882-86</t>
-  </si>
-  <si>
-    <t>974-9797-51</t>
-  </si>
-  <si>
-    <t>163-7749-22</t>
   </si>
   <si>
     <t>893-2365-76</t>
   </si>
   <si>
-    <t>113-7707-43</t>
-  </si>
-  <si>
     <t>Roland Casey</t>
-  </si>
-  <si>
-    <t>Maria Farrell</t>
-  </si>
-  <si>
-    <t>Arnold Martin</t>
-  </si>
-  <si>
-    <t>Mike Kelly</t>
-  </si>
-  <si>
-    <t>Kellan Barrett</t>
-  </si>
-  <si>
-    <t>Byron Hawkins</t>
-  </si>
-  <si>
-    <t>Amber Alexander</t>
-  </si>
-  <si>
-    <t>Annabella Brooks</t>
   </si>
   <si>
     <t>Carl Clark</t>
   </si>
   <si>
-    <t>Alan Riley</t>
-  </si>
-  <si>
-    <t>Sam Moore</t>
-  </si>
-  <si>
-    <t>Eleanor Montgomery</t>
-  </si>
-  <si>
     <t>Luke Jones</t>
-  </si>
-  <si>
-    <t>Justin Turner</t>
   </si>
   <si>
     <t>Parrot</t>
   </si>
   <si>
-    <t>anonymous07102022@gmail.com</t>
+    <t>michellelu.lu7@gmail.com</t>
+  </si>
+  <si>
+    <t>Garmin?</t>
   </si>
 </sst>
 </file>
@@ -860,7 +794,7 @@
   <dimension ref="A1:AB996"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,31 +830,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E1" s="19"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I1" s="19"/>
       <c r="J1" s="19"/>
       <c r="K1" s="20"/>
       <c r="L1" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M1" s="19"/>
       <c r="N1" s="19"/>
       <c r="O1" s="20"/>
       <c r="P1" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="R1" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>61</v>
       </c>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -992,37 +926,37 @@
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="7" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
@@ -1048,34 +982,22 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="7" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G4" s="7"/>
-      <c r="H4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="7"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>75</v>
-      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="7"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="10"/>
@@ -1100,27 +1022,21 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="7" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G5" s="7"/>
-      <c r="H5" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>72</v>
-      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
+      <c r="M5" s="13"/>
       <c r="N5" s="7"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
@@ -1142,31 +1058,25 @@
         <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="7" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="H6" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>73</v>
-      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="M6" s="13"/>
       <c r="N6" s="7"/>
       <c r="O6" s="9"/>
       <c r="P6" s="12"/>
@@ -1185,21 +1095,15 @@
     </row>
     <row r="7" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -1225,21 +1129,15 @@
     </row>
     <row r="8" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>67</v>
-      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -1265,21 +1163,15 @@
     </row>
     <row r="9" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>68</v>
-      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -1305,21 +1197,15 @@
     </row>
     <row r="10" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -1345,10 +1231,10 @@
     </row>
     <row r="11" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="7"/>
@@ -1379,10 +1265,10 @@
     </row>
     <row r="12" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="7"/>
@@ -1413,10 +1299,10 @@
     </row>
     <row r="13" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="7"/>
@@ -1447,10 +1333,10 @@
     </row>
     <row r="14" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="7"/>
@@ -1481,10 +1367,10 @@
     </row>
     <row r="15" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="7"/>
@@ -1515,10 +1401,10 @@
     </row>
     <row r="16" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="7"/>
@@ -1549,10 +1435,10 @@
     </row>
     <row r="17" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="7"/>
@@ -1583,10 +1469,10 @@
     </row>
     <row r="18" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="7"/>
@@ -1617,10 +1503,10 @@
     </row>
     <row r="19" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="7"/>
@@ -1651,10 +1537,10 @@
     </row>
     <row r="20" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="7"/>
@@ -1685,10 +1571,10 @@
     </row>
     <row r="21" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="7"/>
@@ -1719,10 +1605,10 @@
     </row>
     <row r="22" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="7"/>
@@ -1753,10 +1639,10 @@
     </row>
     <row r="23" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="7"/>
@@ -1787,10 +1673,10 @@
     </row>
     <row r="24" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="7"/>
@@ -1821,10 +1707,10 @@
     </row>
     <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="7"/>
@@ -1855,10 +1741,10 @@
     </row>
     <row r="26" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="7"/>
@@ -1889,10 +1775,10 @@
     </row>
     <row r="27" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="7"/>
@@ -31006,11 +30892,11 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{56C605B3-0CFB-42D7-90AF-012367B6B480}"/>
-    <hyperlink ref="E4:E10" r:id="rId2" display="anonymous07102022@gmail.com" xr:uid="{B5D13755-AC5A-4266-9987-005B16111052}"/>
-    <hyperlink ref="I3" r:id="rId3" xr:uid="{9A05452B-A302-431E-9AC5-1816290FB218}"/>
-    <hyperlink ref="I4:I6" r:id="rId4" display="anonymous07102022@gmail.com" xr:uid="{F3807226-EF5D-41E8-AE17-5B77BB949212}"/>
-    <hyperlink ref="M3" r:id="rId5" xr:uid="{36FE0109-5E7E-4623-A3C0-366CBCE7E2E5}"/>
-    <hyperlink ref="M4" r:id="rId6" xr:uid="{099DA5CB-4B63-4B5A-BBC8-5A986F25B684}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{59ADCDEF-A5B4-4628-907B-E6EC47F521ED}"/>
+    <hyperlink ref="M3" r:id="rId3" xr:uid="{CA113A77-907E-4597-8E19-CA90103F5121}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{632D4EDA-2546-42F7-9045-C4F3B941323E}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{0E52BA5A-C3C1-4DA3-B691-162A42A6C9E4}"/>
+    <hyperlink ref="E6" r:id="rId6" xr:uid="{54EFCA8D-ED58-4407-AF18-9274DA65E70F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>

--- a/Email-Automation-Bot/Demo-set.xlsx
+++ b/Email-Automation-Bot/Demo-set.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Softeng762\Email-Automation-Bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SE762-IS300-Project\Email-Automation-Bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C12349-794C-4E16-88A0-ECF39F20C75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F934A745-5168-40E5-B083-59D01DDFAA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="27555" windowHeight="11385" xr2:uid="{35F2FEA0-FCB0-43AF-A617-1082C65B0A32}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{35F2FEA0-FCB0-43AF-A617-1082C65B0A32}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
   <si>
     <t>Project Category</t>
   </si>
@@ -241,7 +241,22 @@
     <t>michellelu.lu7@gmail.com</t>
   </si>
   <si>
-    <t>Garmin?</t>
+    <t>Olivia Pooley</t>
+  </si>
+  <si>
+    <t>Richard Kingston</t>
+  </si>
+  <si>
+    <t>Garmin</t>
+  </si>
+  <si>
+    <t>Aria ling</t>
+  </si>
+  <si>
+    <t>Omar Mustafa</t>
+  </si>
+  <si>
+    <t>234-4277-83</t>
   </si>
 </sst>
 </file>
@@ -794,32 +809,32 @@
   <dimension ref="A1:AB996"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="12.140625" style="2"/>
+    <col min="17" max="17" width="14.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="12.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -867,7 +882,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -921,7 +936,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -973,7 +988,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -982,7 +997,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>68</v>
@@ -991,9 +1006,15 @@
         <v>61</v>
       </c>
       <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="13"/>
@@ -1013,7 +1034,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -1022,7 +1043,7 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>68</v>
@@ -1053,16 +1074,16 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="7" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>68</v>
@@ -1093,7 +1114,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1127,7 +1148,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
@@ -1161,7 +1182,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
@@ -1195,7 +1216,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -1229,7 +1250,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
@@ -1263,7 +1284,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
@@ -1297,7 +1318,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
@@ -1331,7 +1352,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
@@ -1365,7 +1386,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
@@ -1399,7 +1420,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
         <v>30</v>
       </c>
@@ -1433,7 +1454,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
@@ -1467,7 +1488,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
         <v>34</v>
       </c>
@@ -1501,7 +1522,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
         <v>36</v>
       </c>
@@ -1535,7 +1556,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
         <v>38</v>
       </c>
@@ -1569,7 +1590,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
         <v>40</v>
       </c>
@@ -1603,7 +1624,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
         <v>42</v>
       </c>
@@ -1637,7 +1658,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
         <v>44</v>
       </c>
@@ -1671,7 +1692,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
         <v>46</v>
       </c>
@@ -1705,7 +1726,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
         <v>48</v>
       </c>
@@ -1739,7 +1760,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
         <v>50</v>
       </c>
@@ -1773,7 +1794,7 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
         <v>52</v>
       </c>
@@ -1807,7 +1828,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:28" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="6"/>
@@ -1837,7 +1858,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="6"/>
@@ -1867,7 +1888,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="6"/>
@@ -1897,7 +1918,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="6"/>
@@ -1927,7 +1948,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="6"/>
@@ -1957,7 +1978,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="6"/>
@@ -1987,7 +2008,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="6"/>
@@ -2017,7 +2038,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="6"/>
@@ -2047,7 +2068,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="6"/>
@@ -2077,7 +2098,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="6"/>
@@ -2107,7 +2128,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="6"/>
@@ -2137,7 +2158,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="6"/>
@@ -2167,7 +2188,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="6"/>
@@ -2197,7 +2218,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="6"/>
@@ -2227,7 +2248,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="6"/>
@@ -2257,7 +2278,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="6"/>
@@ -2287,7 +2308,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="6"/>
@@ -2317,7 +2338,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="6"/>
@@ -2347,7 +2368,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="6"/>
@@ -2377,7 +2398,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="6"/>
@@ -2407,7 +2428,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="6"/>
@@ -2437,7 +2458,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="6"/>
@@ -2467,7 +2488,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="6"/>
@@ -2497,7 +2518,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="6"/>
@@ -2527,7 +2548,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="6"/>
@@ -2557,7 +2578,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="6"/>
@@ -2587,7 +2608,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="6"/>
@@ -2617,7 +2638,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="6"/>
@@ -2647,7 +2668,7 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
     </row>
-    <row r="56" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="6"/>
@@ -2677,7 +2698,7 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="6"/>
@@ -2707,7 +2728,7 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="6"/>
@@ -2737,7 +2758,7 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="6"/>
@@ -2767,7 +2788,7 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="6"/>
@@ -2797,7 +2818,7 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="6"/>
@@ -2827,7 +2848,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="6"/>
@@ -2857,7 +2878,7 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="6"/>
@@ -2887,7 +2908,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="6"/>
@@ -2917,7 +2938,7 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="6"/>
@@ -2947,7 +2968,7 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="6"/>
@@ -2977,7 +2998,7 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
-    <row r="67" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="6"/>
@@ -3007,7 +3028,7 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
     </row>
-    <row r="68" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="6"/>
@@ -3037,7 +3058,7 @@
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
     </row>
-    <row r="69" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="6"/>
@@ -3067,7 +3088,7 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
     </row>
-    <row r="70" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="6"/>
@@ -3097,7 +3118,7 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
     </row>
-    <row r="71" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="6"/>
@@ -3127,7 +3148,7 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
     </row>
-    <row r="72" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="6"/>
@@ -3157,7 +3178,7 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
     </row>
-    <row r="73" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="6"/>
@@ -3187,7 +3208,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
     </row>
-    <row r="74" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="6"/>
@@ -3217,7 +3238,7 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
     </row>
-    <row r="75" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="6"/>
@@ -3247,7 +3268,7 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="6"/>
@@ -3277,7 +3298,7 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
     </row>
-    <row r="77" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="6"/>
@@ -3307,7 +3328,7 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
     </row>
-    <row r="78" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="6"/>
@@ -3337,7 +3358,7 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
     </row>
-    <row r="79" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="6"/>
@@ -3367,7 +3388,7 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
     </row>
-    <row r="80" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="6"/>
@@ -3397,7 +3418,7 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
     </row>
-    <row r="81" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="6"/>
@@ -3427,7 +3448,7 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
     </row>
-    <row r="82" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="6"/>
@@ -3457,7 +3478,7 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
     </row>
-    <row r="83" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="6"/>
@@ -3487,7 +3508,7 @@
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
     </row>
-    <row r="84" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="6"/>
@@ -3517,7 +3538,7 @@
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
     </row>
-    <row r="85" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="6"/>
@@ -3547,7 +3568,7 @@
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
     </row>
-    <row r="86" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="6"/>
@@ -3577,7 +3598,7 @@
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
     </row>
-    <row r="87" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="6"/>
@@ -3607,7 +3628,7 @@
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
     </row>
-    <row r="88" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="6"/>
@@ -3637,7 +3658,7 @@
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
     </row>
-    <row r="89" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="6"/>
@@ -3667,7 +3688,7 @@
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
     </row>
-    <row r="90" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="6"/>
@@ -3697,7 +3718,7 @@
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
     </row>
-    <row r="91" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="6"/>
@@ -3727,7 +3748,7 @@
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
     </row>
-    <row r="92" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="6"/>
@@ -3757,7 +3778,7 @@
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
     </row>
-    <row r="93" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="6"/>
@@ -3787,7 +3808,7 @@
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
     </row>
-    <row r="94" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="6"/>
@@ -3817,7 +3838,7 @@
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
     </row>
-    <row r="95" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="6"/>
@@ -3847,7 +3868,7 @@
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
     </row>
-    <row r="96" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="6"/>
@@ -3877,7 +3898,7 @@
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
     </row>
-    <row r="97" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="6"/>
@@ -3907,7 +3928,7 @@
       <c r="AA97" s="1"/>
       <c r="AB97" s="1"/>
     </row>
-    <row r="98" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="6"/>
@@ -3937,7 +3958,7 @@
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
     </row>
-    <row r="99" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="6"/>
@@ -3967,7 +3988,7 @@
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
     </row>
-    <row r="100" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="6"/>
@@ -3997,7 +4018,7 @@
       <c r="AA100" s="1"/>
       <c r="AB100" s="1"/>
     </row>
-    <row r="101" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="6"/>
@@ -4027,7 +4048,7 @@
       <c r="AA101" s="1"/>
       <c r="AB101" s="1"/>
     </row>
-    <row r="102" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="6"/>
@@ -4057,7 +4078,7 @@
       <c r="AA102" s="1"/>
       <c r="AB102" s="1"/>
     </row>
-    <row r="103" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="6"/>
@@ -4087,7 +4108,7 @@
       <c r="AA103" s="1"/>
       <c r="AB103" s="1"/>
     </row>
-    <row r="104" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="6"/>
@@ -4117,7 +4138,7 @@
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
     </row>
-    <row r="105" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="6"/>
@@ -4147,7 +4168,7 @@
       <c r="AA105" s="1"/>
       <c r="AB105" s="1"/>
     </row>
-    <row r="106" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="6"/>
@@ -4177,7 +4198,7 @@
       <c r="AA106" s="1"/>
       <c r="AB106" s="1"/>
     </row>
-    <row r="107" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="6"/>
@@ -4207,7 +4228,7 @@
       <c r="AA107" s="1"/>
       <c r="AB107" s="1"/>
     </row>
-    <row r="108" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="6"/>
@@ -4237,7 +4258,7 @@
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
     </row>
-    <row r="109" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="6"/>
@@ -4267,7 +4288,7 @@
       <c r="AA109" s="1"/>
       <c r="AB109" s="1"/>
     </row>
-    <row r="110" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="6"/>
@@ -4297,7 +4318,7 @@
       <c r="AA110" s="1"/>
       <c r="AB110" s="1"/>
     </row>
-    <row r="111" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="6"/>
@@ -4327,7 +4348,7 @@
       <c r="AA111" s="1"/>
       <c r="AB111" s="1"/>
     </row>
-    <row r="112" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="6"/>
@@ -4357,7 +4378,7 @@
       <c r="AA112" s="1"/>
       <c r="AB112" s="1"/>
     </row>
-    <row r="113" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="6"/>
@@ -4387,7 +4408,7 @@
       <c r="AA113" s="1"/>
       <c r="AB113" s="1"/>
     </row>
-    <row r="114" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="6"/>
@@ -4417,7 +4438,7 @@
       <c r="AA114" s="1"/>
       <c r="AB114" s="1"/>
     </row>
-    <row r="115" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="6"/>
@@ -4447,7 +4468,7 @@
       <c r="AA115" s="1"/>
       <c r="AB115" s="1"/>
     </row>
-    <row r="116" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="6"/>
@@ -4477,7 +4498,7 @@
       <c r="AA116" s="1"/>
       <c r="AB116" s="1"/>
     </row>
-    <row r="117" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="6"/>
@@ -4507,7 +4528,7 @@
       <c r="AA117" s="1"/>
       <c r="AB117" s="1"/>
     </row>
-    <row r="118" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="6"/>
@@ -4537,7 +4558,7 @@
       <c r="AA118" s="1"/>
       <c r="AB118" s="1"/>
     </row>
-    <row r="119" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="6"/>
@@ -4567,7 +4588,7 @@
       <c r="AA119" s="1"/>
       <c r="AB119" s="1"/>
     </row>
-    <row r="120" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="6"/>
@@ -4597,7 +4618,7 @@
       <c r="AA120" s="1"/>
       <c r="AB120" s="1"/>
     </row>
-    <row r="121" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="6"/>
@@ -4627,7 +4648,7 @@
       <c r="AA121" s="1"/>
       <c r="AB121" s="1"/>
     </row>
-    <row r="122" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="6"/>
@@ -4657,7 +4678,7 @@
       <c r="AA122" s="1"/>
       <c r="AB122" s="1"/>
     </row>
-    <row r="123" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="6"/>
@@ -4687,7 +4708,7 @@
       <c r="AA123" s="1"/>
       <c r="AB123" s="1"/>
     </row>
-    <row r="124" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="6"/>
@@ -4717,7 +4738,7 @@
       <c r="AA124" s="1"/>
       <c r="AB124" s="1"/>
     </row>
-    <row r="125" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="6"/>
@@ -4747,7 +4768,7 @@
       <c r="AA125" s="1"/>
       <c r="AB125" s="1"/>
     </row>
-    <row r="126" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="6"/>
@@ -4777,7 +4798,7 @@
       <c r="AA126" s="1"/>
       <c r="AB126" s="1"/>
     </row>
-    <row r="127" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="6"/>
@@ -4807,7 +4828,7 @@
       <c r="AA127" s="1"/>
       <c r="AB127" s="1"/>
     </row>
-    <row r="128" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="6"/>
@@ -4837,7 +4858,7 @@
       <c r="AA128" s="1"/>
       <c r="AB128" s="1"/>
     </row>
-    <row r="129" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="6"/>
@@ -4867,7 +4888,7 @@
       <c r="AA129" s="1"/>
       <c r="AB129" s="1"/>
     </row>
-    <row r="130" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="6"/>
@@ -4897,7 +4918,7 @@
       <c r="AA130" s="1"/>
       <c r="AB130" s="1"/>
     </row>
-    <row r="131" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="6"/>
@@ -4927,7 +4948,7 @@
       <c r="AA131" s="1"/>
       <c r="AB131" s="1"/>
     </row>
-    <row r="132" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="6"/>
@@ -4957,7 +4978,7 @@
       <c r="AA132" s="1"/>
       <c r="AB132" s="1"/>
     </row>
-    <row r="133" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="6"/>
@@ -4987,7 +5008,7 @@
       <c r="AA133" s="1"/>
       <c r="AB133" s="1"/>
     </row>
-    <row r="134" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="6"/>
@@ -5017,7 +5038,7 @@
       <c r="AA134" s="1"/>
       <c r="AB134" s="1"/>
     </row>
-    <row r="135" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="6"/>
@@ -5047,7 +5068,7 @@
       <c r="AA135" s="1"/>
       <c r="AB135" s="1"/>
     </row>
-    <row r="136" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="6"/>
@@ -5077,7 +5098,7 @@
       <c r="AA136" s="1"/>
       <c r="AB136" s="1"/>
     </row>
-    <row r="137" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="6"/>
@@ -5107,7 +5128,7 @@
       <c r="AA137" s="1"/>
       <c r="AB137" s="1"/>
     </row>
-    <row r="138" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="6"/>
@@ -5137,7 +5158,7 @@
       <c r="AA138" s="1"/>
       <c r="AB138" s="1"/>
     </row>
-    <row r="139" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="6"/>
@@ -5167,7 +5188,7 @@
       <c r="AA139" s="1"/>
       <c r="AB139" s="1"/>
     </row>
-    <row r="140" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="6"/>
@@ -5197,7 +5218,7 @@
       <c r="AA140" s="1"/>
       <c r="AB140" s="1"/>
     </row>
-    <row r="141" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="6"/>
@@ -5227,7 +5248,7 @@
       <c r="AA141" s="1"/>
       <c r="AB141" s="1"/>
     </row>
-    <row r="142" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="6"/>
@@ -5257,7 +5278,7 @@
       <c r="AA142" s="1"/>
       <c r="AB142" s="1"/>
     </row>
-    <row r="143" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="6"/>
@@ -5287,7 +5308,7 @@
       <c r="AA143" s="1"/>
       <c r="AB143" s="1"/>
     </row>
-    <row r="144" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="6"/>
@@ -5317,7 +5338,7 @@
       <c r="AA144" s="1"/>
       <c r="AB144" s="1"/>
     </row>
-    <row r="145" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="6"/>
@@ -5347,7 +5368,7 @@
       <c r="AA145" s="1"/>
       <c r="AB145" s="1"/>
     </row>
-    <row r="146" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="6"/>
@@ -5377,7 +5398,7 @@
       <c r="AA146" s="1"/>
       <c r="AB146" s="1"/>
     </row>
-    <row r="147" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="6"/>
@@ -5407,7 +5428,7 @@
       <c r="AA147" s="1"/>
       <c r="AB147" s="1"/>
     </row>
-    <row r="148" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="6"/>
@@ -5437,7 +5458,7 @@
       <c r="AA148" s="1"/>
       <c r="AB148" s="1"/>
     </row>
-    <row r="149" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="6"/>
@@ -5467,7 +5488,7 @@
       <c r="AA149" s="1"/>
       <c r="AB149" s="1"/>
     </row>
-    <row r="150" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="6"/>
@@ -5497,7 +5518,7 @@
       <c r="AA150" s="1"/>
       <c r="AB150" s="1"/>
     </row>
-    <row r="151" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="6"/>
@@ -5527,7 +5548,7 @@
       <c r="AA151" s="1"/>
       <c r="AB151" s="1"/>
     </row>
-    <row r="152" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="6"/>
@@ -5557,7 +5578,7 @@
       <c r="AA152" s="1"/>
       <c r="AB152" s="1"/>
     </row>
-    <row r="153" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="6"/>
@@ -5587,7 +5608,7 @@
       <c r="AA153" s="1"/>
       <c r="AB153" s="1"/>
     </row>
-    <row r="154" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="6"/>
@@ -5617,7 +5638,7 @@
       <c r="AA154" s="1"/>
       <c r="AB154" s="1"/>
     </row>
-    <row r="155" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="6"/>
@@ -5647,7 +5668,7 @@
       <c r="AA155" s="1"/>
       <c r="AB155" s="1"/>
     </row>
-    <row r="156" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="6"/>
@@ -5677,7 +5698,7 @@
       <c r="AA156" s="1"/>
       <c r="AB156" s="1"/>
     </row>
-    <row r="157" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="6"/>
@@ -5707,7 +5728,7 @@
       <c r="AA157" s="1"/>
       <c r="AB157" s="1"/>
     </row>
-    <row r="158" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="6"/>
@@ -5737,7 +5758,7 @@
       <c r="AA158" s="1"/>
       <c r="AB158" s="1"/>
     </row>
-    <row r="159" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="6"/>
@@ -5767,7 +5788,7 @@
       <c r="AA159" s="1"/>
       <c r="AB159" s="1"/>
     </row>
-    <row r="160" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="6"/>
@@ -5797,7 +5818,7 @@
       <c r="AA160" s="1"/>
       <c r="AB160" s="1"/>
     </row>
-    <row r="161" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="6"/>
@@ -5827,7 +5848,7 @@
       <c r="AA161" s="1"/>
       <c r="AB161" s="1"/>
     </row>
-    <row r="162" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="6"/>
@@ -5857,7 +5878,7 @@
       <c r="AA162" s="1"/>
       <c r="AB162" s="1"/>
     </row>
-    <row r="163" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="6"/>
@@ -5887,7 +5908,7 @@
       <c r="AA163" s="1"/>
       <c r="AB163" s="1"/>
     </row>
-    <row r="164" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="6"/>
@@ -5917,7 +5938,7 @@
       <c r="AA164" s="1"/>
       <c r="AB164" s="1"/>
     </row>
-    <row r="165" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="6"/>
@@ -5947,7 +5968,7 @@
       <c r="AA165" s="1"/>
       <c r="AB165" s="1"/>
     </row>
-    <row r="166" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="6"/>
@@ -5977,7 +5998,7 @@
       <c r="AA166" s="1"/>
       <c r="AB166" s="1"/>
     </row>
-    <row r="167" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="6"/>
@@ -6007,7 +6028,7 @@
       <c r="AA167" s="1"/>
       <c r="AB167" s="1"/>
     </row>
-    <row r="168" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="6"/>
@@ -6037,7 +6058,7 @@
       <c r="AA168" s="1"/>
       <c r="AB168" s="1"/>
     </row>
-    <row r="169" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="6"/>
@@ -6067,7 +6088,7 @@
       <c r="AA169" s="1"/>
       <c r="AB169" s="1"/>
     </row>
-    <row r="170" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="6"/>
@@ -6097,7 +6118,7 @@
       <c r="AA170" s="1"/>
       <c r="AB170" s="1"/>
     </row>
-    <row r="171" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="6"/>
@@ -6127,7 +6148,7 @@
       <c r="AA171" s="1"/>
       <c r="AB171" s="1"/>
     </row>
-    <row r="172" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="6"/>
@@ -6157,7 +6178,7 @@
       <c r="AA172" s="1"/>
       <c r="AB172" s="1"/>
     </row>
-    <row r="173" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="6"/>
@@ -6187,7 +6208,7 @@
       <c r="AA173" s="1"/>
       <c r="AB173" s="1"/>
     </row>
-    <row r="174" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="6"/>
@@ -6217,7 +6238,7 @@
       <c r="AA174" s="1"/>
       <c r="AB174" s="1"/>
     </row>
-    <row r="175" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="6"/>
@@ -6247,7 +6268,7 @@
       <c r="AA175" s="1"/>
       <c r="AB175" s="1"/>
     </row>
-    <row r="176" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="6"/>
@@ -6277,7 +6298,7 @@
       <c r="AA176" s="1"/>
       <c r="AB176" s="1"/>
     </row>
-    <row r="177" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="6"/>
@@ -6307,7 +6328,7 @@
       <c r="AA177" s="1"/>
       <c r="AB177" s="1"/>
     </row>
-    <row r="178" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="6"/>
@@ -6337,7 +6358,7 @@
       <c r="AA178" s="1"/>
       <c r="AB178" s="1"/>
     </row>
-    <row r="179" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="6"/>
@@ -6367,7 +6388,7 @@
       <c r="AA179" s="1"/>
       <c r="AB179" s="1"/>
     </row>
-    <row r="180" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="6"/>
@@ -6397,7 +6418,7 @@
       <c r="AA180" s="1"/>
       <c r="AB180" s="1"/>
     </row>
-    <row r="181" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="6"/>
@@ -6427,7 +6448,7 @@
       <c r="AA181" s="1"/>
       <c r="AB181" s="1"/>
     </row>
-    <row r="182" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="6"/>
@@ -6457,7 +6478,7 @@
       <c r="AA182" s="1"/>
       <c r="AB182" s="1"/>
     </row>
-    <row r="183" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="6"/>
@@ -6487,7 +6508,7 @@
       <c r="AA183" s="1"/>
       <c r="AB183" s="1"/>
     </row>
-    <row r="184" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="6"/>
@@ -6517,7 +6538,7 @@
       <c r="AA184" s="1"/>
       <c r="AB184" s="1"/>
     </row>
-    <row r="185" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="6"/>
@@ -6547,7 +6568,7 @@
       <c r="AA185" s="1"/>
       <c r="AB185" s="1"/>
     </row>
-    <row r="186" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="6"/>
@@ -6577,7 +6598,7 @@
       <c r="AA186" s="1"/>
       <c r="AB186" s="1"/>
     </row>
-    <row r="187" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="6"/>
@@ -6607,7 +6628,7 @@
       <c r="AA187" s="1"/>
       <c r="AB187" s="1"/>
     </row>
-    <row r="188" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="6"/>
@@ -6637,7 +6658,7 @@
       <c r="AA188" s="1"/>
       <c r="AB188" s="1"/>
     </row>
-    <row r="189" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="6"/>
@@ -6667,7 +6688,7 @@
       <c r="AA189" s="1"/>
       <c r="AB189" s="1"/>
     </row>
-    <row r="190" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="6"/>
@@ -6697,7 +6718,7 @@
       <c r="AA190" s="1"/>
       <c r="AB190" s="1"/>
     </row>
-    <row r="191" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="6"/>
@@ -6727,7 +6748,7 @@
       <c r="AA191" s="1"/>
       <c r="AB191" s="1"/>
     </row>
-    <row r="192" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="6"/>
@@ -6757,7 +6778,7 @@
       <c r="AA192" s="1"/>
       <c r="AB192" s="1"/>
     </row>
-    <row r="193" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="6"/>
@@ -6787,7 +6808,7 @@
       <c r="AA193" s="1"/>
       <c r="AB193" s="1"/>
     </row>
-    <row r="194" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="6"/>
@@ -6817,7 +6838,7 @@
       <c r="AA194" s="1"/>
       <c r="AB194" s="1"/>
     </row>
-    <row r="195" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="6"/>
@@ -6847,7 +6868,7 @@
       <c r="AA195" s="1"/>
       <c r="AB195" s="1"/>
     </row>
-    <row r="196" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="6"/>
@@ -6877,7 +6898,7 @@
       <c r="AA196" s="1"/>
       <c r="AB196" s="1"/>
     </row>
-    <row r="197" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="6"/>
@@ -6907,7 +6928,7 @@
       <c r="AA197" s="1"/>
       <c r="AB197" s="1"/>
     </row>
-    <row r="198" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="6"/>
@@ -6937,7 +6958,7 @@
       <c r="AA198" s="1"/>
       <c r="AB198" s="1"/>
     </row>
-    <row r="199" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="6"/>
@@ -6967,7 +6988,7 @@
       <c r="AA199" s="1"/>
       <c r="AB199" s="1"/>
     </row>
-    <row r="200" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="6"/>
@@ -6997,7 +7018,7 @@
       <c r="AA200" s="1"/>
       <c r="AB200" s="1"/>
     </row>
-    <row r="201" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="6"/>
@@ -7027,7 +7048,7 @@
       <c r="AA201" s="1"/>
       <c r="AB201" s="1"/>
     </row>
-    <row r="202" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="6"/>
@@ -7057,7 +7078,7 @@
       <c r="AA202" s="1"/>
       <c r="AB202" s="1"/>
     </row>
-    <row r="203" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="6"/>
@@ -7087,7 +7108,7 @@
       <c r="AA203" s="1"/>
       <c r="AB203" s="1"/>
     </row>
-    <row r="204" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="6"/>
@@ -7117,7 +7138,7 @@
       <c r="AA204" s="1"/>
       <c r="AB204" s="1"/>
     </row>
-    <row r="205" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="6"/>
@@ -7147,7 +7168,7 @@
       <c r="AA205" s="1"/>
       <c r="AB205" s="1"/>
     </row>
-    <row r="206" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="6"/>
@@ -7177,7 +7198,7 @@
       <c r="AA206" s="1"/>
       <c r="AB206" s="1"/>
     </row>
-    <row r="207" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="6"/>
@@ -7207,7 +7228,7 @@
       <c r="AA207" s="1"/>
       <c r="AB207" s="1"/>
     </row>
-    <row r="208" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="6"/>
@@ -7237,7 +7258,7 @@
       <c r="AA208" s="1"/>
       <c r="AB208" s="1"/>
     </row>
-    <row r="209" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="6"/>
@@ -7267,7 +7288,7 @@
       <c r="AA209" s="1"/>
       <c r="AB209" s="1"/>
     </row>
-    <row r="210" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="6"/>
@@ -7297,7 +7318,7 @@
       <c r="AA210" s="1"/>
       <c r="AB210" s="1"/>
     </row>
-    <row r="211" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="6"/>
@@ -7327,7 +7348,7 @@
       <c r="AA211" s="1"/>
       <c r="AB211" s="1"/>
     </row>
-    <row r="212" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="6"/>
@@ -7357,7 +7378,7 @@
       <c r="AA212" s="1"/>
       <c r="AB212" s="1"/>
     </row>
-    <row r="213" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="6"/>
@@ -7387,7 +7408,7 @@
       <c r="AA213" s="1"/>
       <c r="AB213" s="1"/>
     </row>
-    <row r="214" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="6"/>
@@ -7417,7 +7438,7 @@
       <c r="AA214" s="1"/>
       <c r="AB214" s="1"/>
     </row>
-    <row r="215" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="6"/>
@@ -7447,7 +7468,7 @@
       <c r="AA215" s="1"/>
       <c r="AB215" s="1"/>
     </row>
-    <row r="216" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="6"/>
@@ -7477,7 +7498,7 @@
       <c r="AA216" s="1"/>
       <c r="AB216" s="1"/>
     </row>
-    <row r="217" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="6"/>
@@ -7507,7 +7528,7 @@
       <c r="AA217" s="1"/>
       <c r="AB217" s="1"/>
     </row>
-    <row r="218" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="6"/>
@@ -7537,7 +7558,7 @@
       <c r="AA218" s="1"/>
       <c r="AB218" s="1"/>
     </row>
-    <row r="219" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="6"/>
@@ -7567,7 +7588,7 @@
       <c r="AA219" s="1"/>
       <c r="AB219" s="1"/>
     </row>
-    <row r="220" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="6"/>
@@ -7597,7 +7618,7 @@
       <c r="AA220" s="1"/>
       <c r="AB220" s="1"/>
     </row>
-    <row r="221" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="6"/>
@@ -7627,7 +7648,7 @@
       <c r="AA221" s="1"/>
       <c r="AB221" s="1"/>
     </row>
-    <row r="222" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="6"/>
@@ -7657,7 +7678,7 @@
       <c r="AA222" s="1"/>
       <c r="AB222" s="1"/>
     </row>
-    <row r="223" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="6"/>
@@ -7687,7 +7708,7 @@
       <c r="AA223" s="1"/>
       <c r="AB223" s="1"/>
     </row>
-    <row r="224" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="6"/>
@@ -7717,7 +7738,7 @@
       <c r="AA224" s="1"/>
       <c r="AB224" s="1"/>
     </row>
-    <row r="225" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="6"/>
@@ -7747,7 +7768,7 @@
       <c r="AA225" s="1"/>
       <c r="AB225" s="1"/>
     </row>
-    <row r="226" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="6"/>
@@ -7777,7 +7798,7 @@
       <c r="AA226" s="1"/>
       <c r="AB226" s="1"/>
     </row>
-    <row r="227" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="6"/>
@@ -7807,7 +7828,7 @@
       <c r="AA227" s="1"/>
       <c r="AB227" s="1"/>
     </row>
-    <row r="228" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="6"/>
@@ -7837,7 +7858,7 @@
       <c r="AA228" s="1"/>
       <c r="AB228" s="1"/>
     </row>
-    <row r="229" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="6"/>
@@ -7867,7 +7888,7 @@
       <c r="AA229" s="1"/>
       <c r="AB229" s="1"/>
     </row>
-    <row r="230" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="6"/>
@@ -7897,7 +7918,7 @@
       <c r="AA230" s="1"/>
       <c r="AB230" s="1"/>
     </row>
-    <row r="231" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="6"/>
@@ -7927,7 +7948,7 @@
       <c r="AA231" s="1"/>
       <c r="AB231" s="1"/>
     </row>
-    <row r="232" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="6"/>
@@ -7957,7 +7978,7 @@
       <c r="AA232" s="1"/>
       <c r="AB232" s="1"/>
     </row>
-    <row r="233" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="6"/>
@@ -7987,7 +8008,7 @@
       <c r="AA233" s="1"/>
       <c r="AB233" s="1"/>
     </row>
-    <row r="234" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="6"/>
@@ -8017,7 +8038,7 @@
       <c r="AA234" s="1"/>
       <c r="AB234" s="1"/>
     </row>
-    <row r="235" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="6"/>
@@ -8047,7 +8068,7 @@
       <c r="AA235" s="1"/>
       <c r="AB235" s="1"/>
     </row>
-    <row r="236" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="6"/>
@@ -8077,7 +8098,7 @@
       <c r="AA236" s="1"/>
       <c r="AB236" s="1"/>
     </row>
-    <row r="237" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="6"/>
@@ -8107,7 +8128,7 @@
       <c r="AA237" s="1"/>
       <c r="AB237" s="1"/>
     </row>
-    <row r="238" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="6"/>
@@ -8137,7 +8158,7 @@
       <c r="AA238" s="1"/>
       <c r="AB238" s="1"/>
     </row>
-    <row r="239" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="6"/>
@@ -8167,7 +8188,7 @@
       <c r="AA239" s="1"/>
       <c r="AB239" s="1"/>
     </row>
-    <row r="240" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="6"/>
@@ -8197,7 +8218,7 @@
       <c r="AA240" s="1"/>
       <c r="AB240" s="1"/>
     </row>
-    <row r="241" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="6"/>
@@ -8227,7 +8248,7 @@
       <c r="AA241" s="1"/>
       <c r="AB241" s="1"/>
     </row>
-    <row r="242" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="6"/>
@@ -8257,7 +8278,7 @@
       <c r="AA242" s="1"/>
       <c r="AB242" s="1"/>
     </row>
-    <row r="243" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="6"/>
@@ -8287,7 +8308,7 @@
       <c r="AA243" s="1"/>
       <c r="AB243" s="1"/>
     </row>
-    <row r="244" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="6"/>
@@ -8317,7 +8338,7 @@
       <c r="AA244" s="1"/>
       <c r="AB244" s="1"/>
     </row>
-    <row r="245" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="6"/>
@@ -8347,7 +8368,7 @@
       <c r="AA245" s="1"/>
       <c r="AB245" s="1"/>
     </row>
-    <row r="246" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="6"/>
@@ -8377,7 +8398,7 @@
       <c r="AA246" s="1"/>
       <c r="AB246" s="1"/>
     </row>
-    <row r="247" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="6"/>
@@ -8407,7 +8428,7 @@
       <c r="AA247" s="1"/>
       <c r="AB247" s="1"/>
     </row>
-    <row r="248" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="6"/>
@@ -8437,7 +8458,7 @@
       <c r="AA248" s="1"/>
       <c r="AB248" s="1"/>
     </row>
-    <row r="249" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="6"/>
@@ -8467,7 +8488,7 @@
       <c r="AA249" s="1"/>
       <c r="AB249" s="1"/>
     </row>
-    <row r="250" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="6"/>
@@ -8497,7 +8518,7 @@
       <c r="AA250" s="1"/>
       <c r="AB250" s="1"/>
     </row>
-    <row r="251" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="6"/>
@@ -8527,7 +8548,7 @@
       <c r="AA251" s="1"/>
       <c r="AB251" s="1"/>
     </row>
-    <row r="252" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="6"/>
@@ -8557,7 +8578,7 @@
       <c r="AA252" s="1"/>
       <c r="AB252" s="1"/>
     </row>
-    <row r="253" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="6"/>
@@ -8587,7 +8608,7 @@
       <c r="AA253" s="1"/>
       <c r="AB253" s="1"/>
     </row>
-    <row r="254" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="6"/>
@@ -8617,7 +8638,7 @@
       <c r="AA254" s="1"/>
       <c r="AB254" s="1"/>
     </row>
-    <row r="255" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="6"/>
@@ -8647,7 +8668,7 @@
       <c r="AA255" s="1"/>
       <c r="AB255" s="1"/>
     </row>
-    <row r="256" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="6"/>
@@ -8677,7 +8698,7 @@
       <c r="AA256" s="1"/>
       <c r="AB256" s="1"/>
     </row>
-    <row r="257" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="6"/>
@@ -8707,7 +8728,7 @@
       <c r="AA257" s="1"/>
       <c r="AB257" s="1"/>
     </row>
-    <row r="258" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="6"/>
@@ -8737,7 +8758,7 @@
       <c r="AA258" s="1"/>
       <c r="AB258" s="1"/>
     </row>
-    <row r="259" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="6"/>
@@ -8767,7 +8788,7 @@
       <c r="AA259" s="1"/>
       <c r="AB259" s="1"/>
     </row>
-    <row r="260" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="6"/>
@@ -8797,7 +8818,7 @@
       <c r="AA260" s="1"/>
       <c r="AB260" s="1"/>
     </row>
-    <row r="261" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="6"/>
@@ -8827,7 +8848,7 @@
       <c r="AA261" s="1"/>
       <c r="AB261" s="1"/>
     </row>
-    <row r="262" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="6"/>
@@ -8857,7 +8878,7 @@
       <c r="AA262" s="1"/>
       <c r="AB262" s="1"/>
     </row>
-    <row r="263" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="6"/>
@@ -8887,7 +8908,7 @@
       <c r="AA263" s="1"/>
       <c r="AB263" s="1"/>
     </row>
-    <row r="264" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="6"/>
@@ -8917,7 +8938,7 @@
       <c r="AA264" s="1"/>
       <c r="AB264" s="1"/>
     </row>
-    <row r="265" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="6"/>
@@ -8947,7 +8968,7 @@
       <c r="AA265" s="1"/>
       <c r="AB265" s="1"/>
     </row>
-    <row r="266" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="6"/>
@@ -8977,7 +8998,7 @@
       <c r="AA266" s="1"/>
       <c r="AB266" s="1"/>
     </row>
-    <row r="267" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="6"/>
@@ -9007,7 +9028,7 @@
       <c r="AA267" s="1"/>
       <c r="AB267" s="1"/>
     </row>
-    <row r="268" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="6"/>
@@ -9037,7 +9058,7 @@
       <c r="AA268" s="1"/>
       <c r="AB268" s="1"/>
     </row>
-    <row r="269" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="6"/>
@@ -9067,7 +9088,7 @@
       <c r="AA269" s="1"/>
       <c r="AB269" s="1"/>
     </row>
-    <row r="270" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="6"/>
@@ -9097,7 +9118,7 @@
       <c r="AA270" s="1"/>
       <c r="AB270" s="1"/>
     </row>
-    <row r="271" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="6"/>
@@ -9127,7 +9148,7 @@
       <c r="AA271" s="1"/>
       <c r="AB271" s="1"/>
     </row>
-    <row r="272" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="6"/>
@@ -9157,7 +9178,7 @@
       <c r="AA272" s="1"/>
       <c r="AB272" s="1"/>
     </row>
-    <row r="273" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="6"/>
@@ -9187,7 +9208,7 @@
       <c r="AA273" s="1"/>
       <c r="AB273" s="1"/>
     </row>
-    <row r="274" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="6"/>
@@ -9217,7 +9238,7 @@
       <c r="AA274" s="1"/>
       <c r="AB274" s="1"/>
     </row>
-    <row r="275" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="6"/>
@@ -9247,7 +9268,7 @@
       <c r="AA275" s="1"/>
       <c r="AB275" s="1"/>
     </row>
-    <row r="276" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="6"/>
@@ -9277,7 +9298,7 @@
       <c r="AA276" s="1"/>
       <c r="AB276" s="1"/>
     </row>
-    <row r="277" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="6"/>
@@ -9307,7 +9328,7 @@
       <c r="AA277" s="1"/>
       <c r="AB277" s="1"/>
     </row>
-    <row r="278" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="6"/>
@@ -9337,7 +9358,7 @@
       <c r="AA278" s="1"/>
       <c r="AB278" s="1"/>
     </row>
-    <row r="279" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="6"/>
@@ -9367,7 +9388,7 @@
       <c r="AA279" s="1"/>
       <c r="AB279" s="1"/>
     </row>
-    <row r="280" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="6"/>
@@ -9397,7 +9418,7 @@
       <c r="AA280" s="1"/>
       <c r="AB280" s="1"/>
     </row>
-    <row r="281" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="6"/>
@@ -9427,7 +9448,7 @@
       <c r="AA281" s="1"/>
       <c r="AB281" s="1"/>
     </row>
-    <row r="282" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="6"/>
@@ -9457,7 +9478,7 @@
       <c r="AA282" s="1"/>
       <c r="AB282" s="1"/>
     </row>
-    <row r="283" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="6"/>
@@ -9487,7 +9508,7 @@
       <c r="AA283" s="1"/>
       <c r="AB283" s="1"/>
     </row>
-    <row r="284" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="6"/>
@@ -9517,7 +9538,7 @@
       <c r="AA284" s="1"/>
       <c r="AB284" s="1"/>
     </row>
-    <row r="285" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="6"/>
@@ -9547,7 +9568,7 @@
       <c r="AA285" s="1"/>
       <c r="AB285" s="1"/>
     </row>
-    <row r="286" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="6"/>
@@ -9577,7 +9598,7 @@
       <c r="AA286" s="1"/>
       <c r="AB286" s="1"/>
     </row>
-    <row r="287" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="6"/>
@@ -9607,7 +9628,7 @@
       <c r="AA287" s="1"/>
       <c r="AB287" s="1"/>
     </row>
-    <row r="288" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="6"/>
@@ -9637,7 +9658,7 @@
       <c r="AA288" s="1"/>
       <c r="AB288" s="1"/>
     </row>
-    <row r="289" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="6"/>
@@ -9667,7 +9688,7 @@
       <c r="AA289" s="1"/>
       <c r="AB289" s="1"/>
     </row>
-    <row r="290" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="6"/>
@@ -9697,7 +9718,7 @@
       <c r="AA290" s="1"/>
       <c r="AB290" s="1"/>
     </row>
-    <row r="291" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="6"/>
@@ -9727,7 +9748,7 @@
       <c r="AA291" s="1"/>
       <c r="AB291" s="1"/>
     </row>
-    <row r="292" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="6"/>
@@ -9757,7 +9778,7 @@
       <c r="AA292" s="1"/>
       <c r="AB292" s="1"/>
     </row>
-    <row r="293" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="6"/>
@@ -9787,7 +9808,7 @@
       <c r="AA293" s="1"/>
       <c r="AB293" s="1"/>
     </row>
-    <row r="294" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="6"/>
@@ -9817,7 +9838,7 @@
       <c r="AA294" s="1"/>
       <c r="AB294" s="1"/>
     </row>
-    <row r="295" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="6"/>
@@ -9847,7 +9868,7 @@
       <c r="AA295" s="1"/>
       <c r="AB295" s="1"/>
     </row>
-    <row r="296" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="6"/>
@@ -9877,7 +9898,7 @@
       <c r="AA296" s="1"/>
       <c r="AB296" s="1"/>
     </row>
-    <row r="297" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="6"/>
@@ -9907,7 +9928,7 @@
       <c r="AA297" s="1"/>
       <c r="AB297" s="1"/>
     </row>
-    <row r="298" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="6"/>
@@ -9937,7 +9958,7 @@
       <c r="AA298" s="1"/>
       <c r="AB298" s="1"/>
     </row>
-    <row r="299" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="6"/>
@@ -9967,7 +9988,7 @@
       <c r="AA299" s="1"/>
       <c r="AB299" s="1"/>
     </row>
-    <row r="300" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="6"/>
@@ -9997,7 +10018,7 @@
       <c r="AA300" s="1"/>
       <c r="AB300" s="1"/>
     </row>
-    <row r="301" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="6"/>
@@ -10027,7 +10048,7 @@
       <c r="AA301" s="1"/>
       <c r="AB301" s="1"/>
     </row>
-    <row r="302" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="6"/>
@@ -10057,7 +10078,7 @@
       <c r="AA302" s="1"/>
       <c r="AB302" s="1"/>
     </row>
-    <row r="303" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="6"/>
@@ -10087,7 +10108,7 @@
       <c r="AA303" s="1"/>
       <c r="AB303" s="1"/>
     </row>
-    <row r="304" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="6"/>
@@ -10117,7 +10138,7 @@
       <c r="AA304" s="1"/>
       <c r="AB304" s="1"/>
     </row>
-    <row r="305" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="6"/>
@@ -10147,7 +10168,7 @@
       <c r="AA305" s="1"/>
       <c r="AB305" s="1"/>
     </row>
-    <row r="306" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="6"/>
@@ -10177,7 +10198,7 @@
       <c r="AA306" s="1"/>
       <c r="AB306" s="1"/>
     </row>
-    <row r="307" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="6"/>
@@ -10207,7 +10228,7 @@
       <c r="AA307" s="1"/>
       <c r="AB307" s="1"/>
     </row>
-    <row r="308" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="6"/>
@@ -10237,7 +10258,7 @@
       <c r="AA308" s="1"/>
       <c r="AB308" s="1"/>
     </row>
-    <row r="309" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="6"/>
@@ -10267,7 +10288,7 @@
       <c r="AA309" s="1"/>
       <c r="AB309" s="1"/>
     </row>
-    <row r="310" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="6"/>
@@ -10297,7 +10318,7 @@
       <c r="AA310" s="1"/>
       <c r="AB310" s="1"/>
     </row>
-    <row r="311" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="6"/>
@@ -10327,7 +10348,7 @@
       <c r="AA311" s="1"/>
       <c r="AB311" s="1"/>
     </row>
-    <row r="312" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="6"/>
@@ -10357,7 +10378,7 @@
       <c r="AA312" s="1"/>
       <c r="AB312" s="1"/>
     </row>
-    <row r="313" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="6"/>
@@ -10387,7 +10408,7 @@
       <c r="AA313" s="1"/>
       <c r="AB313" s="1"/>
     </row>
-    <row r="314" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="6"/>
@@ -10417,7 +10438,7 @@
       <c r="AA314" s="1"/>
       <c r="AB314" s="1"/>
     </row>
-    <row r="315" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="6"/>
@@ -10447,7 +10468,7 @@
       <c r="AA315" s="1"/>
       <c r="AB315" s="1"/>
     </row>
-    <row r="316" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="6"/>
@@ -10477,7 +10498,7 @@
       <c r="AA316" s="1"/>
       <c r="AB316" s="1"/>
     </row>
-    <row r="317" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="6"/>
@@ -10507,7 +10528,7 @@
       <c r="AA317" s="1"/>
       <c r="AB317" s="1"/>
     </row>
-    <row r="318" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="6"/>
@@ -10537,7 +10558,7 @@
       <c r="AA318" s="1"/>
       <c r="AB318" s="1"/>
     </row>
-    <row r="319" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="6"/>
@@ -10567,7 +10588,7 @@
       <c r="AA319" s="1"/>
       <c r="AB319" s="1"/>
     </row>
-    <row r="320" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="6"/>
@@ -10597,7 +10618,7 @@
       <c r="AA320" s="1"/>
       <c r="AB320" s="1"/>
     </row>
-    <row r="321" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="6"/>
@@ -10627,7 +10648,7 @@
       <c r="AA321" s="1"/>
       <c r="AB321" s="1"/>
     </row>
-    <row r="322" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="6"/>
@@ -10657,7 +10678,7 @@
       <c r="AA322" s="1"/>
       <c r="AB322" s="1"/>
     </row>
-    <row r="323" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="6"/>
@@ -10687,7 +10708,7 @@
       <c r="AA323" s="1"/>
       <c r="AB323" s="1"/>
     </row>
-    <row r="324" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="6"/>
@@ -10717,7 +10738,7 @@
       <c r="AA324" s="1"/>
       <c r="AB324" s="1"/>
     </row>
-    <row r="325" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="6"/>
@@ -10747,7 +10768,7 @@
       <c r="AA325" s="1"/>
       <c r="AB325" s="1"/>
     </row>
-    <row r="326" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="6"/>
@@ -10777,7 +10798,7 @@
       <c r="AA326" s="1"/>
       <c r="AB326" s="1"/>
     </row>
-    <row r="327" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="6"/>
@@ -10807,7 +10828,7 @@
       <c r="AA327" s="1"/>
       <c r="AB327" s="1"/>
     </row>
-    <row r="328" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="6"/>
@@ -10837,7 +10858,7 @@
       <c r="AA328" s="1"/>
       <c r="AB328" s="1"/>
     </row>
-    <row r="329" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="6"/>
@@ -10867,7 +10888,7 @@
       <c r="AA329" s="1"/>
       <c r="AB329" s="1"/>
     </row>
-    <row r="330" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="6"/>
@@ -10897,7 +10918,7 @@
       <c r="AA330" s="1"/>
       <c r="AB330" s="1"/>
     </row>
-    <row r="331" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="6"/>
@@ -10927,7 +10948,7 @@
       <c r="AA331" s="1"/>
       <c r="AB331" s="1"/>
     </row>
-    <row r="332" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="6"/>
@@ -10957,7 +10978,7 @@
       <c r="AA332" s="1"/>
       <c r="AB332" s="1"/>
     </row>
-    <row r="333" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="6"/>
@@ -10987,7 +11008,7 @@
       <c r="AA333" s="1"/>
       <c r="AB333" s="1"/>
     </row>
-    <row r="334" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="6"/>
@@ -11017,7 +11038,7 @@
       <c r="AA334" s="1"/>
       <c r="AB334" s="1"/>
     </row>
-    <row r="335" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="6"/>
@@ -11047,7 +11068,7 @@
       <c r="AA335" s="1"/>
       <c r="AB335" s="1"/>
     </row>
-    <row r="336" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="6"/>
@@ -11077,7 +11098,7 @@
       <c r="AA336" s="1"/>
       <c r="AB336" s="1"/>
     </row>
-    <row r="337" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="6"/>
@@ -11107,7 +11128,7 @@
       <c r="AA337" s="1"/>
       <c r="AB337" s="1"/>
     </row>
-    <row r="338" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="6"/>
@@ -11137,7 +11158,7 @@
       <c r="AA338" s="1"/>
       <c r="AB338" s="1"/>
     </row>
-    <row r="339" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="6"/>
@@ -11167,7 +11188,7 @@
       <c r="AA339" s="1"/>
       <c r="AB339" s="1"/>
     </row>
-    <row r="340" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="6"/>
@@ -11197,7 +11218,7 @@
       <c r="AA340" s="1"/>
       <c r="AB340" s="1"/>
     </row>
-    <row r="341" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="6"/>
@@ -11227,7 +11248,7 @@
       <c r="AA341" s="1"/>
       <c r="AB341" s="1"/>
     </row>
-    <row r="342" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="6"/>
@@ -11257,7 +11278,7 @@
       <c r="AA342" s="1"/>
       <c r="AB342" s="1"/>
     </row>
-    <row r="343" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="6"/>
@@ -11287,7 +11308,7 @@
       <c r="AA343" s="1"/>
       <c r="AB343" s="1"/>
     </row>
-    <row r="344" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="6"/>
@@ -11317,7 +11338,7 @@
       <c r="AA344" s="1"/>
       <c r="AB344" s="1"/>
     </row>
-    <row r="345" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="6"/>
@@ -11347,7 +11368,7 @@
       <c r="AA345" s="1"/>
       <c r="AB345" s="1"/>
     </row>
-    <row r="346" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="6"/>
@@ -11377,7 +11398,7 @@
       <c r="AA346" s="1"/>
       <c r="AB346" s="1"/>
     </row>
-    <row r="347" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="6"/>
@@ -11407,7 +11428,7 @@
       <c r="AA347" s="1"/>
       <c r="AB347" s="1"/>
     </row>
-    <row r="348" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="6"/>
@@ -11437,7 +11458,7 @@
       <c r="AA348" s="1"/>
       <c r="AB348" s="1"/>
     </row>
-    <row r="349" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="6"/>
@@ -11467,7 +11488,7 @@
       <c r="AA349" s="1"/>
       <c r="AB349" s="1"/>
     </row>
-    <row r="350" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="6"/>
@@ -11497,7 +11518,7 @@
       <c r="AA350" s="1"/>
       <c r="AB350" s="1"/>
     </row>
-    <row r="351" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="6"/>
@@ -11527,7 +11548,7 @@
       <c r="AA351" s="1"/>
       <c r="AB351" s="1"/>
     </row>
-    <row r="352" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="6"/>
@@ -11557,7 +11578,7 @@
       <c r="AA352" s="1"/>
       <c r="AB352" s="1"/>
     </row>
-    <row r="353" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="6"/>
@@ -11587,7 +11608,7 @@
       <c r="AA353" s="1"/>
       <c r="AB353" s="1"/>
     </row>
-    <row r="354" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="6"/>
@@ -11617,7 +11638,7 @@
       <c r="AA354" s="1"/>
       <c r="AB354" s="1"/>
     </row>
-    <row r="355" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="6"/>
@@ -11647,7 +11668,7 @@
       <c r="AA355" s="1"/>
       <c r="AB355" s="1"/>
     </row>
-    <row r="356" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="6"/>
@@ -11677,7 +11698,7 @@
       <c r="AA356" s="1"/>
       <c r="AB356" s="1"/>
     </row>
-    <row r="357" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="6"/>
@@ -11707,7 +11728,7 @@
       <c r="AA357" s="1"/>
       <c r="AB357" s="1"/>
     </row>
-    <row r="358" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="6"/>
@@ -11737,7 +11758,7 @@
       <c r="AA358" s="1"/>
       <c r="AB358" s="1"/>
     </row>
-    <row r="359" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="6"/>
@@ -11767,7 +11788,7 @@
       <c r="AA359" s="1"/>
       <c r="AB359" s="1"/>
     </row>
-    <row r="360" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="6"/>
@@ -11797,7 +11818,7 @@
       <c r="AA360" s="1"/>
       <c r="AB360" s="1"/>
     </row>
-    <row r="361" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="6"/>
@@ -11827,7 +11848,7 @@
       <c r="AA361" s="1"/>
       <c r="AB361" s="1"/>
     </row>
-    <row r="362" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="6"/>
@@ -11857,7 +11878,7 @@
       <c r="AA362" s="1"/>
       <c r="AB362" s="1"/>
     </row>
-    <row r="363" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="6"/>
@@ -11887,7 +11908,7 @@
       <c r="AA363" s="1"/>
       <c r="AB363" s="1"/>
     </row>
-    <row r="364" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="6"/>
@@ -11917,7 +11938,7 @@
       <c r="AA364" s="1"/>
       <c r="AB364" s="1"/>
     </row>
-    <row r="365" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="6"/>
@@ -11947,7 +11968,7 @@
       <c r="AA365" s="1"/>
       <c r="AB365" s="1"/>
     </row>
-    <row r="366" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="6"/>
@@ -11977,7 +11998,7 @@
       <c r="AA366" s="1"/>
       <c r="AB366" s="1"/>
     </row>
-    <row r="367" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="6"/>
@@ -12007,7 +12028,7 @@
       <c r="AA367" s="1"/>
       <c r="AB367" s="1"/>
     </row>
-    <row r="368" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="6"/>
@@ -12037,7 +12058,7 @@
       <c r="AA368" s="1"/>
       <c r="AB368" s="1"/>
     </row>
-    <row r="369" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="6"/>
@@ -12067,7 +12088,7 @@
       <c r="AA369" s="1"/>
       <c r="AB369" s="1"/>
     </row>
-    <row r="370" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="6"/>
@@ -12097,7 +12118,7 @@
       <c r="AA370" s="1"/>
       <c r="AB370" s="1"/>
     </row>
-    <row r="371" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="6"/>
@@ -12127,7 +12148,7 @@
       <c r="AA371" s="1"/>
       <c r="AB371" s="1"/>
     </row>
-    <row r="372" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="6"/>
@@ -12157,7 +12178,7 @@
       <c r="AA372" s="1"/>
       <c r="AB372" s="1"/>
     </row>
-    <row r="373" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="6"/>
@@ -12187,7 +12208,7 @@
       <c r="AA373" s="1"/>
       <c r="AB373" s="1"/>
     </row>
-    <row r="374" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="6"/>
@@ -12217,7 +12238,7 @@
       <c r="AA374" s="1"/>
       <c r="AB374" s="1"/>
     </row>
-    <row r="375" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="6"/>
@@ -12247,7 +12268,7 @@
       <c r="AA375" s="1"/>
       <c r="AB375" s="1"/>
     </row>
-    <row r="376" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="6"/>
@@ -12277,7 +12298,7 @@
       <c r="AA376" s="1"/>
       <c r="AB376" s="1"/>
     </row>
-    <row r="377" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="6"/>
@@ -12307,7 +12328,7 @@
       <c r="AA377" s="1"/>
       <c r="AB377" s="1"/>
     </row>
-    <row r="378" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="6"/>
@@ -12337,7 +12358,7 @@
       <c r="AA378" s="1"/>
       <c r="AB378" s="1"/>
     </row>
-    <row r="379" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="6"/>
@@ -12367,7 +12388,7 @@
       <c r="AA379" s="1"/>
       <c r="AB379" s="1"/>
     </row>
-    <row r="380" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="6"/>
@@ -12397,7 +12418,7 @@
       <c r="AA380" s="1"/>
       <c r="AB380" s="1"/>
     </row>
-    <row r="381" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="6"/>
@@ -12427,7 +12448,7 @@
       <c r="AA381" s="1"/>
       <c r="AB381" s="1"/>
     </row>
-    <row r="382" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="6"/>
@@ -12457,7 +12478,7 @@
       <c r="AA382" s="1"/>
       <c r="AB382" s="1"/>
     </row>
-    <row r="383" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="6"/>
@@ -12487,7 +12508,7 @@
       <c r="AA383" s="1"/>
       <c r="AB383" s="1"/>
     </row>
-    <row r="384" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="6"/>
@@ -12517,7 +12538,7 @@
       <c r="AA384" s="1"/>
       <c r="AB384" s="1"/>
     </row>
-    <row r="385" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="6"/>
@@ -12547,7 +12568,7 @@
       <c r="AA385" s="1"/>
       <c r="AB385" s="1"/>
     </row>
-    <row r="386" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="6"/>
@@ -12577,7 +12598,7 @@
       <c r="AA386" s="1"/>
       <c r="AB386" s="1"/>
     </row>
-    <row r="387" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="6"/>
@@ -12607,7 +12628,7 @@
       <c r="AA387" s="1"/>
       <c r="AB387" s="1"/>
     </row>
-    <row r="388" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="6"/>
@@ -12637,7 +12658,7 @@
       <c r="AA388" s="1"/>
       <c r="AB388" s="1"/>
     </row>
-    <row r="389" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="6"/>
@@ -12667,7 +12688,7 @@
       <c r="AA389" s="1"/>
       <c r="AB389" s="1"/>
     </row>
-    <row r="390" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="6"/>
@@ -12697,7 +12718,7 @@
       <c r="AA390" s="1"/>
       <c r="AB390" s="1"/>
     </row>
-    <row r="391" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="6"/>
@@ -12727,7 +12748,7 @@
       <c r="AA391" s="1"/>
       <c r="AB391" s="1"/>
     </row>
-    <row r="392" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="6"/>
@@ -12757,7 +12778,7 @@
       <c r="AA392" s="1"/>
       <c r="AB392" s="1"/>
     </row>
-    <row r="393" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="6"/>
@@ -12787,7 +12808,7 @@
       <c r="AA393" s="1"/>
       <c r="AB393" s="1"/>
     </row>
-    <row r="394" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="6"/>
@@ -12817,7 +12838,7 @@
       <c r="AA394" s="1"/>
       <c r="AB394" s="1"/>
     </row>
-    <row r="395" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="6"/>
@@ -12847,7 +12868,7 @@
       <c r="AA395" s="1"/>
       <c r="AB395" s="1"/>
     </row>
-    <row r="396" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="6"/>
@@ -12877,7 +12898,7 @@
       <c r="AA396" s="1"/>
       <c r="AB396" s="1"/>
     </row>
-    <row r="397" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="6"/>
@@ -12907,7 +12928,7 @@
       <c r="AA397" s="1"/>
       <c r="AB397" s="1"/>
     </row>
-    <row r="398" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="6"/>
@@ -12937,7 +12958,7 @@
       <c r="AA398" s="1"/>
       <c r="AB398" s="1"/>
     </row>
-    <row r="399" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="6"/>
@@ -12967,7 +12988,7 @@
       <c r="AA399" s="1"/>
       <c r="AB399" s="1"/>
     </row>
-    <row r="400" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="6"/>
@@ -12997,7 +13018,7 @@
       <c r="AA400" s="1"/>
       <c r="AB400" s="1"/>
     </row>
-    <row r="401" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="6"/>
@@ -13027,7 +13048,7 @@
       <c r="AA401" s="1"/>
       <c r="AB401" s="1"/>
     </row>
-    <row r="402" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="6"/>
@@ -13057,7 +13078,7 @@
       <c r="AA402" s="1"/>
       <c r="AB402" s="1"/>
     </row>
-    <row r="403" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="6"/>
@@ -13087,7 +13108,7 @@
       <c r="AA403" s="1"/>
       <c r="AB403" s="1"/>
     </row>
-    <row r="404" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="6"/>
@@ -13117,7 +13138,7 @@
       <c r="AA404" s="1"/>
       <c r="AB404" s="1"/>
     </row>
-    <row r="405" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="6"/>
@@ -13147,7 +13168,7 @@
       <c r="AA405" s="1"/>
       <c r="AB405" s="1"/>
     </row>
-    <row r="406" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="6"/>
@@ -13177,7 +13198,7 @@
       <c r="AA406" s="1"/>
       <c r="AB406" s="1"/>
     </row>
-    <row r="407" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="6"/>
@@ -13207,7 +13228,7 @@
       <c r="AA407" s="1"/>
       <c r="AB407" s="1"/>
     </row>
-    <row r="408" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="6"/>
@@ -13237,7 +13258,7 @@
       <c r="AA408" s="1"/>
       <c r="AB408" s="1"/>
     </row>
-    <row r="409" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="6"/>
@@ -13267,7 +13288,7 @@
       <c r="AA409" s="1"/>
       <c r="AB409" s="1"/>
     </row>
-    <row r="410" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="6"/>
@@ -13297,7 +13318,7 @@
       <c r="AA410" s="1"/>
       <c r="AB410" s="1"/>
     </row>
-    <row r="411" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="6"/>
@@ -13327,7 +13348,7 @@
       <c r="AA411" s="1"/>
       <c r="AB411" s="1"/>
     </row>
-    <row r="412" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="6"/>
@@ -13357,7 +13378,7 @@
       <c r="AA412" s="1"/>
       <c r="AB412" s="1"/>
     </row>
-    <row r="413" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="6"/>
@@ -13387,7 +13408,7 @@
       <c r="AA413" s="1"/>
       <c r="AB413" s="1"/>
     </row>
-    <row r="414" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="6"/>
@@ -13417,7 +13438,7 @@
       <c r="AA414" s="1"/>
       <c r="AB414" s="1"/>
     </row>
-    <row r="415" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="6"/>
@@ -13447,7 +13468,7 @@
       <c r="AA415" s="1"/>
       <c r="AB415" s="1"/>
     </row>
-    <row r="416" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="6"/>
@@ -13477,7 +13498,7 @@
       <c r="AA416" s="1"/>
       <c r="AB416" s="1"/>
     </row>
-    <row r="417" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="6"/>
@@ -13507,7 +13528,7 @@
       <c r="AA417" s="1"/>
       <c r="AB417" s="1"/>
     </row>
-    <row r="418" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="6"/>
@@ -13537,7 +13558,7 @@
       <c r="AA418" s="1"/>
       <c r="AB418" s="1"/>
     </row>
-    <row r="419" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="6"/>
@@ -13567,7 +13588,7 @@
       <c r="AA419" s="1"/>
       <c r="AB419" s="1"/>
     </row>
-    <row r="420" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="6"/>
@@ -13597,7 +13618,7 @@
       <c r="AA420" s="1"/>
       <c r="AB420" s="1"/>
     </row>
-    <row r="421" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="6"/>
@@ -13627,7 +13648,7 @@
       <c r="AA421" s="1"/>
       <c r="AB421" s="1"/>
     </row>
-    <row r="422" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="6"/>
@@ -13657,7 +13678,7 @@
       <c r="AA422" s="1"/>
       <c r="AB422" s="1"/>
     </row>
-    <row r="423" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="6"/>
@@ -13687,7 +13708,7 @@
       <c r="AA423" s="1"/>
       <c r="AB423" s="1"/>
     </row>
-    <row r="424" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="6"/>
@@ -13717,7 +13738,7 @@
       <c r="AA424" s="1"/>
       <c r="AB424" s="1"/>
     </row>
-    <row r="425" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="6"/>
@@ -13747,7 +13768,7 @@
       <c r="AA425" s="1"/>
       <c r="AB425" s="1"/>
     </row>
-    <row r="426" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="6"/>
@@ -13777,7 +13798,7 @@
       <c r="AA426" s="1"/>
       <c r="AB426" s="1"/>
     </row>
-    <row r="427" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="6"/>
@@ -13807,7 +13828,7 @@
       <c r="AA427" s="1"/>
       <c r="AB427" s="1"/>
     </row>
-    <row r="428" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="6"/>
@@ -13837,7 +13858,7 @@
       <c r="AA428" s="1"/>
       <c r="AB428" s="1"/>
     </row>
-    <row r="429" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="6"/>
@@ -13867,7 +13888,7 @@
       <c r="AA429" s="1"/>
       <c r="AB429" s="1"/>
     </row>
-    <row r="430" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="6"/>
@@ -13897,7 +13918,7 @@
       <c r="AA430" s="1"/>
       <c r="AB430" s="1"/>
     </row>
-    <row r="431" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="6"/>
@@ -13927,7 +13948,7 @@
       <c r="AA431" s="1"/>
       <c r="AB431" s="1"/>
     </row>
-    <row r="432" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="6"/>
@@ -13957,7 +13978,7 @@
       <c r="AA432" s="1"/>
       <c r="AB432" s="1"/>
     </row>
-    <row r="433" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="6"/>
@@ -13987,7 +14008,7 @@
       <c r="AA433" s="1"/>
       <c r="AB433" s="1"/>
     </row>
-    <row r="434" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="6"/>
@@ -14017,7 +14038,7 @@
       <c r="AA434" s="1"/>
       <c r="AB434" s="1"/>
     </row>
-    <row r="435" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="6"/>
@@ -14047,7 +14068,7 @@
       <c r="AA435" s="1"/>
       <c r="AB435" s="1"/>
     </row>
-    <row r="436" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="6"/>
@@ -14077,7 +14098,7 @@
       <c r="AA436" s="1"/>
       <c r="AB436" s="1"/>
     </row>
-    <row r="437" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="6"/>
@@ -14107,7 +14128,7 @@
       <c r="AA437" s="1"/>
       <c r="AB437" s="1"/>
     </row>
-    <row r="438" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="6"/>
@@ -14137,7 +14158,7 @@
       <c r="AA438" s="1"/>
       <c r="AB438" s="1"/>
     </row>
-    <row r="439" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="6"/>
@@ -14167,7 +14188,7 @@
       <c r="AA439" s="1"/>
       <c r="AB439" s="1"/>
     </row>
-    <row r="440" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="6"/>
@@ -14197,7 +14218,7 @@
       <c r="AA440" s="1"/>
       <c r="AB440" s="1"/>
     </row>
-    <row r="441" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="6"/>
@@ -14227,7 +14248,7 @@
       <c r="AA441" s="1"/>
       <c r="AB441" s="1"/>
     </row>
-    <row r="442" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="6"/>
@@ -14257,7 +14278,7 @@
       <c r="AA442" s="1"/>
       <c r="AB442" s="1"/>
     </row>
-    <row r="443" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="6"/>
@@ -14287,7 +14308,7 @@
       <c r="AA443" s="1"/>
       <c r="AB443" s="1"/>
     </row>
-    <row r="444" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="6"/>
@@ -14317,7 +14338,7 @@
       <c r="AA444" s="1"/>
       <c r="AB444" s="1"/>
     </row>
-    <row r="445" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="6"/>
@@ -14347,7 +14368,7 @@
       <c r="AA445" s="1"/>
       <c r="AB445" s="1"/>
     </row>
-    <row r="446" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="6"/>
@@ -14377,7 +14398,7 @@
       <c r="AA446" s="1"/>
       <c r="AB446" s="1"/>
     </row>
-    <row r="447" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="6"/>
@@ -14407,7 +14428,7 @@
       <c r="AA447" s="1"/>
       <c r="AB447" s="1"/>
     </row>
-    <row r="448" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="6"/>
@@ -14437,7 +14458,7 @@
       <c r="AA448" s="1"/>
       <c r="AB448" s="1"/>
     </row>
-    <row r="449" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="6"/>
@@ -14467,7 +14488,7 @@
       <c r="AA449" s="1"/>
       <c r="AB449" s="1"/>
     </row>
-    <row r="450" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="6"/>
@@ -14497,7 +14518,7 @@
       <c r="AA450" s="1"/>
       <c r="AB450" s="1"/>
     </row>
-    <row r="451" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="6"/>
@@ -14527,7 +14548,7 @@
       <c r="AA451" s="1"/>
       <c r="AB451" s="1"/>
     </row>
-    <row r="452" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="6"/>
@@ -14557,7 +14578,7 @@
       <c r="AA452" s="1"/>
       <c r="AB452" s="1"/>
     </row>
-    <row r="453" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="6"/>
@@ -14587,7 +14608,7 @@
       <c r="AA453" s="1"/>
       <c r="AB453" s="1"/>
     </row>
-    <row r="454" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="6"/>
@@ -14617,7 +14638,7 @@
       <c r="AA454" s="1"/>
       <c r="AB454" s="1"/>
     </row>
-    <row r="455" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="6"/>
@@ -14647,7 +14668,7 @@
       <c r="AA455" s="1"/>
       <c r="AB455" s="1"/>
     </row>
-    <row r="456" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="6"/>
@@ -14677,7 +14698,7 @@
       <c r="AA456" s="1"/>
       <c r="AB456" s="1"/>
     </row>
-    <row r="457" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="6"/>
@@ -14707,7 +14728,7 @@
       <c r="AA457" s="1"/>
       <c r="AB457" s="1"/>
     </row>
-    <row r="458" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="6"/>
@@ -14737,7 +14758,7 @@
       <c r="AA458" s="1"/>
       <c r="AB458" s="1"/>
     </row>
-    <row r="459" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="6"/>
@@ -14767,7 +14788,7 @@
       <c r="AA459" s="1"/>
       <c r="AB459" s="1"/>
     </row>
-    <row r="460" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="6"/>
@@ -14797,7 +14818,7 @@
       <c r="AA460" s="1"/>
       <c r="AB460" s="1"/>
     </row>
-    <row r="461" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="6"/>
@@ -14827,7 +14848,7 @@
       <c r="AA461" s="1"/>
       <c r="AB461" s="1"/>
     </row>
-    <row r="462" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="6"/>
@@ -14857,7 +14878,7 @@
       <c r="AA462" s="1"/>
       <c r="AB462" s="1"/>
     </row>
-    <row r="463" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="6"/>
@@ -14887,7 +14908,7 @@
       <c r="AA463" s="1"/>
       <c r="AB463" s="1"/>
     </row>
-    <row r="464" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="6"/>
@@ -14917,7 +14938,7 @@
       <c r="AA464" s="1"/>
       <c r="AB464" s="1"/>
     </row>
-    <row r="465" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="6"/>
@@ -14947,7 +14968,7 @@
       <c r="AA465" s="1"/>
       <c r="AB465" s="1"/>
     </row>
-    <row r="466" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="6"/>
@@ -14977,7 +14998,7 @@
       <c r="AA466" s="1"/>
       <c r="AB466" s="1"/>
     </row>
-    <row r="467" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="6"/>
@@ -15007,7 +15028,7 @@
       <c r="AA467" s="1"/>
       <c r="AB467" s="1"/>
     </row>
-    <row r="468" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="6"/>
@@ -15037,7 +15058,7 @@
       <c r="AA468" s="1"/>
       <c r="AB468" s="1"/>
     </row>
-    <row r="469" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="6"/>
@@ -15067,7 +15088,7 @@
       <c r="AA469" s="1"/>
       <c r="AB469" s="1"/>
     </row>
-    <row r="470" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="6"/>
@@ -15097,7 +15118,7 @@
       <c r="AA470" s="1"/>
       <c r="AB470" s="1"/>
     </row>
-    <row r="471" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="6"/>
@@ -15127,7 +15148,7 @@
       <c r="AA471" s="1"/>
       <c r="AB471" s="1"/>
     </row>
-    <row r="472" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="6"/>
@@ -15157,7 +15178,7 @@
       <c r="AA472" s="1"/>
       <c r="AB472" s="1"/>
     </row>
-    <row r="473" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="6"/>
@@ -15187,7 +15208,7 @@
       <c r="AA473" s="1"/>
       <c r="AB473" s="1"/>
     </row>
-    <row r="474" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="6"/>
@@ -15217,7 +15238,7 @@
       <c r="AA474" s="1"/>
       <c r="AB474" s="1"/>
     </row>
-    <row r="475" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="6"/>
@@ -15247,7 +15268,7 @@
       <c r="AA475" s="1"/>
       <c r="AB475" s="1"/>
     </row>
-    <row r="476" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="6"/>
@@ -15277,7 +15298,7 @@
       <c r="AA476" s="1"/>
       <c r="AB476" s="1"/>
     </row>
-    <row r="477" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="6"/>
@@ -15307,7 +15328,7 @@
       <c r="AA477" s="1"/>
       <c r="AB477" s="1"/>
     </row>
-    <row r="478" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="6"/>
@@ -15337,7 +15358,7 @@
       <c r="AA478" s="1"/>
       <c r="AB478" s="1"/>
     </row>
-    <row r="479" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="6"/>
@@ -15367,7 +15388,7 @@
       <c r="AA479" s="1"/>
       <c r="AB479" s="1"/>
     </row>
-    <row r="480" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="6"/>
@@ -15397,7 +15418,7 @@
       <c r="AA480" s="1"/>
       <c r="AB480" s="1"/>
     </row>
-    <row r="481" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="6"/>
@@ -15427,7 +15448,7 @@
       <c r="AA481" s="1"/>
       <c r="AB481" s="1"/>
     </row>
-    <row r="482" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="6"/>
@@ -15457,7 +15478,7 @@
       <c r="AA482" s="1"/>
       <c r="AB482" s="1"/>
     </row>
-    <row r="483" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="6"/>
@@ -15487,7 +15508,7 @@
       <c r="AA483" s="1"/>
       <c r="AB483" s="1"/>
     </row>
-    <row r="484" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="6"/>
@@ -15517,7 +15538,7 @@
       <c r="AA484" s="1"/>
       <c r="AB484" s="1"/>
     </row>
-    <row r="485" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="6"/>
@@ -15547,7 +15568,7 @@
       <c r="AA485" s="1"/>
       <c r="AB485" s="1"/>
     </row>
-    <row r="486" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="6"/>
@@ -15577,7 +15598,7 @@
       <c r="AA486" s="1"/>
       <c r="AB486" s="1"/>
     </row>
-    <row r="487" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="6"/>
@@ -15607,7 +15628,7 @@
       <c r="AA487" s="1"/>
       <c r="AB487" s="1"/>
     </row>
-    <row r="488" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="6"/>
@@ -15637,7 +15658,7 @@
       <c r="AA488" s="1"/>
       <c r="AB488" s="1"/>
     </row>
-    <row r="489" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="6"/>
@@ -15667,7 +15688,7 @@
       <c r="AA489" s="1"/>
       <c r="AB489" s="1"/>
     </row>
-    <row r="490" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="6"/>
@@ -15697,7 +15718,7 @@
       <c r="AA490" s="1"/>
       <c r="AB490" s="1"/>
     </row>
-    <row r="491" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="6"/>
@@ -15727,7 +15748,7 @@
       <c r="AA491" s="1"/>
       <c r="AB491" s="1"/>
     </row>
-    <row r="492" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="6"/>
@@ -15757,7 +15778,7 @@
       <c r="AA492" s="1"/>
       <c r="AB492" s="1"/>
     </row>
-    <row r="493" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="6"/>
@@ -15787,7 +15808,7 @@
       <c r="AA493" s="1"/>
       <c r="AB493" s="1"/>
     </row>
-    <row r="494" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="6"/>
@@ -15817,7 +15838,7 @@
       <c r="AA494" s="1"/>
       <c r="AB494" s="1"/>
     </row>
-    <row r="495" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="6"/>
@@ -15847,7 +15868,7 @@
       <c r="AA495" s="1"/>
       <c r="AB495" s="1"/>
     </row>
-    <row r="496" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="6"/>
@@ -15877,7 +15898,7 @@
       <c r="AA496" s="1"/>
       <c r="AB496" s="1"/>
     </row>
-    <row r="497" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="6"/>
@@ -15907,7 +15928,7 @@
       <c r="AA497" s="1"/>
       <c r="AB497" s="1"/>
     </row>
-    <row r="498" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="6"/>
@@ -15937,7 +15958,7 @@
       <c r="AA498" s="1"/>
       <c r="AB498" s="1"/>
     </row>
-    <row r="499" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="6"/>
@@ -15967,7 +15988,7 @@
       <c r="AA499" s="1"/>
       <c r="AB499" s="1"/>
     </row>
-    <row r="500" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="6"/>
@@ -15997,7 +16018,7 @@
       <c r="AA500" s="1"/>
       <c r="AB500" s="1"/>
     </row>
-    <row r="501" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="6"/>
@@ -16027,7 +16048,7 @@
       <c r="AA501" s="1"/>
       <c r="AB501" s="1"/>
     </row>
-    <row r="502" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="6"/>
@@ -16057,7 +16078,7 @@
       <c r="AA502" s="1"/>
       <c r="AB502" s="1"/>
     </row>
-    <row r="503" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="6"/>
@@ -16087,7 +16108,7 @@
       <c r="AA503" s="1"/>
       <c r="AB503" s="1"/>
     </row>
-    <row r="504" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="6"/>
@@ -16117,7 +16138,7 @@
       <c r="AA504" s="1"/>
       <c r="AB504" s="1"/>
     </row>
-    <row r="505" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="6"/>
@@ -16147,7 +16168,7 @@
       <c r="AA505" s="1"/>
       <c r="AB505" s="1"/>
     </row>
-    <row r="506" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="6"/>
@@ -16177,7 +16198,7 @@
       <c r="AA506" s="1"/>
       <c r="AB506" s="1"/>
     </row>
-    <row r="507" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="6"/>
@@ -16207,7 +16228,7 @@
       <c r="AA507" s="1"/>
       <c r="AB507" s="1"/>
     </row>
-    <row r="508" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="6"/>
@@ -16237,7 +16258,7 @@
       <c r="AA508" s="1"/>
       <c r="AB508" s="1"/>
     </row>
-    <row r="509" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="6"/>
@@ -16267,7 +16288,7 @@
       <c r="AA509" s="1"/>
       <c r="AB509" s="1"/>
     </row>
-    <row r="510" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="6"/>
@@ -16297,7 +16318,7 @@
       <c r="AA510" s="1"/>
       <c r="AB510" s="1"/>
     </row>
-    <row r="511" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="6"/>
@@ -16327,7 +16348,7 @@
       <c r="AA511" s="1"/>
       <c r="AB511" s="1"/>
     </row>
-    <row r="512" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="6"/>
@@ -16357,7 +16378,7 @@
       <c r="AA512" s="1"/>
       <c r="AB512" s="1"/>
     </row>
-    <row r="513" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="6"/>
@@ -16387,7 +16408,7 @@
       <c r="AA513" s="1"/>
       <c r="AB513" s="1"/>
     </row>
-    <row r="514" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="6"/>
@@ -16417,7 +16438,7 @@
       <c r="AA514" s="1"/>
       <c r="AB514" s="1"/>
     </row>
-    <row r="515" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="6"/>
@@ -16447,7 +16468,7 @@
       <c r="AA515" s="1"/>
       <c r="AB515" s="1"/>
     </row>
-    <row r="516" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="6"/>
@@ -16477,7 +16498,7 @@
       <c r="AA516" s="1"/>
       <c r="AB516" s="1"/>
     </row>
-    <row r="517" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="6"/>
@@ -16507,7 +16528,7 @@
       <c r="AA517" s="1"/>
       <c r="AB517" s="1"/>
     </row>
-    <row r="518" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="6"/>
@@ -16537,7 +16558,7 @@
       <c r="AA518" s="1"/>
       <c r="AB518" s="1"/>
     </row>
-    <row r="519" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="6"/>
@@ -16567,7 +16588,7 @@
       <c r="AA519" s="1"/>
       <c r="AB519" s="1"/>
     </row>
-    <row r="520" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="6"/>
@@ -16597,7 +16618,7 @@
       <c r="AA520" s="1"/>
       <c r="AB520" s="1"/>
     </row>
-    <row r="521" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="6"/>
@@ -16627,7 +16648,7 @@
       <c r="AA521" s="1"/>
       <c r="AB521" s="1"/>
     </row>
-    <row r="522" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="6"/>
@@ -16657,7 +16678,7 @@
       <c r="AA522" s="1"/>
       <c r="AB522" s="1"/>
     </row>
-    <row r="523" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="6"/>
@@ -16687,7 +16708,7 @@
       <c r="AA523" s="1"/>
       <c r="AB523" s="1"/>
     </row>
-    <row r="524" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="6"/>
@@ -16717,7 +16738,7 @@
       <c r="AA524" s="1"/>
       <c r="AB524" s="1"/>
     </row>
-    <row r="525" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="6"/>
@@ -16747,7 +16768,7 @@
       <c r="AA525" s="1"/>
       <c r="AB525" s="1"/>
     </row>
-    <row r="526" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="6"/>
@@ -16777,7 +16798,7 @@
       <c r="AA526" s="1"/>
       <c r="AB526" s="1"/>
     </row>
-    <row r="527" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="6"/>
@@ -16807,7 +16828,7 @@
       <c r="AA527" s="1"/>
       <c r="AB527" s="1"/>
     </row>
-    <row r="528" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="6"/>
@@ -16837,7 +16858,7 @@
       <c r="AA528" s="1"/>
       <c r="AB528" s="1"/>
     </row>
-    <row r="529" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="6"/>
@@ -16867,7 +16888,7 @@
       <c r="AA529" s="1"/>
       <c r="AB529" s="1"/>
     </row>
-    <row r="530" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="6"/>
@@ -16897,7 +16918,7 @@
       <c r="AA530" s="1"/>
       <c r="AB530" s="1"/>
     </row>
-    <row r="531" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="6"/>
@@ -16927,7 +16948,7 @@
       <c r="AA531" s="1"/>
       <c r="AB531" s="1"/>
     </row>
-    <row r="532" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="6"/>
@@ -16957,7 +16978,7 @@
       <c r="AA532" s="1"/>
       <c r="AB532" s="1"/>
     </row>
-    <row r="533" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="6"/>
@@ -16987,7 +17008,7 @@
       <c r="AA533" s="1"/>
       <c r="AB533" s="1"/>
     </row>
-    <row r="534" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="6"/>
@@ -17017,7 +17038,7 @@
       <c r="AA534" s="1"/>
       <c r="AB534" s="1"/>
     </row>
-    <row r="535" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="6"/>
@@ -17047,7 +17068,7 @@
       <c r="AA535" s="1"/>
       <c r="AB535" s="1"/>
     </row>
-    <row r="536" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="6"/>
@@ -17077,7 +17098,7 @@
       <c r="AA536" s="1"/>
       <c r="AB536" s="1"/>
     </row>
-    <row r="537" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="6"/>
@@ -17107,7 +17128,7 @@
       <c r="AA537" s="1"/>
       <c r="AB537" s="1"/>
     </row>
-    <row r="538" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="6"/>
@@ -17137,7 +17158,7 @@
       <c r="AA538" s="1"/>
       <c r="AB538" s="1"/>
     </row>
-    <row r="539" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="6"/>
@@ -17167,7 +17188,7 @@
       <c r="AA539" s="1"/>
       <c r="AB539" s="1"/>
     </row>
-    <row r="540" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="6"/>
@@ -17197,7 +17218,7 @@
       <c r="AA540" s="1"/>
       <c r="AB540" s="1"/>
     </row>
-    <row r="541" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="6"/>
@@ -17227,7 +17248,7 @@
       <c r="AA541" s="1"/>
       <c r="AB541" s="1"/>
     </row>
-    <row r="542" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="6"/>
@@ -17257,7 +17278,7 @@
       <c r="AA542" s="1"/>
       <c r="AB542" s="1"/>
     </row>
-    <row r="543" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="6"/>
@@ -17287,7 +17308,7 @@
       <c r="AA543" s="1"/>
       <c r="AB543" s="1"/>
     </row>
-    <row r="544" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="6"/>
@@ -17317,7 +17338,7 @@
       <c r="AA544" s="1"/>
       <c r="AB544" s="1"/>
     </row>
-    <row r="545" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="6"/>
@@ -17347,7 +17368,7 @@
       <c r="AA545" s="1"/>
       <c r="AB545" s="1"/>
     </row>
-    <row r="546" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="6"/>
@@ -17377,7 +17398,7 @@
       <c r="AA546" s="1"/>
       <c r="AB546" s="1"/>
     </row>
-    <row r="547" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="6"/>
@@ -17407,7 +17428,7 @@
       <c r="AA547" s="1"/>
       <c r="AB547" s="1"/>
     </row>
-    <row r="548" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="6"/>
@@ -17437,7 +17458,7 @@
       <c r="AA548" s="1"/>
       <c r="AB548" s="1"/>
     </row>
-    <row r="549" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="6"/>
@@ -17467,7 +17488,7 @@
       <c r="AA549" s="1"/>
       <c r="AB549" s="1"/>
     </row>
-    <row r="550" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="6"/>
@@ -17497,7 +17518,7 @@
       <c r="AA550" s="1"/>
       <c r="AB550" s="1"/>
     </row>
-    <row r="551" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="6"/>
@@ -17527,7 +17548,7 @@
       <c r="AA551" s="1"/>
       <c r="AB551" s="1"/>
     </row>
-    <row r="552" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="6"/>
@@ -17557,7 +17578,7 @@
       <c r="AA552" s="1"/>
       <c r="AB552" s="1"/>
     </row>
-    <row r="553" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="6"/>
@@ -17587,7 +17608,7 @@
       <c r="AA553" s="1"/>
       <c r="AB553" s="1"/>
     </row>
-    <row r="554" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="6"/>
@@ -17617,7 +17638,7 @@
       <c r="AA554" s="1"/>
       <c r="AB554" s="1"/>
     </row>
-    <row r="555" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="6"/>
@@ -17647,7 +17668,7 @@
       <c r="AA555" s="1"/>
       <c r="AB555" s="1"/>
     </row>
-    <row r="556" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="6"/>
@@ -17677,7 +17698,7 @@
       <c r="AA556" s="1"/>
       <c r="AB556" s="1"/>
     </row>
-    <row r="557" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="6"/>
@@ -17707,7 +17728,7 @@
       <c r="AA557" s="1"/>
       <c r="AB557" s="1"/>
     </row>
-    <row r="558" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="6"/>
@@ -17737,7 +17758,7 @@
       <c r="AA558" s="1"/>
       <c r="AB558" s="1"/>
     </row>
-    <row r="559" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="6"/>
@@ -17767,7 +17788,7 @@
       <c r="AA559" s="1"/>
       <c r="AB559" s="1"/>
     </row>
-    <row r="560" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="6"/>
@@ -17797,7 +17818,7 @@
       <c r="AA560" s="1"/>
       <c r="AB560" s="1"/>
     </row>
-    <row r="561" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="6"/>
@@ -17827,7 +17848,7 @@
       <c r="AA561" s="1"/>
       <c r="AB561" s="1"/>
     </row>
-    <row r="562" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="6"/>
@@ -17857,7 +17878,7 @@
       <c r="AA562" s="1"/>
       <c r="AB562" s="1"/>
     </row>
-    <row r="563" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="6"/>
@@ -17887,7 +17908,7 @@
       <c r="AA563" s="1"/>
       <c r="AB563" s="1"/>
     </row>
-    <row r="564" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="6"/>
@@ -17917,7 +17938,7 @@
       <c r="AA564" s="1"/>
       <c r="AB564" s="1"/>
     </row>
-    <row r="565" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="6"/>
@@ -17947,7 +17968,7 @@
       <c r="AA565" s="1"/>
       <c r="AB565" s="1"/>
     </row>
-    <row r="566" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="6"/>
@@ -17977,7 +17998,7 @@
       <c r="AA566" s="1"/>
       <c r="AB566" s="1"/>
     </row>
-    <row r="567" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="6"/>
@@ -18007,7 +18028,7 @@
       <c r="AA567" s="1"/>
       <c r="AB567" s="1"/>
     </row>
-    <row r="568" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="6"/>
@@ -18037,7 +18058,7 @@
       <c r="AA568" s="1"/>
       <c r="AB568" s="1"/>
     </row>
-    <row r="569" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="6"/>
@@ -18067,7 +18088,7 @@
       <c r="AA569" s="1"/>
       <c r="AB569" s="1"/>
     </row>
-    <row r="570" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="6"/>
@@ -18097,7 +18118,7 @@
       <c r="AA570" s="1"/>
       <c r="AB570" s="1"/>
     </row>
-    <row r="571" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="6"/>
@@ -18127,7 +18148,7 @@
       <c r="AA571" s="1"/>
       <c r="AB571" s="1"/>
     </row>
-    <row r="572" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="6"/>
@@ -18157,7 +18178,7 @@
       <c r="AA572" s="1"/>
       <c r="AB572" s="1"/>
     </row>
-    <row r="573" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="6"/>
@@ -18187,7 +18208,7 @@
       <c r="AA573" s="1"/>
       <c r="AB573" s="1"/>
     </row>
-    <row r="574" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="6"/>
@@ -18217,7 +18238,7 @@
       <c r="AA574" s="1"/>
       <c r="AB574" s="1"/>
     </row>
-    <row r="575" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="6"/>
@@ -18247,7 +18268,7 @@
       <c r="AA575" s="1"/>
       <c r="AB575" s="1"/>
     </row>
-    <row r="576" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="6"/>
@@ -18277,7 +18298,7 @@
       <c r="AA576" s="1"/>
       <c r="AB576" s="1"/>
     </row>
-    <row r="577" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="6"/>
@@ -18307,7 +18328,7 @@
       <c r="AA577" s="1"/>
       <c r="AB577" s="1"/>
     </row>
-    <row r="578" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="6"/>
@@ -18337,7 +18358,7 @@
       <c r="AA578" s="1"/>
       <c r="AB578" s="1"/>
     </row>
-    <row r="579" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="6"/>
@@ -18367,7 +18388,7 @@
       <c r="AA579" s="1"/>
       <c r="AB579" s="1"/>
     </row>
-    <row r="580" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="6"/>
@@ -18397,7 +18418,7 @@
       <c r="AA580" s="1"/>
       <c r="AB580" s="1"/>
     </row>
-    <row r="581" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="6"/>
@@ -18427,7 +18448,7 @@
       <c r="AA581" s="1"/>
       <c r="AB581" s="1"/>
     </row>
-    <row r="582" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="6"/>
@@ -18457,7 +18478,7 @@
       <c r="AA582" s="1"/>
       <c r="AB582" s="1"/>
     </row>
-    <row r="583" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="6"/>
@@ -18487,7 +18508,7 @@
       <c r="AA583" s="1"/>
       <c r="AB583" s="1"/>
     </row>
-    <row r="584" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="6"/>
@@ -18517,7 +18538,7 @@
       <c r="AA584" s="1"/>
       <c r="AB584" s="1"/>
     </row>
-    <row r="585" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="6"/>
@@ -18547,7 +18568,7 @@
       <c r="AA585" s="1"/>
       <c r="AB585" s="1"/>
     </row>
-    <row r="586" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="6"/>
@@ -18577,7 +18598,7 @@
       <c r="AA586" s="1"/>
       <c r="AB586" s="1"/>
     </row>
-    <row r="587" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="6"/>
@@ -18607,7 +18628,7 @@
       <c r="AA587" s="1"/>
       <c r="AB587" s="1"/>
     </row>
-    <row r="588" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="6"/>
@@ -18637,7 +18658,7 @@
       <c r="AA588" s="1"/>
       <c r="AB588" s="1"/>
     </row>
-    <row r="589" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="6"/>
@@ -18667,7 +18688,7 @@
       <c r="AA589" s="1"/>
       <c r="AB589" s="1"/>
     </row>
-    <row r="590" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="6"/>
@@ -18697,7 +18718,7 @@
       <c r="AA590" s="1"/>
       <c r="AB590" s="1"/>
     </row>
-    <row r="591" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="6"/>
@@ -18727,7 +18748,7 @@
       <c r="AA591" s="1"/>
       <c r="AB591" s="1"/>
     </row>
-    <row r="592" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="6"/>
@@ -18757,7 +18778,7 @@
       <c r="AA592" s="1"/>
       <c r="AB592" s="1"/>
     </row>
-    <row r="593" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="6"/>
@@ -18787,7 +18808,7 @@
       <c r="AA593" s="1"/>
       <c r="AB593" s="1"/>
     </row>
-    <row r="594" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="6"/>
@@ -18817,7 +18838,7 @@
       <c r="AA594" s="1"/>
       <c r="AB594" s="1"/>
     </row>
-    <row r="595" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="6"/>
@@ -18847,7 +18868,7 @@
       <c r="AA595" s="1"/>
       <c r="AB595" s="1"/>
     </row>
-    <row r="596" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="6"/>
@@ -18877,7 +18898,7 @@
       <c r="AA596" s="1"/>
       <c r="AB596" s="1"/>
     </row>
-    <row r="597" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="6"/>
@@ -18907,7 +18928,7 @@
       <c r="AA597" s="1"/>
       <c r="AB597" s="1"/>
     </row>
-    <row r="598" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="6"/>
@@ -18937,7 +18958,7 @@
       <c r="AA598" s="1"/>
       <c r="AB598" s="1"/>
     </row>
-    <row r="599" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="6"/>
@@ -18967,7 +18988,7 @@
       <c r="AA599" s="1"/>
       <c r="AB599" s="1"/>
     </row>
-    <row r="600" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="6"/>
@@ -18997,7 +19018,7 @@
       <c r="AA600" s="1"/>
       <c r="AB600" s="1"/>
     </row>
-    <row r="601" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="6"/>
@@ -19027,7 +19048,7 @@
       <c r="AA601" s="1"/>
       <c r="AB601" s="1"/>
     </row>
-    <row r="602" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="6"/>
@@ -19057,7 +19078,7 @@
       <c r="AA602" s="1"/>
       <c r="AB602" s="1"/>
     </row>
-    <row r="603" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="6"/>
@@ -19087,7 +19108,7 @@
       <c r="AA603" s="1"/>
       <c r="AB603" s="1"/>
     </row>
-    <row r="604" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="6"/>
@@ -19117,7 +19138,7 @@
       <c r="AA604" s="1"/>
       <c r="AB604" s="1"/>
     </row>
-    <row r="605" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="6"/>
@@ -19147,7 +19168,7 @@
       <c r="AA605" s="1"/>
       <c r="AB605" s="1"/>
     </row>
-    <row r="606" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="6"/>
@@ -19177,7 +19198,7 @@
       <c r="AA606" s="1"/>
       <c r="AB606" s="1"/>
     </row>
-    <row r="607" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="6"/>
@@ -19207,7 +19228,7 @@
       <c r="AA607" s="1"/>
       <c r="AB607" s="1"/>
     </row>
-    <row r="608" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="6"/>
@@ -19237,7 +19258,7 @@
       <c r="AA608" s="1"/>
       <c r="AB608" s="1"/>
     </row>
-    <row r="609" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="6"/>
@@ -19267,7 +19288,7 @@
       <c r="AA609" s="1"/>
       <c r="AB609" s="1"/>
     </row>
-    <row r="610" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="6"/>
@@ -19297,7 +19318,7 @@
       <c r="AA610" s="1"/>
       <c r="AB610" s="1"/>
     </row>
-    <row r="611" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="6"/>
@@ -19327,7 +19348,7 @@
       <c r="AA611" s="1"/>
       <c r="AB611" s="1"/>
     </row>
-    <row r="612" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="6"/>
@@ -19357,7 +19378,7 @@
       <c r="AA612" s="1"/>
       <c r="AB612" s="1"/>
     </row>
-    <row r="613" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="6"/>
@@ -19387,7 +19408,7 @@
       <c r="AA613" s="1"/>
       <c r="AB613" s="1"/>
     </row>
-    <row r="614" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="6"/>
@@ -19417,7 +19438,7 @@
       <c r="AA614" s="1"/>
       <c r="AB614" s="1"/>
     </row>
-    <row r="615" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="6"/>
@@ -19447,7 +19468,7 @@
       <c r="AA615" s="1"/>
       <c r="AB615" s="1"/>
     </row>
-    <row r="616" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="6"/>
@@ -19477,7 +19498,7 @@
       <c r="AA616" s="1"/>
       <c r="AB616" s="1"/>
     </row>
-    <row r="617" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="6"/>
@@ -19507,7 +19528,7 @@
       <c r="AA617" s="1"/>
       <c r="AB617" s="1"/>
     </row>
-    <row r="618" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="6"/>
@@ -19537,7 +19558,7 @@
       <c r="AA618" s="1"/>
       <c r="AB618" s="1"/>
     </row>
-    <row r="619" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="6"/>
@@ -19567,7 +19588,7 @@
       <c r="AA619" s="1"/>
       <c r="AB619" s="1"/>
     </row>
-    <row r="620" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="6"/>
@@ -19597,7 +19618,7 @@
       <c r="AA620" s="1"/>
       <c r="AB620" s="1"/>
     </row>
-    <row r="621" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="6"/>
@@ -19627,7 +19648,7 @@
       <c r="AA621" s="1"/>
       <c r="AB621" s="1"/>
     </row>
-    <row r="622" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="6"/>
@@ -19657,7 +19678,7 @@
       <c r="AA622" s="1"/>
       <c r="AB622" s="1"/>
     </row>
-    <row r="623" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="6"/>
@@ -19687,7 +19708,7 @@
       <c r="AA623" s="1"/>
       <c r="AB623" s="1"/>
     </row>
-    <row r="624" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="6"/>
@@ -19717,7 +19738,7 @@
       <c r="AA624" s="1"/>
       <c r="AB624" s="1"/>
     </row>
-    <row r="625" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="6"/>
@@ -19747,7 +19768,7 @@
       <c r="AA625" s="1"/>
       <c r="AB625" s="1"/>
     </row>
-    <row r="626" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="6"/>
@@ -19777,7 +19798,7 @@
       <c r="AA626" s="1"/>
       <c r="AB626" s="1"/>
     </row>
-    <row r="627" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="6"/>
@@ -19807,7 +19828,7 @@
       <c r="AA627" s="1"/>
       <c r="AB627" s="1"/>
     </row>
-    <row r="628" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="6"/>
@@ -19837,7 +19858,7 @@
       <c r="AA628" s="1"/>
       <c r="AB628" s="1"/>
     </row>
-    <row r="629" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="6"/>
@@ -19867,7 +19888,7 @@
       <c r="AA629" s="1"/>
       <c r="AB629" s="1"/>
     </row>
-    <row r="630" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="6"/>
@@ -19897,7 +19918,7 @@
       <c r="AA630" s="1"/>
       <c r="AB630" s="1"/>
     </row>
-    <row r="631" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="6"/>
@@ -19927,7 +19948,7 @@
       <c r="AA631" s="1"/>
       <c r="AB631" s="1"/>
     </row>
-    <row r="632" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="6"/>
@@ -19957,7 +19978,7 @@
       <c r="AA632" s="1"/>
       <c r="AB632" s="1"/>
     </row>
-    <row r="633" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="6"/>
@@ -19987,7 +20008,7 @@
       <c r="AA633" s="1"/>
       <c r="AB633" s="1"/>
     </row>
-    <row r="634" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="6"/>
@@ -20017,7 +20038,7 @@
       <c r="AA634" s="1"/>
       <c r="AB634" s="1"/>
     </row>
-    <row r="635" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="6"/>
@@ -20047,7 +20068,7 @@
       <c r="AA635" s="1"/>
       <c r="AB635" s="1"/>
     </row>
-    <row r="636" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="6"/>
@@ -20077,7 +20098,7 @@
       <c r="AA636" s="1"/>
       <c r="AB636" s="1"/>
     </row>
-    <row r="637" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="6"/>
@@ -20107,7 +20128,7 @@
       <c r="AA637" s="1"/>
       <c r="AB637" s="1"/>
     </row>
-    <row r="638" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="6"/>
@@ -20137,7 +20158,7 @@
       <c r="AA638" s="1"/>
       <c r="AB638" s="1"/>
     </row>
-    <row r="639" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="6"/>
@@ -20167,7 +20188,7 @@
       <c r="AA639" s="1"/>
       <c r="AB639" s="1"/>
     </row>
-    <row r="640" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="6"/>
@@ -20197,7 +20218,7 @@
       <c r="AA640" s="1"/>
       <c r="AB640" s="1"/>
     </row>
-    <row r="641" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="6"/>
@@ -20227,7 +20248,7 @@
       <c r="AA641" s="1"/>
       <c r="AB641" s="1"/>
     </row>
-    <row r="642" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="6"/>
@@ -20257,7 +20278,7 @@
       <c r="AA642" s="1"/>
       <c r="AB642" s="1"/>
     </row>
-    <row r="643" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="6"/>
@@ -20287,7 +20308,7 @@
       <c r="AA643" s="1"/>
       <c r="AB643" s="1"/>
     </row>
-    <row r="644" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="6"/>
@@ -20317,7 +20338,7 @@
       <c r="AA644" s="1"/>
       <c r="AB644" s="1"/>
     </row>
-    <row r="645" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="6"/>
@@ -20347,7 +20368,7 @@
       <c r="AA645" s="1"/>
       <c r="AB645" s="1"/>
     </row>
-    <row r="646" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="6"/>
@@ -20377,7 +20398,7 @@
       <c r="AA646" s="1"/>
       <c r="AB646" s="1"/>
     </row>
-    <row r="647" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="6"/>
@@ -20407,7 +20428,7 @@
       <c r="AA647" s="1"/>
       <c r="AB647" s="1"/>
     </row>
-    <row r="648" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="6"/>
@@ -20437,7 +20458,7 @@
       <c r="AA648" s="1"/>
       <c r="AB648" s="1"/>
     </row>
-    <row r="649" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="6"/>
@@ -20467,7 +20488,7 @@
       <c r="AA649" s="1"/>
       <c r="AB649" s="1"/>
     </row>
-    <row r="650" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="6"/>
@@ -20497,7 +20518,7 @@
       <c r="AA650" s="1"/>
       <c r="AB650" s="1"/>
     </row>
-    <row r="651" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="6"/>
@@ -20527,7 +20548,7 @@
       <c r="AA651" s="1"/>
       <c r="AB651" s="1"/>
     </row>
-    <row r="652" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="6"/>
@@ -20557,7 +20578,7 @@
       <c r="AA652" s="1"/>
       <c r="AB652" s="1"/>
     </row>
-    <row r="653" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="6"/>
@@ -20587,7 +20608,7 @@
       <c r="AA653" s="1"/>
       <c r="AB653" s="1"/>
     </row>
-    <row r="654" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="6"/>
@@ -20617,7 +20638,7 @@
       <c r="AA654" s="1"/>
       <c r="AB654" s="1"/>
     </row>
-    <row r="655" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="6"/>
@@ -20647,7 +20668,7 @@
       <c r="AA655" s="1"/>
       <c r="AB655" s="1"/>
     </row>
-    <row r="656" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="6"/>
@@ -20677,7 +20698,7 @@
       <c r="AA656" s="1"/>
       <c r="AB656" s="1"/>
     </row>
-    <row r="657" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="6"/>
@@ -20707,7 +20728,7 @@
       <c r="AA657" s="1"/>
       <c r="AB657" s="1"/>
     </row>
-    <row r="658" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="6"/>
@@ -20737,7 +20758,7 @@
       <c r="AA658" s="1"/>
       <c r="AB658" s="1"/>
     </row>
-    <row r="659" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="6"/>
@@ -20767,7 +20788,7 @@
       <c r="AA659" s="1"/>
       <c r="AB659" s="1"/>
     </row>
-    <row r="660" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="6"/>
@@ -20797,7 +20818,7 @@
       <c r="AA660" s="1"/>
       <c r="AB660" s="1"/>
     </row>
-    <row r="661" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="6"/>
@@ -20827,7 +20848,7 @@
       <c r="AA661" s="1"/>
       <c r="AB661" s="1"/>
     </row>
-    <row r="662" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="6"/>
@@ -20857,7 +20878,7 @@
       <c r="AA662" s="1"/>
       <c r="AB662" s="1"/>
     </row>
-    <row r="663" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="6"/>
@@ -20887,7 +20908,7 @@
       <c r="AA663" s="1"/>
       <c r="AB663" s="1"/>
     </row>
-    <row r="664" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="6"/>
@@ -20917,7 +20938,7 @@
       <c r="AA664" s="1"/>
       <c r="AB664" s="1"/>
     </row>
-    <row r="665" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="6"/>
@@ -20947,7 +20968,7 @@
       <c r="AA665" s="1"/>
       <c r="AB665" s="1"/>
     </row>
-    <row r="666" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="6"/>
@@ -20977,7 +20998,7 @@
       <c r="AA666" s="1"/>
       <c r="AB666" s="1"/>
     </row>
-    <row r="667" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="6"/>
@@ -21007,7 +21028,7 @@
       <c r="AA667" s="1"/>
       <c r="AB667" s="1"/>
     </row>
-    <row r="668" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="6"/>
@@ -21037,7 +21058,7 @@
       <c r="AA668" s="1"/>
       <c r="AB668" s="1"/>
     </row>
-    <row r="669" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="6"/>
@@ -21067,7 +21088,7 @@
       <c r="AA669" s="1"/>
       <c r="AB669" s="1"/>
     </row>
-    <row r="670" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="6"/>
@@ -21097,7 +21118,7 @@
       <c r="AA670" s="1"/>
       <c r="AB670" s="1"/>
     </row>
-    <row r="671" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="6"/>
@@ -21127,7 +21148,7 @@
       <c r="AA671" s="1"/>
       <c r="AB671" s="1"/>
     </row>
-    <row r="672" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="6"/>
@@ -21157,7 +21178,7 @@
       <c r="AA672" s="1"/>
       <c r="AB672" s="1"/>
     </row>
-    <row r="673" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="6"/>
@@ -21187,7 +21208,7 @@
       <c r="AA673" s="1"/>
       <c r="AB673" s="1"/>
     </row>
-    <row r="674" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="6"/>
@@ -21217,7 +21238,7 @@
       <c r="AA674" s="1"/>
       <c r="AB674" s="1"/>
     </row>
-    <row r="675" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="6"/>
@@ -21247,7 +21268,7 @@
       <c r="AA675" s="1"/>
       <c r="AB675" s="1"/>
     </row>
-    <row r="676" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="6"/>
@@ -21277,7 +21298,7 @@
       <c r="AA676" s="1"/>
       <c r="AB676" s="1"/>
     </row>
-    <row r="677" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="6"/>
@@ -21307,7 +21328,7 @@
       <c r="AA677" s="1"/>
       <c r="AB677" s="1"/>
     </row>
-    <row r="678" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="6"/>
@@ -21337,7 +21358,7 @@
       <c r="AA678" s="1"/>
       <c r="AB678" s="1"/>
     </row>
-    <row r="679" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="6"/>
@@ -21367,7 +21388,7 @@
       <c r="AA679" s="1"/>
       <c r="AB679" s="1"/>
     </row>
-    <row r="680" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="6"/>
@@ -21397,7 +21418,7 @@
       <c r="AA680" s="1"/>
       <c r="AB680" s="1"/>
     </row>
-    <row r="681" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="6"/>
@@ -21427,7 +21448,7 @@
       <c r="AA681" s="1"/>
       <c r="AB681" s="1"/>
     </row>
-    <row r="682" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="6"/>
@@ -21457,7 +21478,7 @@
       <c r="AA682" s="1"/>
       <c r="AB682" s="1"/>
     </row>
-    <row r="683" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="6"/>
@@ -21487,7 +21508,7 @@
       <c r="AA683" s="1"/>
       <c r="AB683" s="1"/>
     </row>
-    <row r="684" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="6"/>
@@ -21517,7 +21538,7 @@
       <c r="AA684" s="1"/>
       <c r="AB684" s="1"/>
     </row>
-    <row r="685" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="6"/>
@@ -21547,7 +21568,7 @@
       <c r="AA685" s="1"/>
       <c r="AB685" s="1"/>
     </row>
-    <row r="686" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="6"/>
@@ -21577,7 +21598,7 @@
       <c r="AA686" s="1"/>
       <c r="AB686" s="1"/>
     </row>
-    <row r="687" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="6"/>
@@ -21607,7 +21628,7 @@
       <c r="AA687" s="1"/>
       <c r="AB687" s="1"/>
     </row>
-    <row r="688" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="6"/>
@@ -21637,7 +21658,7 @@
       <c r="AA688" s="1"/>
       <c r="AB688" s="1"/>
     </row>
-    <row r="689" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="6"/>
@@ -21667,7 +21688,7 @@
       <c r="AA689" s="1"/>
       <c r="AB689" s="1"/>
     </row>
-    <row r="690" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="6"/>
@@ -21697,7 +21718,7 @@
       <c r="AA690" s="1"/>
       <c r="AB690" s="1"/>
     </row>
-    <row r="691" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="6"/>
@@ -21727,7 +21748,7 @@
       <c r="AA691" s="1"/>
       <c r="AB691" s="1"/>
     </row>
-    <row r="692" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="6"/>
@@ -21757,7 +21778,7 @@
       <c r="AA692" s="1"/>
       <c r="AB692" s="1"/>
     </row>
-    <row r="693" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="6"/>
@@ -21787,7 +21808,7 @@
       <c r="AA693" s="1"/>
       <c r="AB693" s="1"/>
     </row>
-    <row r="694" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="6"/>
@@ -21817,7 +21838,7 @@
       <c r="AA694" s="1"/>
       <c r="AB694" s="1"/>
     </row>
-    <row r="695" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="6"/>
@@ -21847,7 +21868,7 @@
       <c r="AA695" s="1"/>
       <c r="AB695" s="1"/>
     </row>
-    <row r="696" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="6"/>
@@ -21877,7 +21898,7 @@
       <c r="AA696" s="1"/>
       <c r="AB696" s="1"/>
     </row>
-    <row r="697" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="6"/>
@@ -21907,7 +21928,7 @@
       <c r="AA697" s="1"/>
       <c r="AB697" s="1"/>
     </row>
-    <row r="698" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="6"/>
@@ -21937,7 +21958,7 @@
       <c r="AA698" s="1"/>
       <c r="AB698" s="1"/>
     </row>
-    <row r="699" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="6"/>
@@ -21967,7 +21988,7 @@
       <c r="AA699" s="1"/>
       <c r="AB699" s="1"/>
     </row>
-    <row r="700" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="6"/>
@@ -21997,7 +22018,7 @@
       <c r="AA700" s="1"/>
       <c r="AB700" s="1"/>
     </row>
-    <row r="701" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="6"/>
@@ -22027,7 +22048,7 @@
       <c r="AA701" s="1"/>
       <c r="AB701" s="1"/>
     </row>
-    <row r="702" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="6"/>
@@ -22057,7 +22078,7 @@
       <c r="AA702" s="1"/>
       <c r="AB702" s="1"/>
     </row>
-    <row r="703" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="6"/>
@@ -22087,7 +22108,7 @@
       <c r="AA703" s="1"/>
       <c r="AB703" s="1"/>
     </row>
-    <row r="704" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="6"/>
@@ -22117,7 +22138,7 @@
       <c r="AA704" s="1"/>
       <c r="AB704" s="1"/>
     </row>
-    <row r="705" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="6"/>
@@ -22147,7 +22168,7 @@
       <c r="AA705" s="1"/>
       <c r="AB705" s="1"/>
     </row>
-    <row r="706" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="6"/>
@@ -22177,7 +22198,7 @@
       <c r="AA706" s="1"/>
       <c r="AB706" s="1"/>
     </row>
-    <row r="707" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="6"/>
@@ -22207,7 +22228,7 @@
       <c r="AA707" s="1"/>
       <c r="AB707" s="1"/>
     </row>
-    <row r="708" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="6"/>
@@ -22237,7 +22258,7 @@
       <c r="AA708" s="1"/>
       <c r="AB708" s="1"/>
     </row>
-    <row r="709" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="6"/>
@@ -22267,7 +22288,7 @@
       <c r="AA709" s="1"/>
       <c r="AB709" s="1"/>
     </row>
-    <row r="710" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="6"/>
@@ -22297,7 +22318,7 @@
       <c r="AA710" s="1"/>
       <c r="AB710" s="1"/>
     </row>
-    <row r="711" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="6"/>
@@ -22327,7 +22348,7 @@
       <c r="AA711" s="1"/>
       <c r="AB711" s="1"/>
     </row>
-    <row r="712" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="6"/>
@@ -22357,7 +22378,7 @@
       <c r="AA712" s="1"/>
       <c r="AB712" s="1"/>
     </row>
-    <row r="713" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="6"/>
@@ -22387,7 +22408,7 @@
       <c r="AA713" s="1"/>
       <c r="AB713" s="1"/>
     </row>
-    <row r="714" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="6"/>
@@ -22417,7 +22438,7 @@
       <c r="AA714" s="1"/>
       <c r="AB714" s="1"/>
     </row>
-    <row r="715" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="6"/>
@@ -22447,7 +22468,7 @@
       <c r="AA715" s="1"/>
       <c r="AB715" s="1"/>
     </row>
-    <row r="716" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="6"/>
@@ -22477,7 +22498,7 @@
       <c r="AA716" s="1"/>
       <c r="AB716" s="1"/>
     </row>
-    <row r="717" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="6"/>
@@ -22507,7 +22528,7 @@
       <c r="AA717" s="1"/>
       <c r="AB717" s="1"/>
     </row>
-    <row r="718" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="6"/>
@@ -22537,7 +22558,7 @@
       <c r="AA718" s="1"/>
       <c r="AB718" s="1"/>
     </row>
-    <row r="719" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="6"/>
@@ -22567,7 +22588,7 @@
       <c r="AA719" s="1"/>
       <c r="AB719" s="1"/>
     </row>
-    <row r="720" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="6"/>
@@ -22597,7 +22618,7 @@
       <c r="AA720" s="1"/>
       <c r="AB720" s="1"/>
     </row>
-    <row r="721" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="6"/>
@@ -22627,7 +22648,7 @@
       <c r="AA721" s="1"/>
       <c r="AB721" s="1"/>
     </row>
-    <row r="722" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="6"/>
@@ -22657,7 +22678,7 @@
       <c r="AA722" s="1"/>
       <c r="AB722" s="1"/>
     </row>
-    <row r="723" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="6"/>
@@ -22687,7 +22708,7 @@
       <c r="AA723" s="1"/>
       <c r="AB723" s="1"/>
     </row>
-    <row r="724" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="6"/>
@@ -22717,7 +22738,7 @@
       <c r="AA724" s="1"/>
       <c r="AB724" s="1"/>
     </row>
-    <row r="725" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="6"/>
@@ -22747,7 +22768,7 @@
       <c r="AA725" s="1"/>
       <c r="AB725" s="1"/>
     </row>
-    <row r="726" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="6"/>
@@ -22777,7 +22798,7 @@
       <c r="AA726" s="1"/>
       <c r="AB726" s="1"/>
     </row>
-    <row r="727" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="6"/>
@@ -22807,7 +22828,7 @@
       <c r="AA727" s="1"/>
       <c r="AB727" s="1"/>
     </row>
-    <row r="728" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="6"/>
@@ -22837,7 +22858,7 @@
       <c r="AA728" s="1"/>
       <c r="AB728" s="1"/>
     </row>
-    <row r="729" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="6"/>
@@ -22867,7 +22888,7 @@
       <c r="AA729" s="1"/>
       <c r="AB729" s="1"/>
     </row>
-    <row r="730" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="6"/>
@@ -22897,7 +22918,7 @@
       <c r="AA730" s="1"/>
       <c r="AB730" s="1"/>
     </row>
-    <row r="731" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="6"/>
@@ -22927,7 +22948,7 @@
       <c r="AA731" s="1"/>
       <c r="AB731" s="1"/>
     </row>
-    <row r="732" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="6"/>
@@ -22957,7 +22978,7 @@
       <c r="AA732" s="1"/>
       <c r="AB732" s="1"/>
     </row>
-    <row r="733" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="6"/>
@@ -22987,7 +23008,7 @@
       <c r="AA733" s="1"/>
       <c r="AB733" s="1"/>
     </row>
-    <row r="734" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="6"/>
@@ -23017,7 +23038,7 @@
       <c r="AA734" s="1"/>
       <c r="AB734" s="1"/>
     </row>
-    <row r="735" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="6"/>
@@ -23047,7 +23068,7 @@
       <c r="AA735" s="1"/>
       <c r="AB735" s="1"/>
     </row>
-    <row r="736" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="6"/>
@@ -23077,7 +23098,7 @@
       <c r="AA736" s="1"/>
       <c r="AB736" s="1"/>
     </row>
-    <row r="737" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="6"/>
@@ -23107,7 +23128,7 @@
       <c r="AA737" s="1"/>
       <c r="AB737" s="1"/>
     </row>
-    <row r="738" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="6"/>
@@ -23137,7 +23158,7 @@
       <c r="AA738" s="1"/>
       <c r="AB738" s="1"/>
     </row>
-    <row r="739" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="6"/>
@@ -23167,7 +23188,7 @@
       <c r="AA739" s="1"/>
       <c r="AB739" s="1"/>
     </row>
-    <row r="740" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="6"/>
@@ -23197,7 +23218,7 @@
       <c r="AA740" s="1"/>
       <c r="AB740" s="1"/>
     </row>
-    <row r="741" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="6"/>
@@ -23227,7 +23248,7 @@
       <c r="AA741" s="1"/>
       <c r="AB741" s="1"/>
     </row>
-    <row r="742" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="6"/>
@@ -23257,7 +23278,7 @@
       <c r="AA742" s="1"/>
       <c r="AB742" s="1"/>
     </row>
-    <row r="743" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="6"/>
@@ -23287,7 +23308,7 @@
       <c r="AA743" s="1"/>
       <c r="AB743" s="1"/>
     </row>
-    <row r="744" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="6"/>
@@ -23317,7 +23338,7 @@
       <c r="AA744" s="1"/>
       <c r="AB744" s="1"/>
     </row>
-    <row r="745" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="6"/>
@@ -23347,7 +23368,7 @@
       <c r="AA745" s="1"/>
       <c r="AB745" s="1"/>
     </row>
-    <row r="746" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="6"/>
@@ -23377,7 +23398,7 @@
       <c r="AA746" s="1"/>
       <c r="AB746" s="1"/>
     </row>
-    <row r="747" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="6"/>
@@ -23407,7 +23428,7 @@
       <c r="AA747" s="1"/>
       <c r="AB747" s="1"/>
     </row>
-    <row r="748" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="6"/>
@@ -23437,7 +23458,7 @@
       <c r="AA748" s="1"/>
       <c r="AB748" s="1"/>
     </row>
-    <row r="749" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="6"/>
@@ -23467,7 +23488,7 @@
       <c r="AA749" s="1"/>
       <c r="AB749" s="1"/>
     </row>
-    <row r="750" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="6"/>
@@ -23497,7 +23518,7 @@
       <c r="AA750" s="1"/>
       <c r="AB750" s="1"/>
     </row>
-    <row r="751" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="6"/>
@@ -23527,7 +23548,7 @@
       <c r="AA751" s="1"/>
       <c r="AB751" s="1"/>
     </row>
-    <row r="752" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="6"/>
@@ -23557,7 +23578,7 @@
       <c r="AA752" s="1"/>
       <c r="AB752" s="1"/>
     </row>
-    <row r="753" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="6"/>
@@ -23587,7 +23608,7 @@
       <c r="AA753" s="1"/>
       <c r="AB753" s="1"/>
     </row>
-    <row r="754" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="6"/>
@@ -23617,7 +23638,7 @@
       <c r="AA754" s="1"/>
       <c r="AB754" s="1"/>
     </row>
-    <row r="755" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="6"/>
@@ -23647,7 +23668,7 @@
       <c r="AA755" s="1"/>
       <c r="AB755" s="1"/>
     </row>
-    <row r="756" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="6"/>
@@ -23677,7 +23698,7 @@
       <c r="AA756" s="1"/>
       <c r="AB756" s="1"/>
     </row>
-    <row r="757" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="6"/>
@@ -23707,7 +23728,7 @@
       <c r="AA757" s="1"/>
       <c r="AB757" s="1"/>
     </row>
-    <row r="758" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="6"/>
@@ -23737,7 +23758,7 @@
       <c r="AA758" s="1"/>
       <c r="AB758" s="1"/>
     </row>
-    <row r="759" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="6"/>
@@ -23767,7 +23788,7 @@
       <c r="AA759" s="1"/>
       <c r="AB759" s="1"/>
     </row>
-    <row r="760" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="6"/>
@@ -23797,7 +23818,7 @@
       <c r="AA760" s="1"/>
       <c r="AB760" s="1"/>
     </row>
-    <row r="761" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="6"/>
@@ -23827,7 +23848,7 @@
       <c r="AA761" s="1"/>
       <c r="AB761" s="1"/>
     </row>
-    <row r="762" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="6"/>
@@ -23857,7 +23878,7 @@
       <c r="AA762" s="1"/>
       <c r="AB762" s="1"/>
     </row>
-    <row r="763" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="6"/>
@@ -23887,7 +23908,7 @@
       <c r="AA763" s="1"/>
       <c r="AB763" s="1"/>
     </row>
-    <row r="764" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="6"/>
@@ -23917,7 +23938,7 @@
       <c r="AA764" s="1"/>
       <c r="AB764" s="1"/>
     </row>
-    <row r="765" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="6"/>
@@ -23947,7 +23968,7 @@
       <c r="AA765" s="1"/>
       <c r="AB765" s="1"/>
     </row>
-    <row r="766" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="6"/>
@@ -23977,7 +23998,7 @@
       <c r="AA766" s="1"/>
       <c r="AB766" s="1"/>
     </row>
-    <row r="767" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="6"/>
@@ -24007,7 +24028,7 @@
       <c r="AA767" s="1"/>
       <c r="AB767" s="1"/>
     </row>
-    <row r="768" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="6"/>
@@ -24037,7 +24058,7 @@
       <c r="AA768" s="1"/>
       <c r="AB768" s="1"/>
     </row>
-    <row r="769" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="6"/>
@@ -24067,7 +24088,7 @@
       <c r="AA769" s="1"/>
       <c r="AB769" s="1"/>
     </row>
-    <row r="770" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="6"/>
@@ -24097,7 +24118,7 @@
       <c r="AA770" s="1"/>
       <c r="AB770" s="1"/>
     </row>
-    <row r="771" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="6"/>
@@ -24127,7 +24148,7 @@
       <c r="AA771" s="1"/>
       <c r="AB771" s="1"/>
     </row>
-    <row r="772" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="6"/>
@@ -24157,7 +24178,7 @@
       <c r="AA772" s="1"/>
       <c r="AB772" s="1"/>
     </row>
-    <row r="773" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="6"/>
@@ -24187,7 +24208,7 @@
       <c r="AA773" s="1"/>
       <c r="AB773" s="1"/>
     </row>
-    <row r="774" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="6"/>
@@ -24217,7 +24238,7 @@
       <c r="AA774" s="1"/>
       <c r="AB774" s="1"/>
     </row>
-    <row r="775" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="6"/>
@@ -24247,7 +24268,7 @@
       <c r="AA775" s="1"/>
       <c r="AB775" s="1"/>
     </row>
-    <row r="776" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="6"/>
@@ -24277,7 +24298,7 @@
       <c r="AA776" s="1"/>
       <c r="AB776" s="1"/>
     </row>
-    <row r="777" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="6"/>
@@ -24307,7 +24328,7 @@
       <c r="AA777" s="1"/>
       <c r="AB777" s="1"/>
     </row>
-    <row r="778" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="6"/>
@@ -24337,7 +24358,7 @@
       <c r="AA778" s="1"/>
       <c r="AB778" s="1"/>
     </row>
-    <row r="779" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="6"/>
@@ -24367,7 +24388,7 @@
       <c r="AA779" s="1"/>
       <c r="AB779" s="1"/>
     </row>
-    <row r="780" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="6"/>
@@ -24397,7 +24418,7 @@
       <c r="AA780" s="1"/>
       <c r="AB780" s="1"/>
     </row>
-    <row r="781" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="6"/>
@@ -24427,7 +24448,7 @@
       <c r="AA781" s="1"/>
       <c r="AB781" s="1"/>
     </row>
-    <row r="782" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="6"/>
@@ -24457,7 +24478,7 @@
       <c r="AA782" s="1"/>
       <c r="AB782" s="1"/>
     </row>
-    <row r="783" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="6"/>
@@ -24487,7 +24508,7 @@
       <c r="AA783" s="1"/>
       <c r="AB783" s="1"/>
     </row>
-    <row r="784" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="6"/>
@@ -24517,7 +24538,7 @@
       <c r="AA784" s="1"/>
       <c r="AB784" s="1"/>
     </row>
-    <row r="785" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="6"/>
@@ -24547,7 +24568,7 @@
       <c r="AA785" s="1"/>
       <c r="AB785" s="1"/>
     </row>
-    <row r="786" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="6"/>
@@ -24577,7 +24598,7 @@
       <c r="AA786" s="1"/>
       <c r="AB786" s="1"/>
     </row>
-    <row r="787" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="6"/>
@@ -24607,7 +24628,7 @@
       <c r="AA787" s="1"/>
       <c r="AB787" s="1"/>
     </row>
-    <row r="788" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="6"/>
@@ -24637,7 +24658,7 @@
       <c r="AA788" s="1"/>
       <c r="AB788" s="1"/>
     </row>
-    <row r="789" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="6"/>
@@ -24667,7 +24688,7 @@
       <c r="AA789" s="1"/>
       <c r="AB789" s="1"/>
     </row>
-    <row r="790" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="6"/>
@@ -24697,7 +24718,7 @@
       <c r="AA790" s="1"/>
       <c r="AB790" s="1"/>
     </row>
-    <row r="791" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="6"/>
@@ -24727,7 +24748,7 @@
       <c r="AA791" s="1"/>
       <c r="AB791" s="1"/>
     </row>
-    <row r="792" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="6"/>
@@ -24757,7 +24778,7 @@
       <c r="AA792" s="1"/>
       <c r="AB792" s="1"/>
     </row>
-    <row r="793" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="6"/>
@@ -24787,7 +24808,7 @@
       <c r="AA793" s="1"/>
       <c r="AB793" s="1"/>
     </row>
-    <row r="794" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="6"/>
@@ -24817,7 +24838,7 @@
       <c r="AA794" s="1"/>
       <c r="AB794" s="1"/>
     </row>
-    <row r="795" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="6"/>
@@ -24847,7 +24868,7 @@
       <c r="AA795" s="1"/>
       <c r="AB795" s="1"/>
     </row>
-    <row r="796" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="6"/>
@@ -24877,7 +24898,7 @@
       <c r="AA796" s="1"/>
       <c r="AB796" s="1"/>
     </row>
-    <row r="797" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="6"/>
@@ -24907,7 +24928,7 @@
       <c r="AA797" s="1"/>
       <c r="AB797" s="1"/>
     </row>
-    <row r="798" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="6"/>
@@ -24937,7 +24958,7 @@
       <c r="AA798" s="1"/>
       <c r="AB798" s="1"/>
     </row>
-    <row r="799" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="6"/>
@@ -24967,7 +24988,7 @@
       <c r="AA799" s="1"/>
       <c r="AB799" s="1"/>
     </row>
-    <row r="800" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="6"/>
@@ -24997,7 +25018,7 @@
       <c r="AA800" s="1"/>
       <c r="AB800" s="1"/>
     </row>
-    <row r="801" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="6"/>
@@ -25027,7 +25048,7 @@
       <c r="AA801" s="1"/>
       <c r="AB801" s="1"/>
     </row>
-    <row r="802" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="6"/>
@@ -25057,7 +25078,7 @@
       <c r="AA802" s="1"/>
       <c r="AB802" s="1"/>
     </row>
-    <row r="803" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="6"/>
@@ -25087,7 +25108,7 @@
       <c r="AA803" s="1"/>
       <c r="AB803" s="1"/>
     </row>
-    <row r="804" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="6"/>
@@ -25117,7 +25138,7 @@
       <c r="AA804" s="1"/>
       <c r="AB804" s="1"/>
     </row>
-    <row r="805" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="6"/>
@@ -25147,7 +25168,7 @@
       <c r="AA805" s="1"/>
       <c r="AB805" s="1"/>
     </row>
-    <row r="806" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="6"/>
@@ -25177,7 +25198,7 @@
       <c r="AA806" s="1"/>
       <c r="AB806" s="1"/>
     </row>
-    <row r="807" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="6"/>
@@ -25207,7 +25228,7 @@
       <c r="AA807" s="1"/>
       <c r="AB807" s="1"/>
     </row>
-    <row r="808" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="6"/>
@@ -25237,7 +25258,7 @@
       <c r="AA808" s="1"/>
       <c r="AB808" s="1"/>
     </row>
-    <row r="809" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="6"/>
@@ -25267,7 +25288,7 @@
       <c r="AA809" s="1"/>
       <c r="AB809" s="1"/>
     </row>
-    <row r="810" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="6"/>
@@ -25297,7 +25318,7 @@
       <c r="AA810" s="1"/>
       <c r="AB810" s="1"/>
     </row>
-    <row r="811" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="6"/>
@@ -25327,7 +25348,7 @@
       <c r="AA811" s="1"/>
       <c r="AB811" s="1"/>
     </row>
-    <row r="812" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="6"/>
@@ -25357,7 +25378,7 @@
       <c r="AA812" s="1"/>
       <c r="AB812" s="1"/>
     </row>
-    <row r="813" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="6"/>
@@ -25387,7 +25408,7 @@
       <c r="AA813" s="1"/>
       <c r="AB813" s="1"/>
     </row>
-    <row r="814" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="6"/>
@@ -25417,7 +25438,7 @@
       <c r="AA814" s="1"/>
       <c r="AB814" s="1"/>
     </row>
-    <row r="815" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="6"/>
@@ -25447,7 +25468,7 @@
       <c r="AA815" s="1"/>
       <c r="AB815" s="1"/>
     </row>
-    <row r="816" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="6"/>
@@ -25477,7 +25498,7 @@
       <c r="AA816" s="1"/>
       <c r="AB816" s="1"/>
     </row>
-    <row r="817" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="6"/>
@@ -25507,7 +25528,7 @@
       <c r="AA817" s="1"/>
       <c r="AB817" s="1"/>
     </row>
-    <row r="818" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="6"/>
@@ -25537,7 +25558,7 @@
       <c r="AA818" s="1"/>
       <c r="AB818" s="1"/>
     </row>
-    <row r="819" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="6"/>
@@ -25567,7 +25588,7 @@
       <c r="AA819" s="1"/>
       <c r="AB819" s="1"/>
     </row>
-    <row r="820" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="6"/>
@@ -25597,7 +25618,7 @@
       <c r="AA820" s="1"/>
       <c r="AB820" s="1"/>
     </row>
-    <row r="821" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="6"/>
@@ -25627,7 +25648,7 @@
       <c r="AA821" s="1"/>
       <c r="AB821" s="1"/>
     </row>
-    <row r="822" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="6"/>
@@ -25657,7 +25678,7 @@
       <c r="AA822" s="1"/>
       <c r="AB822" s="1"/>
     </row>
-    <row r="823" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="6"/>
@@ -25687,7 +25708,7 @@
       <c r="AA823" s="1"/>
       <c r="AB823" s="1"/>
     </row>
-    <row r="824" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="6"/>
@@ -25717,7 +25738,7 @@
       <c r="AA824" s="1"/>
       <c r="AB824" s="1"/>
     </row>
-    <row r="825" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="6"/>
@@ -25747,7 +25768,7 @@
       <c r="AA825" s="1"/>
       <c r="AB825" s="1"/>
     </row>
-    <row r="826" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="6"/>
@@ -25777,7 +25798,7 @@
       <c r="AA826" s="1"/>
       <c r="AB826" s="1"/>
     </row>
-    <row r="827" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="6"/>
@@ -25807,7 +25828,7 @@
       <c r="AA827" s="1"/>
       <c r="AB827" s="1"/>
     </row>
-    <row r="828" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="6"/>
@@ -25837,7 +25858,7 @@
       <c r="AA828" s="1"/>
       <c r="AB828" s="1"/>
     </row>
-    <row r="829" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="6"/>
@@ -25867,7 +25888,7 @@
       <c r="AA829" s="1"/>
       <c r="AB829" s="1"/>
     </row>
-    <row r="830" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="6"/>
@@ -25897,7 +25918,7 @@
       <c r="AA830" s="1"/>
       <c r="AB830" s="1"/>
     </row>
-    <row r="831" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="6"/>
@@ -25927,7 +25948,7 @@
       <c r="AA831" s="1"/>
       <c r="AB831" s="1"/>
     </row>
-    <row r="832" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="6"/>
@@ -25957,7 +25978,7 @@
       <c r="AA832" s="1"/>
       <c r="AB832" s="1"/>
     </row>
-    <row r="833" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="6"/>
@@ -25987,7 +26008,7 @@
       <c r="AA833" s="1"/>
       <c r="AB833" s="1"/>
     </row>
-    <row r="834" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="6"/>
@@ -26017,7 +26038,7 @@
       <c r="AA834" s="1"/>
       <c r="AB834" s="1"/>
     </row>
-    <row r="835" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="6"/>
@@ -26047,7 +26068,7 @@
       <c r="AA835" s="1"/>
       <c r="AB835" s="1"/>
     </row>
-    <row r="836" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="6"/>
@@ -26077,7 +26098,7 @@
       <c r="AA836" s="1"/>
       <c r="AB836" s="1"/>
     </row>
-    <row r="837" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="6"/>
@@ -26107,7 +26128,7 @@
       <c r="AA837" s="1"/>
       <c r="AB837" s="1"/>
     </row>
-    <row r="838" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="6"/>
@@ -26137,7 +26158,7 @@
       <c r="AA838" s="1"/>
       <c r="AB838" s="1"/>
     </row>
-    <row r="839" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="6"/>
@@ -26167,7 +26188,7 @@
       <c r="AA839" s="1"/>
       <c r="AB839" s="1"/>
     </row>
-    <row r="840" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="6"/>
@@ -26197,7 +26218,7 @@
       <c r="AA840" s="1"/>
       <c r="AB840" s="1"/>
     </row>
-    <row r="841" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="6"/>
@@ -26227,7 +26248,7 @@
       <c r="AA841" s="1"/>
       <c r="AB841" s="1"/>
     </row>
-    <row r="842" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="6"/>
@@ -26257,7 +26278,7 @@
       <c r="AA842" s="1"/>
       <c r="AB842" s="1"/>
     </row>
-    <row r="843" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="6"/>
@@ -26287,7 +26308,7 @@
       <c r="AA843" s="1"/>
       <c r="AB843" s="1"/>
     </row>
-    <row r="844" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="6"/>
@@ -26317,7 +26338,7 @@
       <c r="AA844" s="1"/>
       <c r="AB844" s="1"/>
     </row>
-    <row r="845" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="6"/>
@@ -26347,7 +26368,7 @@
       <c r="AA845" s="1"/>
       <c r="AB845" s="1"/>
     </row>
-    <row r="846" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="6"/>
@@ -26377,7 +26398,7 @@
       <c r="AA846" s="1"/>
       <c r="AB846" s="1"/>
     </row>
-    <row r="847" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="6"/>
@@ -26407,7 +26428,7 @@
       <c r="AA847" s="1"/>
       <c r="AB847" s="1"/>
     </row>
-    <row r="848" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="6"/>
@@ -26437,7 +26458,7 @@
       <c r="AA848" s="1"/>
       <c r="AB848" s="1"/>
     </row>
-    <row r="849" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="6"/>
@@ -26467,7 +26488,7 @@
       <c r="AA849" s="1"/>
       <c r="AB849" s="1"/>
     </row>
-    <row r="850" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="6"/>
@@ -26497,7 +26518,7 @@
       <c r="AA850" s="1"/>
       <c r="AB850" s="1"/>
     </row>
-    <row r="851" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="6"/>
@@ -26527,7 +26548,7 @@
       <c r="AA851" s="1"/>
       <c r="AB851" s="1"/>
     </row>
-    <row r="852" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="6"/>
@@ -26557,7 +26578,7 @@
       <c r="AA852" s="1"/>
       <c r="AB852" s="1"/>
     </row>
-    <row r="853" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="6"/>
@@ -26587,7 +26608,7 @@
       <c r="AA853" s="1"/>
       <c r="AB853" s="1"/>
     </row>
-    <row r="854" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="6"/>
@@ -26617,7 +26638,7 @@
       <c r="AA854" s="1"/>
       <c r="AB854" s="1"/>
     </row>
-    <row r="855" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="6"/>
@@ -26647,7 +26668,7 @@
       <c r="AA855" s="1"/>
       <c r="AB855" s="1"/>
     </row>
-    <row r="856" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="6"/>
@@ -26677,7 +26698,7 @@
       <c r="AA856" s="1"/>
       <c r="AB856" s="1"/>
     </row>
-    <row r="857" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="6"/>
@@ -26707,7 +26728,7 @@
       <c r="AA857" s="1"/>
       <c r="AB857" s="1"/>
     </row>
-    <row r="858" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="6"/>
@@ -26737,7 +26758,7 @@
       <c r="AA858" s="1"/>
       <c r="AB858" s="1"/>
     </row>
-    <row r="859" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="6"/>
@@ -26767,7 +26788,7 @@
       <c r="AA859" s="1"/>
       <c r="AB859" s="1"/>
     </row>
-    <row r="860" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="6"/>
@@ -26797,7 +26818,7 @@
       <c r="AA860" s="1"/>
       <c r="AB860" s="1"/>
     </row>
-    <row r="861" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="6"/>
@@ -26827,7 +26848,7 @@
       <c r="AA861" s="1"/>
       <c r="AB861" s="1"/>
     </row>
-    <row r="862" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="6"/>
@@ -26857,7 +26878,7 @@
       <c r="AA862" s="1"/>
       <c r="AB862" s="1"/>
     </row>
-    <row r="863" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="6"/>
@@ -26887,7 +26908,7 @@
       <c r="AA863" s="1"/>
       <c r="AB863" s="1"/>
     </row>
-    <row r="864" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="6"/>
@@ -26917,7 +26938,7 @@
       <c r="AA864" s="1"/>
       <c r="AB864" s="1"/>
     </row>
-    <row r="865" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="6"/>
@@ -26947,7 +26968,7 @@
       <c r="AA865" s="1"/>
       <c r="AB865" s="1"/>
     </row>
-    <row r="866" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="6"/>
@@ -26977,7 +26998,7 @@
       <c r="AA866" s="1"/>
       <c r="AB866" s="1"/>
     </row>
-    <row r="867" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="6"/>
@@ -27007,7 +27028,7 @@
       <c r="AA867" s="1"/>
       <c r="AB867" s="1"/>
     </row>
-    <row r="868" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="6"/>
@@ -27037,7 +27058,7 @@
       <c r="AA868" s="1"/>
       <c r="AB868" s="1"/>
     </row>
-    <row r="869" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="6"/>
@@ -27067,7 +27088,7 @@
       <c r="AA869" s="1"/>
       <c r="AB869" s="1"/>
     </row>
-    <row r="870" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="6"/>
@@ -27097,7 +27118,7 @@
       <c r="AA870" s="1"/>
       <c r="AB870" s="1"/>
     </row>
-    <row r="871" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="6"/>
@@ -27127,7 +27148,7 @@
       <c r="AA871" s="1"/>
       <c r="AB871" s="1"/>
     </row>
-    <row r="872" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="6"/>
@@ -27157,7 +27178,7 @@
       <c r="AA872" s="1"/>
       <c r="AB872" s="1"/>
     </row>
-    <row r="873" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="6"/>
@@ -27187,7 +27208,7 @@
       <c r="AA873" s="1"/>
       <c r="AB873" s="1"/>
     </row>
-    <row r="874" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="6"/>
@@ -27217,7 +27238,7 @@
       <c r="AA874" s="1"/>
       <c r="AB874" s="1"/>
     </row>
-    <row r="875" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="6"/>
@@ -27247,7 +27268,7 @@
       <c r="AA875" s="1"/>
       <c r="AB875" s="1"/>
     </row>
-    <row r="876" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="6"/>
@@ -27277,7 +27298,7 @@
       <c r="AA876" s="1"/>
       <c r="AB876" s="1"/>
     </row>
-    <row r="877" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="6"/>
@@ -27307,7 +27328,7 @@
       <c r="AA877" s="1"/>
       <c r="AB877" s="1"/>
     </row>
-    <row r="878" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="6"/>
@@ -27337,7 +27358,7 @@
       <c r="AA878" s="1"/>
       <c r="AB878" s="1"/>
     </row>
-    <row r="879" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="6"/>
@@ -27367,7 +27388,7 @@
       <c r="AA879" s="1"/>
       <c r="AB879" s="1"/>
     </row>
-    <row r="880" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="6"/>
@@ -27397,7 +27418,7 @@
       <c r="AA880" s="1"/>
       <c r="AB880" s="1"/>
     </row>
-    <row r="881" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="6"/>
@@ -27427,7 +27448,7 @@
       <c r="AA881" s="1"/>
       <c r="AB881" s="1"/>
     </row>
-    <row r="882" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="6"/>
@@ -27457,7 +27478,7 @@
       <c r="AA882" s="1"/>
       <c r="AB882" s="1"/>
     </row>
-    <row r="883" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="6"/>
@@ -27487,7 +27508,7 @@
       <c r="AA883" s="1"/>
       <c r="AB883" s="1"/>
     </row>
-    <row r="884" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="6"/>
@@ -27517,7 +27538,7 @@
       <c r="AA884" s="1"/>
       <c r="AB884" s="1"/>
     </row>
-    <row r="885" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="6"/>
@@ -27547,7 +27568,7 @@
       <c r="AA885" s="1"/>
       <c r="AB885" s="1"/>
     </row>
-    <row r="886" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="6"/>
@@ -27577,7 +27598,7 @@
       <c r="AA886" s="1"/>
       <c r="AB886" s="1"/>
     </row>
-    <row r="887" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="6"/>
@@ -27607,7 +27628,7 @@
       <c r="AA887" s="1"/>
       <c r="AB887" s="1"/>
     </row>
-    <row r="888" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="6"/>
@@ -27637,7 +27658,7 @@
       <c r="AA888" s="1"/>
       <c r="AB888" s="1"/>
     </row>
-    <row r="889" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="6"/>
@@ -27667,7 +27688,7 @@
       <c r="AA889" s="1"/>
       <c r="AB889" s="1"/>
     </row>
-    <row r="890" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="6"/>
@@ -27697,7 +27718,7 @@
       <c r="AA890" s="1"/>
       <c r="AB890" s="1"/>
     </row>
-    <row r="891" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="6"/>
@@ -27727,7 +27748,7 @@
       <c r="AA891" s="1"/>
       <c r="AB891" s="1"/>
     </row>
-    <row r="892" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="6"/>
@@ -27757,7 +27778,7 @@
       <c r="AA892" s="1"/>
       <c r="AB892" s="1"/>
     </row>
-    <row r="893" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="6"/>
@@ -27787,7 +27808,7 @@
       <c r="AA893" s="1"/>
       <c r="AB893" s="1"/>
     </row>
-    <row r="894" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="6"/>
@@ -27817,7 +27838,7 @@
       <c r="AA894" s="1"/>
       <c r="AB894" s="1"/>
     </row>
-    <row r="895" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="6"/>
@@ -27847,7 +27868,7 @@
       <c r="AA895" s="1"/>
       <c r="AB895" s="1"/>
     </row>
-    <row r="896" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="6"/>
@@ -27877,7 +27898,7 @@
       <c r="AA896" s="1"/>
       <c r="AB896" s="1"/>
     </row>
-    <row r="897" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="6"/>
@@ -27907,7 +27928,7 @@
       <c r="AA897" s="1"/>
       <c r="AB897" s="1"/>
     </row>
-    <row r="898" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="6"/>
@@ -27937,7 +27958,7 @@
       <c r="AA898" s="1"/>
       <c r="AB898" s="1"/>
     </row>
-    <row r="899" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="6"/>
@@ -27967,7 +27988,7 @@
       <c r="AA899" s="1"/>
       <c r="AB899" s="1"/>
     </row>
-    <row r="900" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="6"/>
@@ -27997,7 +28018,7 @@
       <c r="AA900" s="1"/>
       <c r="AB900" s="1"/>
     </row>
-    <row r="901" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="6"/>
@@ -28027,7 +28048,7 @@
       <c r="AA901" s="1"/>
       <c r="AB901" s="1"/>
     </row>
-    <row r="902" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="6"/>
@@ -28057,7 +28078,7 @@
       <c r="AA902" s="1"/>
       <c r="AB902" s="1"/>
     </row>
-    <row r="903" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="6"/>
@@ -28087,7 +28108,7 @@
       <c r="AA903" s="1"/>
       <c r="AB903" s="1"/>
     </row>
-    <row r="904" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="6"/>
@@ -28117,7 +28138,7 @@
       <c r="AA904" s="1"/>
       <c r="AB904" s="1"/>
     </row>
-    <row r="905" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="6"/>
@@ -28147,7 +28168,7 @@
       <c r="AA905" s="1"/>
       <c r="AB905" s="1"/>
     </row>
-    <row r="906" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="6"/>
@@ -28177,7 +28198,7 @@
       <c r="AA906" s="1"/>
       <c r="AB906" s="1"/>
     </row>
-    <row r="907" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="6"/>
@@ -28207,7 +28228,7 @@
       <c r="AA907" s="1"/>
       <c r="AB907" s="1"/>
     </row>
-    <row r="908" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="6"/>
@@ -28237,7 +28258,7 @@
       <c r="AA908" s="1"/>
       <c r="AB908" s="1"/>
     </row>
-    <row r="909" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="6"/>
@@ -28267,7 +28288,7 @@
       <c r="AA909" s="1"/>
       <c r="AB909" s="1"/>
     </row>
-    <row r="910" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="6"/>
@@ -28297,7 +28318,7 @@
       <c r="AA910" s="1"/>
       <c r="AB910" s="1"/>
     </row>
-    <row r="911" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="6"/>
@@ -28327,7 +28348,7 @@
       <c r="AA911" s="1"/>
       <c r="AB911" s="1"/>
     </row>
-    <row r="912" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="6"/>
@@ -28357,7 +28378,7 @@
       <c r="AA912" s="1"/>
       <c r="AB912" s="1"/>
     </row>
-    <row r="913" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="6"/>
@@ -28387,7 +28408,7 @@
       <c r="AA913" s="1"/>
       <c r="AB913" s="1"/>
     </row>
-    <row r="914" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="6"/>
@@ -28417,7 +28438,7 @@
       <c r="AA914" s="1"/>
       <c r="AB914" s="1"/>
     </row>
-    <row r="915" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="6"/>
@@ -28447,7 +28468,7 @@
       <c r="AA915" s="1"/>
       <c r="AB915" s="1"/>
     </row>
-    <row r="916" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="6"/>
@@ -28477,7 +28498,7 @@
       <c r="AA916" s="1"/>
       <c r="AB916" s="1"/>
     </row>
-    <row r="917" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="6"/>
@@ -28507,7 +28528,7 @@
       <c r="AA917" s="1"/>
       <c r="AB917" s="1"/>
     </row>
-    <row r="918" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="6"/>
@@ -28537,7 +28558,7 @@
       <c r="AA918" s="1"/>
       <c r="AB918" s="1"/>
     </row>
-    <row r="919" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="6"/>
@@ -28567,7 +28588,7 @@
       <c r="AA919" s="1"/>
       <c r="AB919" s="1"/>
     </row>
-    <row r="920" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="6"/>
@@ -28597,7 +28618,7 @@
       <c r="AA920" s="1"/>
       <c r="AB920" s="1"/>
     </row>
-    <row r="921" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="6"/>
@@ -28627,7 +28648,7 @@
       <c r="AA921" s="1"/>
       <c r="AB921" s="1"/>
     </row>
-    <row r="922" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
       <c r="C922" s="6"/>
@@ -28657,7 +28678,7 @@
       <c r="AA922" s="1"/>
       <c r="AB922" s="1"/>
     </row>
-    <row r="923" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
       <c r="C923" s="6"/>
@@ -28687,7 +28708,7 @@
       <c r="AA923" s="1"/>
       <c r="AB923" s="1"/>
     </row>
-    <row r="924" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
       <c r="C924" s="6"/>
@@ -28717,7 +28738,7 @@
       <c r="AA924" s="1"/>
       <c r="AB924" s="1"/>
     </row>
-    <row r="925" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
       <c r="C925" s="6"/>
@@ -28747,7 +28768,7 @@
       <c r="AA925" s="1"/>
       <c r="AB925" s="1"/>
     </row>
-    <row r="926" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
       <c r="C926" s="6"/>
@@ -28777,7 +28798,7 @@
       <c r="AA926" s="1"/>
       <c r="AB926" s="1"/>
     </row>
-    <row r="927" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
       <c r="C927" s="6"/>
@@ -28807,7 +28828,7 @@
       <c r="AA927" s="1"/>
       <c r="AB927" s="1"/>
     </row>
-    <row r="928" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
       <c r="C928" s="6"/>
@@ -28837,7 +28858,7 @@
       <c r="AA928" s="1"/>
       <c r="AB928" s="1"/>
     </row>
-    <row r="929" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
       <c r="C929" s="6"/>
@@ -28867,7 +28888,7 @@
       <c r="AA929" s="1"/>
       <c r="AB929" s="1"/>
     </row>
-    <row r="930" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
       <c r="C930" s="6"/>
@@ -28897,7 +28918,7 @@
       <c r="AA930" s="1"/>
       <c r="AB930" s="1"/>
     </row>
-    <row r="931" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
       <c r="C931" s="6"/>
@@ -28927,7 +28948,7 @@
       <c r="AA931" s="1"/>
       <c r="AB931" s="1"/>
     </row>
-    <row r="932" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
       <c r="C932" s="6"/>
@@ -28957,7 +28978,7 @@
       <c r="AA932" s="1"/>
       <c r="AB932" s="1"/>
     </row>
-    <row r="933" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
       <c r="C933" s="6"/>
@@ -28987,7 +29008,7 @@
       <c r="AA933" s="1"/>
       <c r="AB933" s="1"/>
     </row>
-    <row r="934" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
       <c r="C934" s="6"/>
@@ -29017,7 +29038,7 @@
       <c r="AA934" s="1"/>
       <c r="AB934" s="1"/>
     </row>
-    <row r="935" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
       <c r="C935" s="6"/>
@@ -29047,7 +29068,7 @@
       <c r="AA935" s="1"/>
       <c r="AB935" s="1"/>
     </row>
-    <row r="936" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
       <c r="C936" s="6"/>
@@ -29077,7 +29098,7 @@
       <c r="AA936" s="1"/>
       <c r="AB936" s="1"/>
     </row>
-    <row r="937" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
       <c r="C937" s="6"/>
@@ -29107,7 +29128,7 @@
       <c r="AA937" s="1"/>
       <c r="AB937" s="1"/>
     </row>
-    <row r="938" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
       <c r="C938" s="6"/>
@@ -29137,7 +29158,7 @@
       <c r="AA938" s="1"/>
       <c r="AB938" s="1"/>
     </row>
-    <row r="939" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
       <c r="C939" s="6"/>
@@ -29167,7 +29188,7 @@
       <c r="AA939" s="1"/>
       <c r="AB939" s="1"/>
     </row>
-    <row r="940" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
       <c r="C940" s="6"/>
@@ -29197,7 +29218,7 @@
       <c r="AA940" s="1"/>
       <c r="AB940" s="1"/>
     </row>
-    <row r="941" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
       <c r="C941" s="6"/>
@@ -29227,7 +29248,7 @@
       <c r="AA941" s="1"/>
       <c r="AB941" s="1"/>
     </row>
-    <row r="942" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
       <c r="C942" s="6"/>
@@ -29257,7 +29278,7 @@
       <c r="AA942" s="1"/>
       <c r="AB942" s="1"/>
     </row>
-    <row r="943" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
       <c r="C943" s="6"/>
@@ -29287,7 +29308,7 @@
       <c r="AA943" s="1"/>
       <c r="AB943" s="1"/>
     </row>
-    <row r="944" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
       <c r="C944" s="6"/>
@@ -29317,7 +29338,7 @@
       <c r="AA944" s="1"/>
       <c r="AB944" s="1"/>
     </row>
-    <row r="945" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
       <c r="C945" s="6"/>
@@ -29347,7 +29368,7 @@
       <c r="AA945" s="1"/>
       <c r="AB945" s="1"/>
     </row>
-    <row r="946" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
       <c r="C946" s="6"/>
@@ -29377,7 +29398,7 @@
       <c r="AA946" s="1"/>
       <c r="AB946" s="1"/>
     </row>
-    <row r="947" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
       <c r="C947" s="6"/>
@@ -29407,7 +29428,7 @@
       <c r="AA947" s="1"/>
       <c r="AB947" s="1"/>
     </row>
-    <row r="948" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
       <c r="C948" s="6"/>
@@ -29437,7 +29458,7 @@
       <c r="AA948" s="1"/>
       <c r="AB948" s="1"/>
     </row>
-    <row r="949" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
       <c r="C949" s="6"/>
@@ -29467,7 +29488,7 @@
       <c r="AA949" s="1"/>
       <c r="AB949" s="1"/>
     </row>
-    <row r="950" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A950" s="1"/>
       <c r="B950" s="1"/>
       <c r="C950" s="6"/>
@@ -29497,7 +29518,7 @@
       <c r="AA950" s="1"/>
       <c r="AB950" s="1"/>
     </row>
-    <row r="951" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A951" s="1"/>
       <c r="B951" s="1"/>
       <c r="C951" s="6"/>
@@ -29527,7 +29548,7 @@
       <c r="AA951" s="1"/>
       <c r="AB951" s="1"/>
     </row>
-    <row r="952" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A952" s="1"/>
       <c r="B952" s="1"/>
       <c r="C952" s="6"/>
@@ -29557,7 +29578,7 @@
       <c r="AA952" s="1"/>
       <c r="AB952" s="1"/>
     </row>
-    <row r="953" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A953" s="1"/>
       <c r="B953" s="1"/>
       <c r="C953" s="6"/>
@@ -29587,7 +29608,7 @@
       <c r="AA953" s="1"/>
       <c r="AB953" s="1"/>
     </row>
-    <row r="954" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A954" s="1"/>
       <c r="B954" s="1"/>
       <c r="C954" s="6"/>
@@ -29617,7 +29638,7 @@
       <c r="AA954" s="1"/>
       <c r="AB954" s="1"/>
     </row>
-    <row r="955" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A955" s="1"/>
       <c r="B955" s="1"/>
       <c r="C955" s="6"/>
@@ -29647,7 +29668,7 @@
       <c r="AA955" s="1"/>
       <c r="AB955" s="1"/>
     </row>
-    <row r="956" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A956" s="1"/>
       <c r="B956" s="1"/>
       <c r="C956" s="6"/>
@@ -29677,7 +29698,7 @@
       <c r="AA956" s="1"/>
       <c r="AB956" s="1"/>
     </row>
-    <row r="957" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A957" s="1"/>
       <c r="B957" s="1"/>
       <c r="C957" s="6"/>
@@ -29707,7 +29728,7 @@
       <c r="AA957" s="1"/>
       <c r="AB957" s="1"/>
     </row>
-    <row r="958" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A958" s="1"/>
       <c r="B958" s="1"/>
       <c r="C958" s="6"/>
@@ -29737,7 +29758,7 @@
       <c r="AA958" s="1"/>
       <c r="AB958" s="1"/>
     </row>
-    <row r="959" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A959" s="1"/>
       <c r="B959" s="1"/>
       <c r="C959" s="6"/>
@@ -29767,7 +29788,7 @@
       <c r="AA959" s="1"/>
       <c r="AB959" s="1"/>
     </row>
-    <row r="960" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A960" s="1"/>
       <c r="B960" s="1"/>
       <c r="C960" s="6"/>
@@ -29797,7 +29818,7 @@
       <c r="AA960" s="1"/>
       <c r="AB960" s="1"/>
     </row>
-    <row r="961" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A961" s="1"/>
       <c r="B961" s="1"/>
       <c r="C961" s="6"/>
@@ -29827,7 +29848,7 @@
       <c r="AA961" s="1"/>
       <c r="AB961" s="1"/>
     </row>
-    <row r="962" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A962" s="1"/>
       <c r="B962" s="1"/>
       <c r="C962" s="6"/>
@@ -29857,7 +29878,7 @@
       <c r="AA962" s="1"/>
       <c r="AB962" s="1"/>
     </row>
-    <row r="963" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A963" s="1"/>
       <c r="B963" s="1"/>
       <c r="C963" s="6"/>
@@ -29887,7 +29908,7 @@
       <c r="AA963" s="1"/>
       <c r="AB963" s="1"/>
     </row>
-    <row r="964" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A964" s="1"/>
       <c r="B964" s="1"/>
       <c r="C964" s="6"/>
@@ -29917,7 +29938,7 @@
       <c r="AA964" s="1"/>
       <c r="AB964" s="1"/>
     </row>
-    <row r="965" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A965" s="1"/>
       <c r="B965" s="1"/>
       <c r="C965" s="6"/>
@@ -29947,7 +29968,7 @@
       <c r="AA965" s="1"/>
       <c r="AB965" s="1"/>
     </row>
-    <row r="966" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A966" s="1"/>
       <c r="B966" s="1"/>
       <c r="C966" s="6"/>
@@ -29977,7 +29998,7 @@
       <c r="AA966" s="1"/>
       <c r="AB966" s="1"/>
     </row>
-    <row r="967" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A967" s="1"/>
       <c r="B967" s="1"/>
       <c r="C967" s="6"/>
@@ -30007,7 +30028,7 @@
       <c r="AA967" s="1"/>
       <c r="AB967" s="1"/>
     </row>
-    <row r="968" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A968" s="1"/>
       <c r="B968" s="1"/>
       <c r="C968" s="6"/>
@@ -30037,7 +30058,7 @@
       <c r="AA968" s="1"/>
       <c r="AB968" s="1"/>
     </row>
-    <row r="969" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A969" s="1"/>
       <c r="B969" s="1"/>
       <c r="C969" s="6"/>
@@ -30067,7 +30088,7 @@
       <c r="AA969" s="1"/>
       <c r="AB969" s="1"/>
     </row>
-    <row r="970" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A970" s="1"/>
       <c r="B970" s="1"/>
       <c r="C970" s="6"/>
@@ -30097,7 +30118,7 @@
       <c r="AA970" s="1"/>
       <c r="AB970" s="1"/>
     </row>
-    <row r="971" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A971" s="1"/>
       <c r="B971" s="1"/>
       <c r="C971" s="6"/>
@@ -30127,7 +30148,7 @@
       <c r="AA971" s="1"/>
       <c r="AB971" s="1"/>
     </row>
-    <row r="972" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A972" s="1"/>
       <c r="B972" s="1"/>
       <c r="C972" s="6"/>
@@ -30157,7 +30178,7 @@
       <c r="AA972" s="1"/>
       <c r="AB972" s="1"/>
     </row>
-    <row r="973" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A973" s="1"/>
       <c r="B973" s="1"/>
       <c r="C973" s="6"/>
@@ -30187,7 +30208,7 @@
       <c r="AA973" s="1"/>
       <c r="AB973" s="1"/>
     </row>
-    <row r="974" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A974" s="1"/>
       <c r="B974" s="1"/>
       <c r="C974" s="6"/>
@@ -30217,7 +30238,7 @@
       <c r="AA974" s="1"/>
       <c r="AB974" s="1"/>
     </row>
-    <row r="975" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A975" s="1"/>
       <c r="B975" s="1"/>
       <c r="C975" s="6"/>
@@ -30247,7 +30268,7 @@
       <c r="AA975" s="1"/>
       <c r="AB975" s="1"/>
     </row>
-    <row r="976" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A976" s="1"/>
       <c r="B976" s="1"/>
       <c r="C976" s="6"/>
@@ -30277,7 +30298,7 @@
       <c r="AA976" s="1"/>
       <c r="AB976" s="1"/>
     </row>
-    <row r="977" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A977" s="1"/>
       <c r="B977" s="1"/>
       <c r="C977" s="6"/>
@@ -30307,7 +30328,7 @@
       <c r="AA977" s="1"/>
       <c r="AB977" s="1"/>
     </row>
-    <row r="978" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A978" s="1"/>
       <c r="B978" s="1"/>
       <c r="C978" s="6"/>
@@ -30337,7 +30358,7 @@
       <c r="AA978" s="1"/>
       <c r="AB978" s="1"/>
     </row>
-    <row r="979" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A979" s="1"/>
       <c r="B979" s="1"/>
       <c r="C979" s="6"/>
@@ -30367,7 +30388,7 @@
       <c r="AA979" s="1"/>
       <c r="AB979" s="1"/>
     </row>
-    <row r="980" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A980" s="1"/>
       <c r="B980" s="1"/>
       <c r="C980" s="6"/>
@@ -30397,7 +30418,7 @@
       <c r="AA980" s="1"/>
       <c r="AB980" s="1"/>
     </row>
-    <row r="981" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A981" s="1"/>
       <c r="B981" s="1"/>
       <c r="C981" s="6"/>
@@ -30427,7 +30448,7 @@
       <c r="AA981" s="1"/>
       <c r="AB981" s="1"/>
     </row>
-    <row r="982" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A982" s="1"/>
       <c r="B982" s="1"/>
       <c r="C982" s="6"/>
@@ -30457,7 +30478,7 @@
       <c r="AA982" s="1"/>
       <c r="AB982" s="1"/>
     </row>
-    <row r="983" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A983" s="1"/>
       <c r="B983" s="1"/>
       <c r="C983" s="6"/>
@@ -30487,7 +30508,7 @@
       <c r="AA983" s="1"/>
       <c r="AB983" s="1"/>
     </row>
-    <row r="984" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A984" s="1"/>
       <c r="B984" s="1"/>
       <c r="C984" s="6"/>
@@ -30517,7 +30538,7 @@
       <c r="AA984" s="1"/>
       <c r="AB984" s="1"/>
     </row>
-    <row r="985" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A985" s="1"/>
       <c r="B985" s="1"/>
       <c r="C985" s="6"/>
@@ -30547,7 +30568,7 @@
       <c r="AA985" s="1"/>
       <c r="AB985" s="1"/>
     </row>
-    <row r="986" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A986" s="1"/>
       <c r="B986" s="1"/>
       <c r="C986" s="6"/>
@@ -30577,7 +30598,7 @@
       <c r="AA986" s="1"/>
       <c r="AB986" s="1"/>
     </row>
-    <row r="987" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A987" s="1"/>
       <c r="B987" s="1"/>
       <c r="C987" s="6"/>
@@ -30607,7 +30628,7 @@
       <c r="AA987" s="1"/>
       <c r="AB987" s="1"/>
     </row>
-    <row r="988" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A988" s="1"/>
       <c r="B988" s="1"/>
       <c r="C988" s="6"/>
@@ -30637,7 +30658,7 @@
       <c r="AA988" s="1"/>
       <c r="AB988" s="1"/>
     </row>
-    <row r="989" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A989" s="1"/>
       <c r="B989" s="1"/>
       <c r="C989" s="6"/>
@@ -30667,7 +30688,7 @@
       <c r="AA989" s="1"/>
       <c r="AB989" s="1"/>
     </row>
-    <row r="990" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A990" s="1"/>
       <c r="B990" s="1"/>
       <c r="C990" s="6"/>
@@ -30697,7 +30718,7 @@
       <c r="AA990" s="1"/>
       <c r="AB990" s="1"/>
     </row>
-    <row r="991" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A991" s="1"/>
       <c r="B991" s="1"/>
       <c r="C991" s="6"/>
@@ -30727,7 +30748,7 @@
       <c r="AA991" s="1"/>
       <c r="AB991" s="1"/>
     </row>
-    <row r="992" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A992" s="1"/>
       <c r="B992" s="1"/>
       <c r="C992" s="6"/>
@@ -30757,7 +30778,7 @@
       <c r="AA992" s="1"/>
       <c r="AB992" s="1"/>
     </row>
-    <row r="993" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A993" s="1"/>
       <c r="B993" s="1"/>
       <c r="C993" s="6"/>
@@ -30787,7 +30808,7 @@
       <c r="AA993" s="1"/>
       <c r="AB993" s="1"/>
     </row>
-    <row r="994" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A994" s="1"/>
       <c r="B994" s="1"/>
       <c r="C994" s="6"/>
@@ -30817,7 +30838,7 @@
       <c r="AA994" s="1"/>
       <c r="AB994" s="1"/>
     </row>
-    <row r="995" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A995" s="1"/>
       <c r="B995" s="1"/>
       <c r="C995" s="6"/>
@@ -30847,7 +30868,7 @@
       <c r="AA995" s="1"/>
       <c r="AB995" s="1"/>
     </row>
-    <row r="996" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A996" s="1"/>
       <c r="B996" s="1"/>
       <c r="C996" s="6"/>
@@ -30897,8 +30918,9 @@
     <hyperlink ref="E4" r:id="rId4" xr:uid="{632D4EDA-2546-42F7-9045-C4F3B941323E}"/>
     <hyperlink ref="E5" r:id="rId5" xr:uid="{0E52BA5A-C3C1-4DA3-B691-162A42A6C9E4}"/>
     <hyperlink ref="E6" r:id="rId6" xr:uid="{54EFCA8D-ED58-4407-AF18-9274DA65E70F}"/>
+    <hyperlink ref="I4" r:id="rId7" xr:uid="{F210A265-B906-46C9-90E8-9A742A24CB80}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>